--- a/GhiDanh/PhieuGhiDanh-VISA.xlsx
+++ b/GhiDanh/PhieuGhiDanh-VISA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gia Long\Site Web\Textes\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NGOCNHAN\test2021\GhiDanh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE18AD6-3D25-4691-9368-C8DEF3F10EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B90DB9-3BF3-471F-BF18-884AFE710FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="442" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="442" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phiếu ghi danh" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="82">
   <si>
     <t>PHIẾU GHI DANH</t>
   </si>
@@ -513,9 +513,6 @@
     <t>Họ Tên</t>
   </si>
   <si>
-    <t>Ngày, tháng năm sinh</t>
-  </si>
-  <si>
     <t>Địa chỉ nhà</t>
   </si>
   <si>
@@ -535,6 +532,14 @@
     <t xml:space="preserve">Ngày, tháng năm
 hết hạn
 Hộ chiếu </t>
+  </si>
+  <si>
+    <t>Ngày, tháng
+năm và nơi sinh</t>
+  </si>
+  <si>
+    <t>Số
+thứ tự</t>
   </si>
 </sst>
 </file>
@@ -1321,59 +1326,59 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1712,56 +1717,6 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>390526</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1162050</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Image 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B254A34F-20D1-4657-8A31-D975B16A9509}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="390526" y="76201"/>
-          <a:ext cx="1238249" cy="1057274"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -1974,51 +1929,6 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>390526</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1238249" cy="1057274"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Image 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54F3F7B4-D6E7-4600-BFC1-5C8784B0F89D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="390526" y="76201"/>
-          <a:ext cx="1238249" cy="1057274"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -2176,6 +2086,106 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1214475</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>107475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B6EA4C3-53F7-4E4E-AA1E-92AC7F1EBB78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457200" y="95250"/>
+          <a:ext cx="1224000" cy="1260000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1224000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>107475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Image 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F96C946-CE43-474E-BE1E-6A797A4B697B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="466725" y="6315075"/>
+          <a:ext cx="1224000" cy="1260000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2446,57 +2456,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" customWidth="1"/>
     <col min="8" max="8" width="26.42578125" customWidth="1"/>
     <col min="9" max="9" width="21.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="22"/>
-      <c r="C2" s="114" t="s">
+      <c r="C2" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
     </row>
     <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="B3" s="26"/>
-      <c r="C3" s="114" t="s">
+      <c r="C3" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
       <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="B4" s="22"/>
-      <c r="C4" s="114" t="s">
+      <c r="C4" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
     </row>
     <row r="5" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="23"/>
@@ -2528,28 +2538,28 @@
         <v>73</v>
       </c>
       <c r="C8" s="96" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="97" t="s">
+      <c r="E8" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="97" t="s">
+      <c r="F8" s="96" t="s">
         <v>76</v>
-      </c>
-      <c r="F8" s="96" t="s">
-        <v>77</v>
       </c>
       <c r="G8" s="98" t="s">
         <v>66</v>
       </c>
       <c r="H8" s="97" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="97" t="s">
+      <c r="J8" s="97" t="s">
         <v>79</v>
-      </c>
-      <c r="J8" s="97" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2730,37 +2740,37 @@
     </row>
     <row r="23" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="B23" s="22"/>
-      <c r="C23" s="114" t="s">
+      <c r="C23" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="114"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
     </row>
     <row r="24" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="B24" s="26"/>
-      <c r="C24" s="114" t="s">
+      <c r="C24" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="107"/>
       <c r="I24" s="27"/>
     </row>
     <row r="25" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="B25" s="22"/>
-      <c r="C25" s="114" t="s">
+      <c r="C25" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="114"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
     </row>
     <row r="26" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="23"/>
@@ -2785,22 +2795,22 @@
     </row>
     <row r="28" spans="1:10" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="115" t="s">
-        <v>51</v>
+      <c r="A29" s="108" t="s">
+        <v>81</v>
       </c>
       <c r="B29" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="117" t="s">
+      <c r="C29" s="110" t="s">
         <v>53</v>
       </c>
       <c r="D29" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="108" t="s">
+      <c r="E29" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="109"/>
+      <c r="F29" s="113"/>
       <c r="G29" s="61" t="s">
         <v>3</v>
       </c>
@@ -2814,12 +2824,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="21" customFormat="1" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="116"/>
+    <row r="30" spans="1:10" s="21" customFormat="1" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="109"/>
       <c r="B30" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="118"/>
+      <c r="C30" s="111"/>
       <c r="D30" s="59">
         <v>70</v>
       </c>
@@ -3078,17 +3088,17 @@
       <c r="F49" s="49"/>
     </row>
     <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="101" t="s">
+      <c r="A50" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="B50" s="101"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="101"/>
-      <c r="E50" s="101"/>
-      <c r="F50" s="101"/>
-      <c r="G50" s="101"/>
-      <c r="H50" s="101"/>
-      <c r="I50" s="101"/>
+      <c r="B50" s="102"/>
+      <c r="C50" s="102"/>
+      <c r="D50" s="102"/>
+      <c r="E50" s="102"/>
+      <c r="F50" s="102"/>
+      <c r="G50" s="102"/>
+      <c r="H50" s="102"/>
+      <c r="I50" s="102"/>
     </row>
     <row r="51" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
@@ -3099,11 +3109,11 @@
       <c r="F51" s="9"/>
     </row>
     <row r="52" spans="1:10" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="102" t="s">
+      <c r="A52" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="102"/>
-      <c r="C52" s="102"/>
+      <c r="B52" s="118"/>
+      <c r="C52" s="118"/>
       <c r="D52" s="6" t="s">
         <v>27</v>
       </c>
@@ -3134,56 +3144,56 @@
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:10" s="25" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="112" t="s">
+      <c r="A55" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="B55" s="112"/>
-      <c r="C55" s="112"/>
-      <c r="D55" s="112"/>
-      <c r="E55" s="112"/>
-      <c r="F55" s="112"/>
-      <c r="G55" s="112"/>
-      <c r="H55" s="112"/>
-      <c r="I55" s="112"/>
-      <c r="J55" s="112"/>
+      <c r="B55" s="105"/>
+      <c r="C55" s="105"/>
+      <c r="D55" s="105"/>
+      <c r="E55" s="105"/>
+      <c r="F55" s="105"/>
+      <c r="G55" s="105"/>
+      <c r="H55" s="105"/>
+      <c r="I55" s="105"/>
+      <c r="J55" s="105"/>
     </row>
     <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="101" t="s">
+      <c r="A56" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="101"/>
-      <c r="C56" s="101"/>
-      <c r="D56" s="101"/>
-      <c r="E56" s="101"/>
-      <c r="F56" s="101"/>
+      <c r="B56" s="102"/>
+      <c r="C56" s="102"/>
+      <c r="D56" s="102"/>
+      <c r="E56" s="102"/>
+      <c r="F56" s="102"/>
     </row>
     <row r="57" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="104" t="s">
+      <c r="A57" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="104"/>
-      <c r="C57" s="104"/>
-      <c r="D57" s="104"/>
-      <c r="E57" s="104"/>
-      <c r="F57" s="104"/>
-      <c r="G57" s="104"/>
-      <c r="H57" s="104"/>
-      <c r="I57" s="104"/>
-      <c r="J57" s="104"/>
+      <c r="B57" s="101"/>
+      <c r="C57" s="101"/>
+      <c r="D57" s="101"/>
+      <c r="E57" s="101"/>
+      <c r="F57" s="101"/>
+      <c r="G57" s="101"/>
+      <c r="H57" s="101"/>
+      <c r="I57" s="101"/>
+      <c r="J57" s="101"/>
     </row>
     <row r="58" spans="1:10" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="113" t="s">
+      <c r="A58" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="B58" s="113"/>
-      <c r="C58" s="113"/>
-      <c r="D58" s="113"/>
-      <c r="E58" s="113"/>
-      <c r="F58" s="113"/>
-      <c r="G58" s="113"/>
-      <c r="H58" s="113"/>
-      <c r="I58" s="113"/>
-      <c r="J58" s="113"/>
+      <c r="B58" s="106"/>
+      <c r="C58" s="106"/>
+      <c r="D58" s="106"/>
+      <c r="E58" s="106"/>
+      <c r="F58" s="106"/>
+      <c r="G58" s="106"/>
+      <c r="H58" s="106"/>
+      <c r="I58" s="106"/>
+      <c r="J58" s="106"/>
     </row>
     <row r="59" spans="1:10" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
@@ -3208,28 +3218,28 @@
       <c r="H60" s="12"/>
     </row>
     <row r="61" spans="1:10" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="110" t="s">
+      <c r="A61" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="B61" s="110"/>
-      <c r="C61" s="110"/>
-      <c r="D61" s="110"/>
-      <c r="E61" s="110"/>
-      <c r="F61" s="110"/>
-      <c r="G61" s="110"/>
-      <c r="H61" s="110"/>
+      <c r="B61" s="103"/>
+      <c r="C61" s="103"/>
+      <c r="D61" s="103"/>
+      <c r="E61" s="103"/>
+      <c r="F61" s="103"/>
+      <c r="G61" s="103"/>
+      <c r="H61" s="103"/>
     </row>
     <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="111" t="s">
+      <c r="A62" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="B62" s="111"/>
-      <c r="C62" s="111"/>
-      <c r="D62" s="111"/>
-      <c r="E62" s="111"/>
-      <c r="F62" s="111"/>
-      <c r="G62" s="111"/>
-      <c r="H62" s="111"/>
+      <c r="B62" s="104"/>
+      <c r="C62" s="104"/>
+      <c r="D62" s="104"/>
+      <c r="E62" s="104"/>
+      <c r="F62" s="104"/>
+      <c r="G62" s="104"/>
+      <c r="H62" s="104"/>
     </row>
     <row r="63" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
@@ -3242,16 +3252,16 @@
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:10" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="101" t="s">
+      <c r="A64" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="B64" s="101"/>
-      <c r="C64" s="101"/>
-      <c r="D64" s="101"/>
-      <c r="E64" s="101"/>
-      <c r="F64" s="101"/>
-      <c r="G64" s="101"/>
-      <c r="H64" s="101"/>
+      <c r="B64" s="102"/>
+      <c r="C64" s="102"/>
+      <c r="D64" s="102"/>
+      <c r="E64" s="102"/>
+      <c r="F64" s="102"/>
+      <c r="G64" s="102"/>
+      <c r="H64" s="102"/>
     </row>
     <row r="65" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
@@ -3272,10 +3282,10 @@
       <c r="F66" s="3"/>
     </row>
     <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="106" t="s">
+      <c r="A67" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="B67" s="106"/>
+      <c r="B67" s="115"/>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
@@ -3290,55 +3300,55 @@
       <c r="F68" s="11"/>
     </row>
     <row r="69" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="104" t="s">
+      <c r="A69" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="B69" s="104"/>
-      <c r="C69" s="104"/>
-      <c r="D69" s="104"/>
-      <c r="E69" s="104"/>
-      <c r="F69" s="104"/>
-      <c r="G69" s="104"/>
+      <c r="B69" s="101"/>
+      <c r="C69" s="101"/>
+      <c r="D69" s="101"/>
+      <c r="E69" s="101"/>
+      <c r="F69" s="101"/>
+      <c r="G69" s="101"/>
     </row>
     <row r="70" spans="1:10" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="104" t="s">
+      <c r="A70" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="B70" s="104"/>
-      <c r="C70" s="104"/>
-      <c r="D70" s="104"/>
-      <c r="E70" s="104"/>
-      <c r="F70" s="104"/>
-      <c r="G70" s="104"/>
-      <c r="H70" s="104"/>
-      <c r="I70" s="104"/>
+      <c r="B70" s="101"/>
+      <c r="C70" s="101"/>
+      <c r="D70" s="101"/>
+      <c r="E70" s="101"/>
+      <c r="F70" s="101"/>
+      <c r="G70" s="101"/>
+      <c r="H70" s="101"/>
+      <c r="I70" s="101"/>
     </row>
     <row r="71" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="103" t="s">
+      <c r="A71" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="103"/>
-      <c r="C71" s="103"/>
-      <c r="D71" s="103"/>
-      <c r="E71" s="103"/>
-      <c r="F71" s="103"/>
-      <c r="G71" s="103"/>
-      <c r="H71" s="103"/>
-      <c r="I71" s="103"/>
-      <c r="J71" s="103"/>
+      <c r="B71" s="117"/>
+      <c r="C71" s="117"/>
+      <c r="D71" s="117"/>
+      <c r="E71" s="117"/>
+      <c r="F71" s="117"/>
+      <c r="G71" s="117"/>
+      <c r="H71" s="117"/>
+      <c r="I71" s="117"/>
+      <c r="J71" s="117"/>
     </row>
     <row r="72" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="103" t="s">
+      <c r="A72" s="117" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="103"/>
-      <c r="C72" s="103"/>
-      <c r="D72" s="103"/>
-      <c r="E72" s="103"/>
-      <c r="F72" s="103"/>
-      <c r="G72" s="103"/>
-      <c r="H72" s="103"/>
-      <c r="I72" s="103"/>
+      <c r="B72" s="117"/>
+      <c r="C72" s="117"/>
+      <c r="D72" s="117"/>
+      <c r="E72" s="117"/>
+      <c r="F72" s="117"/>
+      <c r="G72" s="117"/>
+      <c r="H72" s="117"/>
+      <c r="I72" s="117"/>
       <c r="J72" s="85"/>
     </row>
     <row r="73" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -3370,33 +3380,33 @@
       <c r="J74" s="90"/>
     </row>
     <row r="75" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="107" t="s">
+      <c r="A75" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="B75" s="107"/>
-      <c r="C75" s="107"/>
-      <c r="D75" s="107"/>
-      <c r="E75" s="107"/>
-      <c r="F75" s="107"/>
-      <c r="G75" s="107"/>
-      <c r="H75" s="107"/>
-      <c r="I75" s="107"/>
-      <c r="J75" s="107"/>
+      <c r="B75" s="116"/>
+      <c r="C75" s="116"/>
+      <c r="D75" s="116"/>
+      <c r="E75" s="116"/>
+      <c r="F75" s="116"/>
+      <c r="G75" s="116"/>
+      <c r="H75" s="116"/>
+      <c r="I75" s="116"/>
+      <c r="J75" s="116"/>
     </row>
     <row r="76" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="101" t="s">
+      <c r="A76" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="B76" s="101"/>
-      <c r="C76" s="101"/>
-      <c r="D76" s="101"/>
-      <c r="E76" s="101"/>
-      <c r="F76" s="101"/>
-      <c r="G76" s="101"/>
-      <c r="H76" s="101"/>
-      <c r="I76" s="101"/>
-    </row>
-    <row r="77" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="102"/>
+      <c r="C76" s="102"/>
+      <c r="D76" s="102"/>
+      <c r="E76" s="102"/>
+      <c r="F76" s="102"/>
+      <c r="G76" s="102"/>
+      <c r="H76" s="102"/>
+      <c r="I76" s="102"/>
+    </row>
+    <row r="77" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="65" t="s">
         <v>51</v>
       </c>
@@ -3409,10 +3419,10 @@
       <c r="D77" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E77" s="108" t="s">
+      <c r="E77" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="F77" s="109"/>
+      <c r="F77" s="113"/>
       <c r="G77" s="61" t="s">
         <v>3</v>
       </c>
@@ -3583,10 +3593,10 @@
       <c r="I84" s="51"/>
     </row>
     <row r="85" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="104" t="s">
+      <c r="A85" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="B85" s="104"/>
+      <c r="B85" s="101"/>
       <c r="C85" s="15" t="s">
         <v>18</v>
       </c>
@@ -3610,10 +3620,10 @@
       </c>
     </row>
     <row r="87" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="104" t="s">
+      <c r="A87" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="104"/>
+      <c r="B87" s="101"/>
       <c r="C87" s="14"/>
       <c r="D87" s="14"/>
       <c r="E87" s="14"/>
@@ -3650,8 +3660,8 @@
         <v>58</v>
       </c>
       <c r="B90" s="1"/>
-      <c r="D90" s="105"/>
-      <c r="E90" s="105"/>
+      <c r="D90" s="114"/>
+      <c r="E90" s="114"/>
       <c r="F90" s="15" t="s">
         <v>59</v>
       </c>

--- a/GhiDanh/PhieuGhiDanh-VISA.xlsx
+++ b/GhiDanh/PhieuGhiDanh-VISA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NGOCNHAN\test2021\GhiDanh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gia Long\Site Web\Textes\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B90DB9-3BF3-471F-BF18-884AFE710FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E02DFF-6849-4F66-B688-82492E3D6E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="442" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="442" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phiếu ghi danh" sheetId="1" r:id="rId1"/>
@@ -548,7 +548,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
-    <numFmt numFmtId="164" formatCode="#,##0\ _€;\-#,##0\ _€;#"/>
+    <numFmt numFmtId="165" formatCode="#,##0\ &quot;€&quot;;\-#,##0\ &quot;€&quot;;#\ &quot;€&quot;\ "/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -1056,7 +1056,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1073,9 +1073,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1103,14 +1100,8 @@
     <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1181,9 +1172,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1326,12 +1314,48 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1344,42 +1368,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2457,7 +2462,7 @@
   <dimension ref="A2:J90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2475,260 +2480,260 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="22"/>
-      <c r="C2" s="107" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
     </row>
     <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="26"/>
-      <c r="C3" s="107" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="27"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="24"/>
     </row>
     <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="22"/>
-      <c r="C4" s="107" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
     </row>
     <row r="5" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="23"/>
-      <c r="C5" s="54" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="23"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
     </row>
     <row r="7" spans="1:10" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:10" s="86" customFormat="1" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="99" t="s">
+    <row r="8" spans="1:10" s="82" customFormat="1" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="96" t="s">
+      <c r="C8" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="97" t="s">
+      <c r="D8" s="93" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="97" t="s">
+      <c r="E8" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="96" t="s">
+      <c r="F8" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="98" t="s">
+      <c r="G8" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="97" t="s">
+      <c r="H8" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="97" t="s">
+      <c r="I8" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="J8" s="97" t="s">
+      <c r="J8" s="93" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="94">
+      <c r="A9" s="90">
         <v>1</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="100"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="96"/>
     </row>
     <row r="10" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35">
+      <c r="A10" s="32">
         <v>2</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
     </row>
     <row r="11" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35">
+      <c r="A11" s="32">
         <v>3</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
     </row>
     <row r="12" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35">
+      <c r="A12" s="32">
         <v>4</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
     </row>
     <row r="13" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35">
+      <c r="A13" s="32">
         <v>5</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
     </row>
     <row r="14" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35">
+      <c r="A14" s="32">
         <v>6</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
     </row>
     <row r="15" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35">
+      <c r="A15" s="32">
         <v>7</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
     </row>
     <row r="16" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35">
+      <c r="A16" s="32">
         <v>8</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
     </row>
     <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35">
+      <c r="A17" s="32">
         <v>9</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
     </row>
     <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35">
+      <c r="A18" s="32">
         <v>10</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
     </row>
     <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35">
+      <c r="A19" s="32">
         <v>11</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
     </row>
     <row r="20" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="36">
+      <c r="A20" s="33">
         <v>12</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
     </row>
     <row r="21" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
@@ -2739,258 +2744,288 @@
       <c r="F21" s="3"/>
     </row>
     <row r="23" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B23" s="22"/>
-      <c r="C23" s="107" t="s">
+      <c r="B23" s="19"/>
+      <c r="C23" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="107"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="97"/>
     </row>
     <row r="24" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B24" s="26"/>
-      <c r="C24" s="107" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="27"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="24"/>
     </row>
     <row r="25" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="B25" s="22"/>
-      <c r="C25" s="107" t="s">
+      <c r="B25" s="19"/>
+      <c r="C25" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="107"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="97"/>
     </row>
     <row r="26" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="23"/>
-      <c r="C26" s="54" t="s">
+      <c r="B26" s="20"/>
+      <c r="C26" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
     </row>
     <row r="27" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="23"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
     </row>
     <row r="28" spans="1:10" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="108" t="s">
+      <c r="A29" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="110" t="s">
+      <c r="C29" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D29" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="112" t="s">
+      <c r="E29" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="113"/>
-      <c r="G29" s="61" t="s">
+      <c r="F29" s="103"/>
+      <c r="G29" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="32" t="s">
+      <c r="H29" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="I29" s="32" t="s">
+      <c r="I29" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="J29" s="32" t="s">
+      <c r="J29" s="29" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="21" customFormat="1" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="109"/>
-      <c r="B30" s="62" t="s">
+    <row r="30" spans="1:10" s="18" customFormat="1" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="99"/>
+      <c r="B30" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="111"/>
-      <c r="D30" s="59">
+      <c r="C30" s="101"/>
+      <c r="D30" s="55">
         <v>70</v>
       </c>
-      <c r="E30" s="60" t="s">
+      <c r="E30" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="58" t="s">
+      <c r="F30" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="62" t="s">
+      <c r="G30" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="H30" s="62" t="s">
+      <c r="H30" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="I30" s="62" t="s">
+      <c r="I30" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="J30" s="62" t="s">
+      <c r="J30" s="58" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="35">
+      <c r="A31" s="32">
         <v>1</v>
       </c>
-      <c r="B31" s="63"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="115">
+        <f>SUM(D31:E31)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="46"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
     </row>
     <row r="32" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="35">
+      <c r="A32" s="32">
         <v>2</v>
       </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="115">
+        <f t="shared" ref="G32:G40" si="0">SUM(D32:E32)</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="30"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
     </row>
     <row r="33" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="35">
+      <c r="A33" s="32">
         <v>3</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="115">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="30"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
     </row>
     <row r="34" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="35">
+      <c r="A34" s="32">
         <v>4</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="115">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="30"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
     </row>
     <row r="35" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="35">
+      <c r="A35" s="32">
         <v>5</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="115">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="30"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
     </row>
     <row r="36" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="35">
+      <c r="A36" s="32">
         <v>6</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="115">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="30"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
     </row>
     <row r="37" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="35">
+      <c r="A37" s="32">
         <v>7</v>
       </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="115">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="30"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
     </row>
     <row r="38" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="35">
+      <c r="A38" s="32">
         <v>8</v>
       </c>
-      <c r="B38" s="37"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="115">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="30"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
     </row>
     <row r="39" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="35">
+      <c r="A39" s="32">
         <v>9</v>
       </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="115">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="30"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
     </row>
     <row r="40" spans="1:10" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="36">
+      <c r="A40" s="33">
         <v>10</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="47"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="116">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="31"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
     </row>
     <row r="41" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
@@ -2999,6 +3034,7 @@
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
+      <c r="G41" s="117"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
@@ -3007,6 +3043,7 @@
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
+      <c r="G42" s="117"/>
     </row>
     <row r="43" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
@@ -3017,6 +3054,7 @@
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="3"/>
+      <c r="G43" s="117"/>
     </row>
     <row r="44" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
@@ -3024,9 +3062,15 @@
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="G44" s="8" t="s">
+      <c r="D44" s="121">
+        <f>SUM(D31:D40)</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="121">
+        <f>SUM(E31:E40)</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="118" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3039,7 +3083,7 @@
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="G45" s="20" t="s">
+      <c r="G45" s="119" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3051,7 +3095,7 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
-      <c r="G46" s="18" t="s">
+      <c r="G46" s="120" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3063,7 +3107,7 @@
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
-      <c r="G47" s="18" t="s">
+      <c r="G47" s="120" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3075,7 +3119,7 @@
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="G48" s="48" t="s">
+      <c r="G48" s="118" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3085,42 +3129,42 @@
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="49"/>
+      <c r="F49" s="45"/>
     </row>
     <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="102" t="s">
+      <c r="A50" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B50" s="102"/>
-      <c r="C50" s="102"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="102"/>
-      <c r="F50" s="102"/>
-      <c r="G50" s="102"/>
-      <c r="H50" s="102"/>
-      <c r="I50" s="102"/>
+      <c r="B50" s="109"/>
+      <c r="C50" s="109"/>
+      <c r="D50" s="109"/>
+      <c r="E50" s="109"/>
+      <c r="F50" s="109"/>
+      <c r="G50" s="109"/>
+      <c r="H50" s="109"/>
+      <c r="I50" s="109"/>
     </row>
     <row r="51" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
     </row>
     <row r="52" spans="1:10" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="118" t="s">
+      <c r="A52" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="118"/>
-      <c r="C52" s="118"/>
+      <c r="B52" s="110"/>
+      <c r="C52" s="110"/>
       <c r="D52" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E52" s="6"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:10" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
@@ -3136,64 +3180,64 @@
       </c>
     </row>
     <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:10" s="25" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="105" t="s">
+    <row r="55" spans="1:10" s="22" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="B55" s="105"/>
-      <c r="C55" s="105"/>
-      <c r="D55" s="105"/>
-      <c r="E55" s="105"/>
-      <c r="F55" s="105"/>
-      <c r="G55" s="105"/>
-      <c r="H55" s="105"/>
-      <c r="I55" s="105"/>
-      <c r="J55" s="105"/>
+      <c r="B55" s="113"/>
+      <c r="C55" s="113"/>
+      <c r="D55" s="113"/>
+      <c r="E55" s="113"/>
+      <c r="F55" s="113"/>
+      <c r="G55" s="113"/>
+      <c r="H55" s="113"/>
+      <c r="I55" s="113"/>
+      <c r="J55" s="113"/>
     </row>
     <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="102" t="s">
+      <c r="A56" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="102"/>
-      <c r="C56" s="102"/>
-      <c r="D56" s="102"/>
-      <c r="E56" s="102"/>
-      <c r="F56" s="102"/>
+      <c r="B56" s="109"/>
+      <c r="C56" s="109"/>
+      <c r="D56" s="109"/>
+      <c r="E56" s="109"/>
+      <c r="F56" s="109"/>
     </row>
     <row r="57" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="101" t="s">
+      <c r="A57" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="101"/>
-      <c r="C57" s="101"/>
-      <c r="D57" s="101"/>
-      <c r="E57" s="101"/>
-      <c r="F57" s="101"/>
-      <c r="G57" s="101"/>
-      <c r="H57" s="101"/>
-      <c r="I57" s="101"/>
-      <c r="J57" s="101"/>
+      <c r="B57" s="106"/>
+      <c r="C57" s="106"/>
+      <c r="D57" s="106"/>
+      <c r="E57" s="106"/>
+      <c r="F57" s="106"/>
+      <c r="G57" s="106"/>
+      <c r="H57" s="106"/>
+      <c r="I57" s="106"/>
+      <c r="J57" s="106"/>
     </row>
     <row r="58" spans="1:10" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="106" t="s">
+      <c r="A58" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="B58" s="106"/>
-      <c r="C58" s="106"/>
-      <c r="D58" s="106"/>
-      <c r="E58" s="106"/>
-      <c r="F58" s="106"/>
-      <c r="G58" s="106"/>
-      <c r="H58" s="106"/>
-      <c r="I58" s="106"/>
-      <c r="J58" s="106"/>
+      <c r="B58" s="114"/>
+      <c r="C58" s="114"/>
+      <c r="D58" s="114"/>
+      <c r="E58" s="114"/>
+      <c r="F58" s="114"/>
+      <c r="G58" s="114"/>
+      <c r="H58" s="114"/>
+      <c r="I58" s="114"/>
+      <c r="J58" s="114"/>
     </row>
     <row r="59" spans="1:10" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
@@ -3206,40 +3250,40 @@
       <c r="F59" s="6"/>
     </row>
     <row r="60" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-    </row>
-    <row r="61" spans="1:10" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="103" t="s">
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+    </row>
+    <row r="61" spans="1:10" s="25" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="B61" s="103"/>
-      <c r="C61" s="103"/>
-      <c r="D61" s="103"/>
-      <c r="E61" s="103"/>
-      <c r="F61" s="103"/>
-      <c r="G61" s="103"/>
-      <c r="H61" s="103"/>
+      <c r="B61" s="111"/>
+      <c r="C61" s="111"/>
+      <c r="D61" s="111"/>
+      <c r="E61" s="111"/>
+      <c r="F61" s="111"/>
+      <c r="G61" s="111"/>
+      <c r="H61" s="111"/>
     </row>
     <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="104" t="s">
+      <c r="A62" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="B62" s="104"/>
-      <c r="C62" s="104"/>
-      <c r="D62" s="104"/>
-      <c r="E62" s="104"/>
-      <c r="F62" s="104"/>
-      <c r="G62" s="104"/>
-      <c r="H62" s="104"/>
+      <c r="B62" s="112"/>
+      <c r="C62" s="112"/>
+      <c r="D62" s="112"/>
+      <c r="E62" s="112"/>
+      <c r="F62" s="112"/>
+      <c r="G62" s="112"/>
+      <c r="H62" s="112"/>
     </row>
     <row r="63" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
@@ -3252,16 +3296,16 @@
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:10" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="102" t="s">
+      <c r="A64" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="B64" s="102"/>
-      <c r="C64" s="102"/>
-      <c r="D64" s="102"/>
-      <c r="E64" s="102"/>
-      <c r="F64" s="102"/>
-      <c r="G64" s="102"/>
-      <c r="H64" s="102"/>
+      <c r="B64" s="109"/>
+      <c r="C64" s="109"/>
+      <c r="D64" s="109"/>
+      <c r="E64" s="109"/>
+      <c r="F64" s="109"/>
+      <c r="G64" s="109"/>
+      <c r="H64" s="109"/>
     </row>
     <row r="65" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
@@ -3282,387 +3326,387 @@
       <c r="F66" s="3"/>
     </row>
     <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="115" t="s">
+      <c r="A67" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="B67" s="115"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
+      <c r="B67" s="105"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
     </row>
     <row r="68" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="10"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
+      <c r="A68" s="9"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
     </row>
     <row r="69" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="101" t="s">
+      <c r="A69" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="B69" s="101"/>
-      <c r="C69" s="101"/>
-      <c r="D69" s="101"/>
-      <c r="E69" s="101"/>
-      <c r="F69" s="101"/>
-      <c r="G69" s="101"/>
+      <c r="B69" s="106"/>
+      <c r="C69" s="106"/>
+      <c r="D69" s="106"/>
+      <c r="E69" s="106"/>
+      <c r="F69" s="106"/>
+      <c r="G69" s="106"/>
     </row>
     <row r="70" spans="1:10" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="101" t="s">
+      <c r="A70" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="B70" s="101"/>
-      <c r="C70" s="101"/>
-      <c r="D70" s="101"/>
-      <c r="E70" s="101"/>
-      <c r="F70" s="101"/>
-      <c r="G70" s="101"/>
-      <c r="H70" s="101"/>
-      <c r="I70" s="101"/>
+      <c r="B70" s="106"/>
+      <c r="C70" s="106"/>
+      <c r="D70" s="106"/>
+      <c r="E70" s="106"/>
+      <c r="F70" s="106"/>
+      <c r="G70" s="106"/>
+      <c r="H70" s="106"/>
+      <c r="I70" s="106"/>
     </row>
     <row r="71" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="117" t="s">
+      <c r="A71" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="117"/>
-      <c r="C71" s="117"/>
-      <c r="D71" s="117"/>
-      <c r="E71" s="117"/>
-      <c r="F71" s="117"/>
-      <c r="G71" s="117"/>
-      <c r="H71" s="117"/>
-      <c r="I71" s="117"/>
-      <c r="J71" s="117"/>
+      <c r="B71" s="108"/>
+      <c r="C71" s="108"/>
+      <c r="D71" s="108"/>
+      <c r="E71" s="108"/>
+      <c r="F71" s="108"/>
+      <c r="G71" s="108"/>
+      <c r="H71" s="108"/>
+      <c r="I71" s="108"/>
+      <c r="J71" s="108"/>
     </row>
     <row r="72" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="117" t="s">
+      <c r="A72" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="117"/>
-      <c r="C72" s="117"/>
-      <c r="D72" s="117"/>
-      <c r="E72" s="117"/>
-      <c r="F72" s="117"/>
-      <c r="G72" s="117"/>
-      <c r="H72" s="117"/>
-      <c r="I72" s="117"/>
-      <c r="J72" s="85"/>
+      <c r="B72" s="108"/>
+      <c r="C72" s="108"/>
+      <c r="D72" s="108"/>
+      <c r="E72" s="108"/>
+      <c r="F72" s="108"/>
+      <c r="G72" s="108"/>
+      <c r="H72" s="108"/>
+      <c r="I72" s="108"/>
+      <c r="J72" s="81"/>
     </row>
     <row r="73" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="87" t="s">
+      <c r="A73" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="88"/>
-      <c r="C73" s="88"/>
-      <c r="D73" s="89"/>
-      <c r="E73" s="89"/>
-      <c r="F73" s="89"/>
-      <c r="G73" s="90"/>
-      <c r="H73" s="90"/>
-      <c r="I73" s="90"/>
-      <c r="J73" s="90"/>
+      <c r="B73" s="84"/>
+      <c r="C73" s="84"/>
+      <c r="D73" s="85"/>
+      <c r="E73" s="85"/>
+      <c r="F73" s="85"/>
+      <c r="G73" s="86"/>
+      <c r="H73" s="86"/>
+      <c r="I73" s="86"/>
+      <c r="J73" s="86"/>
     </row>
     <row r="74" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="87" t="s">
+      <c r="A74" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="B74" s="88"/>
-      <c r="C74" s="88"/>
-      <c r="D74" s="89"/>
-      <c r="E74" s="89"/>
-      <c r="F74" s="89"/>
-      <c r="G74" s="90"/>
-      <c r="H74" s="90"/>
-      <c r="I74" s="90"/>
-      <c r="J74" s="90"/>
+      <c r="B74" s="84"/>
+      <c r="C74" s="84"/>
+      <c r="D74" s="85"/>
+      <c r="E74" s="85"/>
+      <c r="F74" s="85"/>
+      <c r="G74" s="86"/>
+      <c r="H74" s="86"/>
+      <c r="I74" s="86"/>
+      <c r="J74" s="86"/>
     </row>
     <row r="75" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="116" t="s">
+      <c r="A75" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="B75" s="116"/>
-      <c r="C75" s="116"/>
-      <c r="D75" s="116"/>
-      <c r="E75" s="116"/>
-      <c r="F75" s="116"/>
-      <c r="G75" s="116"/>
-      <c r="H75" s="116"/>
-      <c r="I75" s="116"/>
-      <c r="J75" s="116"/>
+      <c r="B75" s="107"/>
+      <c r="C75" s="107"/>
+      <c r="D75" s="107"/>
+      <c r="E75" s="107"/>
+      <c r="F75" s="107"/>
+      <c r="G75" s="107"/>
+      <c r="H75" s="107"/>
+      <c r="I75" s="107"/>
+      <c r="J75" s="107"/>
     </row>
     <row r="76" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="102" t="s">
+      <c r="A76" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="B76" s="102"/>
-      <c r="C76" s="102"/>
-      <c r="D76" s="102"/>
-      <c r="E76" s="102"/>
-      <c r="F76" s="102"/>
-      <c r="G76" s="102"/>
-      <c r="H76" s="102"/>
-      <c r="I76" s="102"/>
+      <c r="B76" s="109"/>
+      <c r="C76" s="109"/>
+      <c r="D76" s="109"/>
+      <c r="E76" s="109"/>
+      <c r="F76" s="109"/>
+      <c r="G76" s="109"/>
+      <c r="H76" s="109"/>
+      <c r="I76" s="109"/>
     </row>
     <row r="77" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="65" t="s">
+      <c r="A77" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="B77" s="64" t="s">
+      <c r="B77" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C77" s="32" t="s">
+      <c r="C77" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="D77" s="32" t="s">
+      <c r="D77" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E77" s="112" t="s">
+      <c r="E77" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="F77" s="113"/>
-      <c r="G77" s="61" t="s">
+      <c r="F77" s="103"/>
+      <c r="G77" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="H77" s="78" t="s">
+      <c r="H77" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="I77" s="32" t="s">
+      <c r="I77" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="J77" s="32" t="s">
+      <c r="J77" s="29" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="78" spans="1:10" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="35">
+      <c r="A78" s="32">
         <v>1</v>
       </c>
-      <c r="B78" s="66" t="s">
+      <c r="B78" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="C78" s="68" t="s">
+      <c r="C78" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="D78" s="70">
+      <c r="D78" s="66">
         <v>70</v>
       </c>
-      <c r="E78" s="73">
+      <c r="E78" s="69">
         <v>150</v>
       </c>
-      <c r="F78" s="74" t="s">
+      <c r="F78" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="G78" s="70">
+      <c r="G78" s="66">
         <f>SUM(D78:E78)</f>
         <v>220</v>
       </c>
-      <c r="H78" s="79" t="s">
+      <c r="H78" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="I78" s="35"/>
-      <c r="J78" s="84"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="80"/>
     </row>
     <row r="79" spans="1:10" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="35">
+      <c r="A79" s="32">
         <v>2</v>
       </c>
-      <c r="B79" s="66" t="s">
+      <c r="B79" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C79" s="68">
+      <c r="C79" s="64">
         <v>75</v>
       </c>
-      <c r="D79" s="70">
+      <c r="D79" s="66">
         <v>70</v>
       </c>
-      <c r="E79" s="73">
+      <c r="E79" s="69">
         <v>150</v>
       </c>
-      <c r="F79" s="74" t="s">
+      <c r="F79" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="G79" s="70">
+      <c r="G79" s="66">
         <f>SUM(D79:E79)</f>
         <v>220</v>
       </c>
-      <c r="H79" s="80"/>
-      <c r="I79" s="35" t="s">
+      <c r="H79" s="76"/>
+      <c r="I79" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="J79" s="35" t="s">
+      <c r="J79" s="32" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="80" spans="1:10" s="7" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="35">
+      <c r="A80" s="32">
         <v>3</v>
       </c>
-      <c r="B80" s="66" t="s">
+      <c r="B80" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C80" s="68" t="s">
+      <c r="C80" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="D80" s="71"/>
-      <c r="E80" s="73">
+      <c r="D80" s="67"/>
+      <c r="E80" s="69">
         <v>150</v>
       </c>
-      <c r="F80" s="74" t="s">
+      <c r="F80" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="G80" s="70">
-        <f t="shared" ref="G80:G81" si="0">SUM(D80:E80)</f>
+      <c r="G80" s="66">
+        <f t="shared" ref="G80:G81" si="1">SUM(D80:E80)</f>
         <v>150</v>
       </c>
-      <c r="H80" s="81"/>
-      <c r="I80" s="35" t="s">
+      <c r="H80" s="77"/>
+      <c r="I80" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="J80" s="35" t="s">
+      <c r="J80" s="32" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:10" s="7" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="36">
+      <c r="A81" s="33">
         <v>4</v>
       </c>
-      <c r="B81" s="67" t="s">
+      <c r="B81" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="C81" s="69" t="s">
+      <c r="C81" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="D81" s="72"/>
-      <c r="E81" s="75">
+      <c r="D81" s="68"/>
+      <c r="E81" s="71">
         <v>150</v>
       </c>
-      <c r="F81" s="76" t="s">
+      <c r="F81" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="G81" s="77">
-        <f t="shared" si="0"/>
+      <c r="G81" s="73">
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="H81" s="82"/>
-      <c r="I81" s="83"/>
-      <c r="J81" s="83"/>
+      <c r="H81" s="78"/>
+      <c r="I81" s="79"/>
+      <c r="J81" s="79"/>
     </row>
     <row r="82" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
+      <c r="A82" s="10"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
     </row>
     <row r="83" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B83" s="16"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="31">
+      <c r="B83" s="15"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="28">
         <v>2</v>
       </c>
-      <c r="E83" s="30">
+      <c r="E83" s="27">
         <v>4</v>
       </c>
-      <c r="F83" s="17"/>
+      <c r="F83" s="16"/>
     </row>
     <row r="84" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="11" t="s">
+      <c r="A84" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="13">
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="12">
         <f>SUM(D78:D81)</f>
         <v>140</v>
       </c>
-      <c r="E84" s="13">
+      <c r="E84" s="12">
         <f>SUM(E78:E81)</f>
         <v>600</v>
       </c>
-      <c r="G84" s="13">
+      <c r="G84" s="12">
         <f>SUM(D84:E84)</f>
         <v>740</v>
       </c>
-      <c r="I84" s="51"/>
+      <c r="I84" s="47"/>
     </row>
     <row r="85" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="101" t="s">
+      <c r="A85" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="B85" s="101"/>
-      <c r="C85" s="15" t="s">
+      <c r="B85" s="106"/>
+      <c r="C85" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D85" s="19"/>
-      <c r="E85" s="14"/>
-      <c r="G85" s="13">
+      <c r="D85" s="17"/>
+      <c r="E85" s="13"/>
+      <c r="G85" s="12">
         <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="15" t="s">
+      <c r="A86" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="G86" s="13">
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="G86" s="12">
         <f>SUM(G84:G85)</f>
         <v>840</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="101" t="s">
+      <c r="A87" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="101"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="G87" s="13">
+      <c r="B87" s="106"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="G87" s="12">
         <f>G86</f>
         <v>840</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="11" t="s">
+      <c r="A88" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="G88" s="13">
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="G88" s="12">
         <f>G87</f>
         <v>840</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="52" t="s">
+      <c r="A89" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B89" s="53"/>
+      <c r="B89" s="49"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
     </row>
     <row r="90" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="15" t="s">
+      <c r="A90" s="14" t="s">
         <v>58</v>
       </c>
       <c r="B90" s="1"/>
-      <c r="D90" s="114"/>
-      <c r="E90" s="114"/>
-      <c r="F90" s="15" t="s">
+      <c r="D90" s="104"/>
+      <c r="E90" s="104"/>
+      <c r="F90" s="14" t="s">
         <v>59</v>
       </c>
       <c r="I90" s="3" t="s">
@@ -3671,11 +3715,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A64:H64"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A57:J57"/>
+    <mergeCell ref="A58:J58"/>
     <mergeCell ref="C25:H25"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="C29:C30"/>
@@ -3692,14 +3739,11 @@
     <mergeCell ref="A52:C52"/>
     <mergeCell ref="A76:I76"/>
     <mergeCell ref="A71:J71"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A64:H64"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A62:H62"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="A57:J57"/>
-    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/GhiDanh/PhieuGhiDanh-VISA.xlsx
+++ b/GhiDanh/PhieuGhiDanh-VISA.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gia Long\Site Web\Textes\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NGOCNHAN\test2021\GhiDanh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E02DFF-6849-4F66-B688-82492E3D6E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0035CB6-C1D6-43EF-B9C1-0E86E1937F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="442" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="442" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Phiếu ghi danh" sheetId="1" r:id="rId1"/>
+    <sheet name="Phiếu ghi danh " sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="83">
   <si>
     <t>PHIẾU GHI DANH</t>
   </si>
@@ -541,6 +541,11 @@
     <t>Số
 thứ tự</t>
   </si>
+  <si>
+    <t xml:space="preserve">Ngày, tháng năm
+cấp
+Hộ chiếu </t>
+  </si>
 </sst>
 </file>
 
@@ -548,7 +553,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
-    <numFmt numFmtId="165" formatCode="#,##0\ &quot;€&quot;;\-#,##0\ &quot;€&quot;;#\ &quot;€&quot;\ "/>
+    <numFmt numFmtId="164" formatCode="#,##0\ &quot;€&quot;;\-#,##0\ &quot;€&quot;;#\ &quot;€&quot;\ "/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -1314,6 +1319,41 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1341,50 +1381,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2459,10 +2464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J90"/>
+  <dimension ref="A2:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2474,46 +2479,47 @@
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="26.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="21.42578125" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="19"/>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-    </row>
-    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+    </row>
+    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B3" s="23"/>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
       <c r="I3" s="24"/>
     </row>
-    <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B4" s="19"/>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-    </row>
-    <row r="5" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+    </row>
+    <row r="5" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="20"/>
       <c r="C5" s="50" t="s">
         <v>68</v>
@@ -2525,7 +2531,7 @@
       <c r="H5" s="50"/>
       <c r="I5" s="50"/>
     </row>
-    <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20"/>
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
@@ -2534,8 +2540,8 @@
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
     </row>
-    <row r="7" spans="1:10" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:10" s="82" customFormat="1" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:11" s="82" customFormat="1" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="95" t="s">
         <v>51</v>
       </c>
@@ -2564,10 +2570,13 @@
         <v>78</v>
       </c>
       <c r="J8" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="93" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="90">
         <v>1</v>
       </c>
@@ -2580,8 +2589,9 @@
       <c r="H9" s="46"/>
       <c r="I9" s="53"/>
       <c r="J9" s="96"/>
-    </row>
-    <row r="10" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="96"/>
+    </row>
+    <row r="10" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32">
         <v>2</v>
       </c>
@@ -2594,8 +2604,9 @@
       <c r="H10" s="30"/>
       <c r="I10" s="43"/>
       <c r="J10" s="43"/>
-    </row>
-    <row r="11" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="43"/>
+    </row>
+    <row r="11" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32">
         <v>3</v>
       </c>
@@ -2608,8 +2619,9 @@
       <c r="H11" s="30"/>
       <c r="I11" s="43"/>
       <c r="J11" s="43"/>
-    </row>
-    <row r="12" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="43"/>
+    </row>
+    <row r="12" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32">
         <v>4</v>
       </c>
@@ -2622,8 +2634,9 @@
       <c r="H12" s="30"/>
       <c r="I12" s="43"/>
       <c r="J12" s="43"/>
-    </row>
-    <row r="13" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="43"/>
+    </row>
+    <row r="13" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32">
         <v>5</v>
       </c>
@@ -2636,8 +2649,9 @@
       <c r="H13" s="30"/>
       <c r="I13" s="43"/>
       <c r="J13" s="43"/>
-    </row>
-    <row r="14" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K13" s="43"/>
+    </row>
+    <row r="14" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32">
         <v>6</v>
       </c>
@@ -2650,8 +2664,9 @@
       <c r="H14" s="30"/>
       <c r="I14" s="43"/>
       <c r="J14" s="43"/>
-    </row>
-    <row r="15" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K14" s="43"/>
+    </row>
+    <row r="15" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32">
         <v>7</v>
       </c>
@@ -2664,8 +2679,9 @@
       <c r="H15" s="30"/>
       <c r="I15" s="43"/>
       <c r="J15" s="43"/>
-    </row>
-    <row r="16" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K15" s="43"/>
+    </row>
+    <row r="16" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32">
         <v>8</v>
       </c>
@@ -2678,8 +2694,9 @@
       <c r="H16" s="30"/>
       <c r="I16" s="43"/>
       <c r="J16" s="43"/>
-    </row>
-    <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="43"/>
+    </row>
+    <row r="17" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32">
         <v>9</v>
       </c>
@@ -2692,8 +2709,9 @@
       <c r="H17" s="30"/>
       <c r="I17" s="43"/>
       <c r="J17" s="43"/>
-    </row>
-    <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K17" s="43"/>
+    </row>
+    <row r="18" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32">
         <v>10</v>
       </c>
@@ -2706,8 +2724,9 @@
       <c r="H18" s="30"/>
       <c r="I18" s="43"/>
       <c r="J18" s="43"/>
-    </row>
-    <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K18" s="43"/>
+    </row>
+    <row r="19" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32">
         <v>11</v>
       </c>
@@ -2720,8 +2739,9 @@
       <c r="H19" s="30"/>
       <c r="I19" s="43"/>
       <c r="J19" s="43"/>
-    </row>
-    <row r="20" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K19" s="43"/>
+    </row>
+    <row r="20" spans="1:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33">
         <v>12</v>
       </c>
@@ -2734,8 +2754,9 @@
       <c r="H20" s="31"/>
       <c r="I20" s="44"/>
       <c r="J20" s="44"/>
-    </row>
-    <row r="21" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K20" s="44"/>
+    </row>
+    <row r="21" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2743,41 +2764,41 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="23" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B23" s="19"/>
-      <c r="C23" s="97" t="s">
+      <c r="C23" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="97"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="97"/>
-    </row>
-    <row r="24" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
+    </row>
+    <row r="24" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B24" s="23"/>
-      <c r="C24" s="97" t="s">
+      <c r="C24" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="97"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="97"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
       <c r="I24" s="24"/>
     </row>
-    <row r="25" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B25" s="19"/>
-      <c r="C25" s="97" t="s">
+      <c r="C25" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="97"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="97"/>
-    </row>
-    <row r="26" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+    </row>
+    <row r="26" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="20"/>
       <c r="C26" s="50" t="s">
         <v>68</v>
@@ -2789,7 +2810,7 @@
       <c r="H26" s="50"/>
       <c r="I26" s="50"/>
     </row>
-    <row r="27" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="20"/>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
@@ -2798,24 +2819,24 @@
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
     </row>
-    <row r="28" spans="1:10" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="98" t="s">
+    <row r="28" spans="1:11" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="111" t="s">
         <v>81</v>
       </c>
       <c r="B29" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="100" t="s">
+      <c r="C29" s="113" t="s">
         <v>53</v>
       </c>
       <c r="D29" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="102" t="s">
+      <c r="E29" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="103"/>
+      <c r="F29" s="116"/>
       <c r="G29" s="57" t="s">
         <v>3</v>
       </c>
@@ -2829,12 +2850,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="18" customFormat="1" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="99"/>
+    <row r="30" spans="1:11" s="18" customFormat="1" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="112"/>
       <c r="B30" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="101"/>
+      <c r="C30" s="114"/>
       <c r="D30" s="55">
         <v>70</v>
       </c>
@@ -2857,7 +2878,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="32">
         <v>1</v>
       </c>
@@ -2866,7 +2887,7 @@
       <c r="D31" s="46"/>
       <c r="E31" s="51"/>
       <c r="F31" s="52"/>
-      <c r="G31" s="115">
+      <c r="G31" s="97">
         <f>SUM(D31:E31)</f>
         <v>0</v>
       </c>
@@ -2874,7 +2895,7 @@
       <c r="I31" s="53"/>
       <c r="J31" s="53"/>
     </row>
-    <row r="32" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="32">
         <v>2</v>
       </c>
@@ -2883,8 +2904,8 @@
       <c r="D32" s="30"/>
       <c r="E32" s="36"/>
       <c r="F32" s="37"/>
-      <c r="G32" s="115">
-        <f t="shared" ref="G32:G40" si="0">SUM(D32:E32)</f>
+      <c r="G32" s="97">
+        <f t="shared" ref="G32:G39" si="0">SUM(D32:E32)</f>
         <v>0</v>
       </c>
       <c r="H32" s="30"/>
@@ -2900,7 +2921,7 @@
       <c r="D33" s="30"/>
       <c r="E33" s="36"/>
       <c r="F33" s="37"/>
-      <c r="G33" s="115">
+      <c r="G33" s="97">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2917,7 +2938,7 @@
       <c r="D34" s="30"/>
       <c r="E34" s="36"/>
       <c r="F34" s="37"/>
-      <c r="G34" s="115">
+      <c r="G34" s="97">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2934,7 +2955,7 @@
       <c r="D35" s="30"/>
       <c r="E35" s="36"/>
       <c r="F35" s="37"/>
-      <c r="G35" s="115">
+      <c r="G35" s="97">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2951,7 +2972,7 @@
       <c r="D36" s="30"/>
       <c r="E36" s="36"/>
       <c r="F36" s="37"/>
-      <c r="G36" s="115">
+      <c r="G36" s="97">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2968,7 +2989,7 @@
       <c r="D37" s="30"/>
       <c r="E37" s="36"/>
       <c r="F37" s="37"/>
-      <c r="G37" s="115">
+      <c r="G37" s="97">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2985,7 +3006,7 @@
       <c r="D38" s="30"/>
       <c r="E38" s="36"/>
       <c r="F38" s="37"/>
-      <c r="G38" s="115">
+      <c r="G38" s="97">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3002,7 +3023,7 @@
       <c r="D39" s="30"/>
       <c r="E39" s="36"/>
       <c r="F39" s="37"/>
-      <c r="G39" s="115">
+      <c r="G39" s="97">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3019,8 +3040,8 @@
       <c r="D40" s="31"/>
       <c r="E40" s="38"/>
       <c r="F40" s="39"/>
-      <c r="G40" s="116">
-        <f t="shared" si="0"/>
+      <c r="G40" s="98">
+        <f>SUM(D40:E40)</f>
         <v>0</v>
       </c>
       <c r="H40" s="31"/>
@@ -3034,7 +3055,7 @@
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="117"/>
+      <c r="G41" s="99"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
@@ -3043,7 +3064,7 @@
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="117"/>
+      <c r="G42" s="99"/>
     </row>
     <row r="43" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
@@ -3054,7 +3075,7 @@
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="117"/>
+      <c r="G43" s="99"/>
     </row>
     <row r="44" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
@@ -3062,16 +3083,17 @@
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="121">
+      <c r="D44" s="103">
         <f>SUM(D31:D40)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="121">
+      <c r="E44" s="103">
         <f>SUM(E31:E40)</f>
         <v>0</v>
       </c>
-      <c r="G44" s="118" t="s">
-        <v>4</v>
+      <c r="G44" s="100">
+        <f>SUM(D44:E44)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3083,7 +3105,7 @@
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="G45" s="119" t="s">
+      <c r="G45" s="101" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3095,8 +3117,9 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
-      <c r="G46" s="120" t="s">
-        <v>4</v>
+      <c r="G46" s="102">
+        <f>SUM(G44:G45)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3107,8 +3130,8 @@
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
-      <c r="G47" s="120" t="s">
-        <v>4</v>
+      <c r="G47" s="102">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3119,11 +3142,12 @@
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="G48" s="118" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G48" s="100">
+        <f>G47-G46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -3131,20 +3155,20 @@
       <c r="E49" s="3"/>
       <c r="F49" s="45"/>
     </row>
-    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="109" t="s">
+    <row r="50" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="B50" s="109"/>
-      <c r="C50" s="109"/>
-      <c r="D50" s="109"/>
-      <c r="E50" s="109"/>
-      <c r="F50" s="109"/>
-      <c r="G50" s="109"/>
-      <c r="H50" s="109"/>
-      <c r="I50" s="109"/>
-    </row>
-    <row r="51" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="105"/>
+      <c r="C50" s="105"/>
+      <c r="D50" s="105"/>
+      <c r="E50" s="105"/>
+      <c r="F50" s="105"/>
+      <c r="G50" s="105"/>
+      <c r="H50" s="105"/>
+      <c r="I50" s="105"/>
+    </row>
+    <row r="51" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -3152,12 +3176,12 @@
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
     </row>
-    <row r="52" spans="1:10" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="110" t="s">
+    <row r="52" spans="1:11" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="110"/>
-      <c r="C52" s="110"/>
+      <c r="B52" s="121"/>
+      <c r="C52" s="121"/>
       <c r="D52" s="6" t="s">
         <v>27</v>
       </c>
@@ -3166,7 +3190,7 @@
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
     </row>
-    <row r="53" spans="1:10" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>29</v>
       </c>
@@ -3179,7 +3203,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -3187,59 +3211,62 @@
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:10" s="22" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="113" t="s">
+    <row r="55" spans="1:11" s="22" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="B55" s="113"/>
-      <c r="C55" s="113"/>
-      <c r="D55" s="113"/>
-      <c r="E55" s="113"/>
-      <c r="F55" s="113"/>
-      <c r="G55" s="113"/>
-      <c r="H55" s="113"/>
-      <c r="I55" s="113"/>
-      <c r="J55" s="113"/>
-    </row>
-    <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="109" t="s">
+      <c r="B55" s="108"/>
+      <c r="C55" s="108"/>
+      <c r="D55" s="108"/>
+      <c r="E55" s="108"/>
+      <c r="F55" s="108"/>
+      <c r="G55" s="108"/>
+      <c r="H55" s="108"/>
+      <c r="I55" s="108"/>
+      <c r="J55" s="108"/>
+      <c r="K55" s="108"/>
+    </row>
+    <row r="56" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="109"/>
-      <c r="C56" s="109"/>
-      <c r="D56" s="109"/>
-      <c r="E56" s="109"/>
-      <c r="F56" s="109"/>
-    </row>
-    <row r="57" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="106" t="s">
+      <c r="B56" s="105"/>
+      <c r="C56" s="105"/>
+      <c r="D56" s="105"/>
+      <c r="E56" s="105"/>
+      <c r="F56" s="105"/>
+    </row>
+    <row r="57" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="106"/>
-      <c r="C57" s="106"/>
-      <c r="D57" s="106"/>
-      <c r="E57" s="106"/>
-      <c r="F57" s="106"/>
-      <c r="G57" s="106"/>
-      <c r="H57" s="106"/>
-      <c r="I57" s="106"/>
-      <c r="J57" s="106"/>
-    </row>
-    <row r="58" spans="1:10" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="114" t="s">
+      <c r="B57" s="104"/>
+      <c r="C57" s="104"/>
+      <c r="D57" s="104"/>
+      <c r="E57" s="104"/>
+      <c r="F57" s="104"/>
+      <c r="G57" s="104"/>
+      <c r="H57" s="104"/>
+      <c r="I57" s="104"/>
+      <c r="J57" s="104"/>
+      <c r="K57" s="104"/>
+    </row>
+    <row r="58" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="B58" s="114"/>
-      <c r="C58" s="114"/>
-      <c r="D58" s="114"/>
-      <c r="E58" s="114"/>
-      <c r="F58" s="114"/>
-      <c r="G58" s="114"/>
-      <c r="H58" s="114"/>
-      <c r="I58" s="114"/>
-      <c r="J58" s="114"/>
-    </row>
-    <row r="59" spans="1:10" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="109"/>
+      <c r="C58" s="109"/>
+      <c r="D58" s="109"/>
+      <c r="E58" s="109"/>
+      <c r="F58" s="109"/>
+      <c r="G58" s="109"/>
+      <c r="H58" s="109"/>
+      <c r="I58" s="109"/>
+      <c r="J58" s="109"/>
+      <c r="K58" s="109"/>
+    </row>
+    <row r="59" spans="1:11" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>45</v>
       </c>
@@ -3249,7 +3276,7 @@
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
     </row>
-    <row r="60" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>61</v>
       </c>
@@ -3261,31 +3288,31 @@
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
     </row>
-    <row r="61" spans="1:10" s="25" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="111" t="s">
+    <row r="61" spans="1:11" s="25" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="B61" s="111"/>
-      <c r="C61" s="111"/>
-      <c r="D61" s="111"/>
-      <c r="E61" s="111"/>
-      <c r="F61" s="111"/>
-      <c r="G61" s="111"/>
-      <c r="H61" s="111"/>
-    </row>
-    <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="112" t="s">
+      <c r="B61" s="106"/>
+      <c r="C61" s="106"/>
+      <c r="D61" s="106"/>
+      <c r="E61" s="106"/>
+      <c r="F61" s="106"/>
+      <c r="G61" s="106"/>
+      <c r="H61" s="106"/>
+    </row>
+    <row r="62" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="B62" s="112"/>
-      <c r="C62" s="112"/>
-      <c r="D62" s="112"/>
-      <c r="E62" s="112"/>
-      <c r="F62" s="112"/>
-      <c r="G62" s="112"/>
-      <c r="H62" s="112"/>
-    </row>
-    <row r="63" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="107"/>
+      <c r="C62" s="107"/>
+      <c r="D62" s="107"/>
+      <c r="E62" s="107"/>
+      <c r="F62" s="107"/>
+      <c r="G62" s="107"/>
+      <c r="H62" s="107"/>
+    </row>
+    <row r="63" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>43</v>
       </c>
@@ -3295,19 +3322,19 @@
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:10" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="109" t="s">
+    <row r="64" spans="1:11" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="B64" s="109"/>
-      <c r="C64" s="109"/>
-      <c r="D64" s="109"/>
-      <c r="E64" s="109"/>
-      <c r="F64" s="109"/>
-      <c r="G64" s="109"/>
-      <c r="H64" s="109"/>
-    </row>
-    <row r="65" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="105"/>
+      <c r="C64" s="105"/>
+      <c r="D64" s="105"/>
+      <c r="E64" s="105"/>
+      <c r="F64" s="105"/>
+      <c r="G64" s="105"/>
+      <c r="H64" s="105"/>
+    </row>
+    <row r="65" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>67</v>
       </c>
@@ -3317,7 +3344,7 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -3325,17 +3352,17 @@
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="105" t="s">
+    <row r="67" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="B67" s="105"/>
+      <c r="B67" s="118"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
     </row>
-    <row r="68" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -3343,59 +3370,61 @@
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
     </row>
-    <row r="69" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="106" t="s">
+    <row r="69" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="B69" s="106"/>
-      <c r="C69" s="106"/>
-      <c r="D69" s="106"/>
-      <c r="E69" s="106"/>
-      <c r="F69" s="106"/>
-      <c r="G69" s="106"/>
-    </row>
-    <row r="70" spans="1:10" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="106" t="s">
+      <c r="B69" s="104"/>
+      <c r="C69" s="104"/>
+      <c r="D69" s="104"/>
+      <c r="E69" s="104"/>
+      <c r="F69" s="104"/>
+      <c r="G69" s="104"/>
+    </row>
+    <row r="70" spans="1:11" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="B70" s="106"/>
-      <c r="C70" s="106"/>
-      <c r="D70" s="106"/>
-      <c r="E70" s="106"/>
-      <c r="F70" s="106"/>
-      <c r="G70" s="106"/>
-      <c r="H70" s="106"/>
-      <c r="I70" s="106"/>
-    </row>
-    <row r="71" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="108" t="s">
+      <c r="B70" s="104"/>
+      <c r="C70" s="104"/>
+      <c r="D70" s="104"/>
+      <c r="E70" s="104"/>
+      <c r="F70" s="104"/>
+      <c r="G70" s="104"/>
+      <c r="H70" s="104"/>
+      <c r="I70" s="104"/>
+    </row>
+    <row r="71" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="108"/>
-      <c r="C71" s="108"/>
-      <c r="D71" s="108"/>
-      <c r="E71" s="108"/>
-      <c r="F71" s="108"/>
-      <c r="G71" s="108"/>
-      <c r="H71" s="108"/>
-      <c r="I71" s="108"/>
-      <c r="J71" s="108"/>
-    </row>
-    <row r="72" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="108" t="s">
+      <c r="B71" s="120"/>
+      <c r="C71" s="120"/>
+      <c r="D71" s="120"/>
+      <c r="E71" s="120"/>
+      <c r="F71" s="120"/>
+      <c r="G71" s="120"/>
+      <c r="H71" s="120"/>
+      <c r="I71" s="120"/>
+      <c r="J71" s="120"/>
+      <c r="K71" s="120"/>
+    </row>
+    <row r="72" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="120" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="108"/>
-      <c r="C72" s="108"/>
-      <c r="D72" s="108"/>
-      <c r="E72" s="108"/>
-      <c r="F72" s="108"/>
-      <c r="G72" s="108"/>
-      <c r="H72" s="108"/>
-      <c r="I72" s="108"/>
+      <c r="B72" s="120"/>
+      <c r="C72" s="120"/>
+      <c r="D72" s="120"/>
+      <c r="E72" s="120"/>
+      <c r="F72" s="120"/>
+      <c r="G72" s="120"/>
+      <c r="H72" s="120"/>
+      <c r="I72" s="120"/>
       <c r="J72" s="81"/>
-    </row>
-    <row r="73" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K72" s="81"/>
+    </row>
+    <row r="73" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="83" t="s">
         <v>71</v>
       </c>
@@ -3408,8 +3437,9 @@
       <c r="H73" s="86"/>
       <c r="I73" s="86"/>
       <c r="J73" s="86"/>
-    </row>
-    <row r="74" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K73" s="86"/>
+    </row>
+    <row r="74" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="83" t="s">
         <v>70</v>
       </c>
@@ -3422,35 +3452,37 @@
       <c r="H74" s="86"/>
       <c r="I74" s="86"/>
       <c r="J74" s="86"/>
-    </row>
-    <row r="75" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="107" t="s">
+      <c r="K74" s="86"/>
+    </row>
+    <row r="75" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="B75" s="107"/>
-      <c r="C75" s="107"/>
-      <c r="D75" s="107"/>
-      <c r="E75" s="107"/>
-      <c r="F75" s="107"/>
-      <c r="G75" s="107"/>
-      <c r="H75" s="107"/>
-      <c r="I75" s="107"/>
-      <c r="J75" s="107"/>
-    </row>
-    <row r="76" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="109" t="s">
+      <c r="B75" s="119"/>
+      <c r="C75" s="119"/>
+      <c r="D75" s="119"/>
+      <c r="E75" s="119"/>
+      <c r="F75" s="119"/>
+      <c r="G75" s="119"/>
+      <c r="H75" s="119"/>
+      <c r="I75" s="119"/>
+      <c r="J75" s="119"/>
+      <c r="K75" s="119"/>
+    </row>
+    <row r="76" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="B76" s="109"/>
-      <c r="C76" s="109"/>
-      <c r="D76" s="109"/>
-      <c r="E76" s="109"/>
-      <c r="F76" s="109"/>
-      <c r="G76" s="109"/>
-      <c r="H76" s="109"/>
-      <c r="I76" s="109"/>
-    </row>
-    <row r="77" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="105"/>
+      <c r="C76" s="105"/>
+      <c r="D76" s="105"/>
+      <c r="E76" s="105"/>
+      <c r="F76" s="105"/>
+      <c r="G76" s="105"/>
+      <c r="H76" s="105"/>
+      <c r="I76" s="105"/>
+    </row>
+    <row r="77" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="61" t="s">
         <v>51</v>
       </c>
@@ -3463,10 +3495,10 @@
       <c r="D77" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E77" s="102" t="s">
+      <c r="E77" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="F77" s="103"/>
+      <c r="F77" s="116"/>
       <c r="G77" s="57" t="s">
         <v>3</v>
       </c>
@@ -3480,7 +3512,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="32">
         <v>1</v>
       </c>
@@ -3509,7 +3541,7 @@
       <c r="I78" s="32"/>
       <c r="J78" s="80"/>
     </row>
-    <row r="79" spans="1:10" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="32">
         <v>2</v>
       </c>
@@ -3540,7 +3572,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="7" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="32">
         <v>3</v>
       </c>
@@ -3637,10 +3669,10 @@
       <c r="I84" s="47"/>
     </row>
     <row r="85" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="106" t="s">
+      <c r="A85" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="B85" s="106"/>
+      <c r="B85" s="104"/>
       <c r="C85" s="14" t="s">
         <v>18</v>
       </c>
@@ -3664,10 +3696,10 @@
       </c>
     </row>
     <row r="87" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="106" t="s">
+      <c r="A87" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="106"/>
+      <c r="B87" s="104"/>
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
       <c r="E87" s="13"/>
@@ -3685,8 +3717,8 @@
       <c r="D88" s="13"/>
       <c r="E88" s="13"/>
       <c r="G88" s="12">
-        <f>G87</f>
-        <v>840</v>
+        <f>G87-G86</f>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -3704,8 +3736,8 @@
         <v>58</v>
       </c>
       <c r="B90" s="1"/>
-      <c r="D90" s="104"/>
-      <c r="E90" s="104"/>
+      <c r="D90" s="117"/>
+      <c r="E90" s="117"/>
       <c r="F90" s="14" t="s">
         <v>59</v>
       </c>
@@ -3715,14 +3747,11 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A64:H64"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A62:H62"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="A57:J57"/>
-    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
     <mergeCell ref="C25:H25"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="C29:C30"/>
@@ -3731,23 +3760,26 @@
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A85:B85"/>
     <mergeCell ref="A70:I70"/>
-    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="A75:K75"/>
     <mergeCell ref="E77:F77"/>
     <mergeCell ref="A72:I72"/>
     <mergeCell ref="A69:G69"/>
     <mergeCell ref="A50:I50"/>
     <mergeCell ref="A52:C52"/>
     <mergeCell ref="A76:I76"/>
-    <mergeCell ref="A71:J71"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="A71:K71"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A64:H64"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="A55:K55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A57:K57"/>
+    <mergeCell ref="A58:K58"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="21" max="16383" man="1"/>
   </rowBreaks>

--- a/GhiDanh/PhieuGhiDanh-VISA.xlsx
+++ b/GhiDanh/PhieuGhiDanh-VISA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NGOCNHAN\test2021\GhiDanh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gia Long\Site Web\Textes\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0035CB6-C1D6-43EF-B9C1-0E86E1937F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98331526-A188-4588-810F-A365D907A9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="442" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="442" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phiếu ghi danh " sheetId="1" r:id="rId1"/>
@@ -526,9 +526,6 @@
 (Hộ chiếu)</t>
   </si>
   <si>
-    <t>Nơi cấp</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ngày, tháng năm
 hết hạn
 Hộ chiếu </t>
@@ -545,6 +542,9 @@
     <t xml:space="preserve">Ngày, tháng năm
 cấp
 Hộ chiếu </t>
+  </si>
+  <si>
+    <t>Nơi cấp Hộ chiếu</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1061,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1152,8 +1152,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1166,17 +1164,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1195,7 +1182,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1211,7 +1197,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1272,12 +1257,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1291,15 +1270,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1318,7 +1288,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -1336,12 +1305,72 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1354,41 +1383,68 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2107,7 +2163,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1214475</xdr:colOff>
+      <xdr:colOff>1224000</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>107475</xdr:rowOff>
     </xdr:to>
@@ -2466,70 +2522,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="H89" sqref="H89"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="71" customWidth="1"/>
+    <col min="11" max="11" width="13" style="71" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="19"/>
-      <c r="C2" s="110" t="s">
+      <c r="C2" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
     </row>
     <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B3" s="23"/>
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="24"/>
     </row>
     <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B4" s="19"/>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
     </row>
     <row r="5" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="20"/>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
     </row>
     <row r="6" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20"/>
@@ -2541,53 +2597,53 @@
       <c r="H6" s="26"/>
     </row>
     <row r="7" spans="1:11" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:11" s="82" customFormat="1" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="95" t="s">
+    <row r="8" spans="1:11" s="71" customFormat="1" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="92" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="93" t="s">
+      <c r="C8" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="93" t="s">
+      <c r="E8" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="92" t="s">
+      <c r="F8" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="94" t="s">
+      <c r="G8" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="93" t="s">
+      <c r="H8" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="93" t="s">
+      <c r="I8" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="J8" s="93" t="s">
-        <v>82</v>
-      </c>
-      <c r="K8" s="93" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="9" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="90">
+      <c r="A9" s="76">
         <v>1</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="53"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="124"/>
       <c r="J9" s="96"/>
       <c r="K9" s="96"/>
     </row>
@@ -2595,166 +2651,166 @@
       <c r="A10" s="32">
         <v>2</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
     </row>
     <row r="11" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32">
         <v>3</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
     </row>
     <row r="12" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32">
         <v>4</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
     </row>
     <row r="13" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32">
         <v>5</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
     </row>
     <row r="14" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32">
         <v>6</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
     </row>
     <row r="15" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32">
         <v>7</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
     </row>
     <row r="16" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32">
         <v>8</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
     </row>
     <row r="17" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32">
         <v>9</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
+      <c r="B17" s="118"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
     </row>
     <row r="18" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32">
         <v>10</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="125"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
     </row>
     <row r="19" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32">
         <v>11</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
     </row>
     <row r="20" spans="1:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33">
         <v>12</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
+      <c r="B20" s="121"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="126"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
     </row>
     <row r="21" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
@@ -2766,49 +2822,49 @@
     </row>
     <row r="23" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B23" s="19"/>
-      <c r="C23" s="110" t="s">
+      <c r="C23" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="110"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="97"/>
     </row>
     <row r="24" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B24" s="23"/>
-      <c r="C24" s="110" t="s">
+      <c r="C24" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="110"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
       <c r="I24" s="24"/>
     </row>
     <row r="25" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B25" s="19"/>
-      <c r="C25" s="110" t="s">
+      <c r="C25" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="97"/>
     </row>
     <row r="26" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="20"/>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
     </row>
     <row r="27" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="20"/>
@@ -2820,24 +2876,24 @@
       <c r="H27" s="26"/>
     </row>
     <row r="28" spans="1:11" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="111" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" s="60" t="s">
+    <row r="29" spans="1:11" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="113" t="s">
+      <c r="C29" s="100" t="s">
         <v>53</v>
       </c>
       <c r="D29" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="115" t="s">
+      <c r="E29" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="116"/>
-      <c r="G29" s="57" t="s">
+      <c r="F29" s="103"/>
+      <c r="G29" s="49" t="s">
         <v>3</v>
       </c>
       <c r="H29" s="29" t="s">
@@ -2850,31 +2906,31 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="18" customFormat="1" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="112"/>
-      <c r="B30" s="58" t="s">
+    <row r="30" spans="1:11" s="18" customFormat="1" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="99"/>
+      <c r="B30" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="114"/>
-      <c r="D30" s="55">
+      <c r="C30" s="101"/>
+      <c r="D30" s="47">
         <v>70</v>
       </c>
-      <c r="E30" s="56" t="s">
+      <c r="E30" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="54" t="s">
+      <c r="F30" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="58" t="s">
+      <c r="G30" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="H30" s="58" t="s">
+      <c r="H30" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="I30" s="58" t="s">
+      <c r="I30" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="J30" s="58" t="s">
+      <c r="J30" s="50" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2882,191 +2938,191 @@
       <c r="A31" s="32">
         <v>1</v>
       </c>
-      <c r="B31" s="59"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="97">
+      <c r="B31" s="133"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="82">
         <f>SUM(D31:E31)</f>
         <v>0</v>
       </c>
-      <c r="H31" s="46"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="91"/>
+      <c r="J31" s="91"/>
     </row>
     <row r="32" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="32">
         <v>2</v>
       </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="30"/>
+      <c r="B32" s="134"/>
+      <c r="C32" s="131"/>
       <c r="D32" s="30"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="97">
+      <c r="E32" s="34"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="82">
         <f t="shared" ref="G32:G39" si="0">SUM(D32:E32)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="30"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-    </row>
-    <row r="33" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="128"/>
+      <c r="I32" s="89"/>
+      <c r="J32" s="89"/>
+    </row>
+    <row r="33" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="32">
         <v>3</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="30"/>
+      <c r="B33" s="134"/>
+      <c r="C33" s="131"/>
       <c r="D33" s="30"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="97">
+      <c r="E33" s="34"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H33" s="30"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-    </row>
-    <row r="34" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H33" s="128"/>
+      <c r="I33" s="89"/>
+      <c r="J33" s="89"/>
+    </row>
+    <row r="34" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="32">
         <v>4</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="30"/>
+      <c r="B34" s="134"/>
+      <c r="C34" s="131"/>
       <c r="D34" s="30"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="97">
+      <c r="E34" s="34"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H34" s="30"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-    </row>
-    <row r="35" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="128"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="89"/>
+    </row>
+    <row r="35" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="32">
         <v>5</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="30"/>
+      <c r="B35" s="134"/>
+      <c r="C35" s="131"/>
       <c r="D35" s="30"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="97">
+      <c r="E35" s="34"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H35" s="30"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-    </row>
-    <row r="36" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H35" s="128"/>
+      <c r="I35" s="89"/>
+      <c r="J35" s="89"/>
+    </row>
+    <row r="36" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="32">
         <v>6</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="30"/>
+      <c r="B36" s="134"/>
+      <c r="C36" s="131"/>
       <c r="D36" s="30"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="97">
+      <c r="E36" s="34"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H36" s="30"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-    </row>
-    <row r="37" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H36" s="128"/>
+      <c r="I36" s="89"/>
+      <c r="J36" s="89"/>
+    </row>
+    <row r="37" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="32">
         <v>7</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="30"/>
+      <c r="B37" s="134"/>
+      <c r="C37" s="131"/>
       <c r="D37" s="30"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="97">
+      <c r="E37" s="34"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H37" s="30"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-    </row>
-    <row r="38" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H37" s="128"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="89"/>
+    </row>
+    <row r="38" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="32">
         <v>8</v>
       </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="30"/>
+      <c r="B38" s="134"/>
+      <c r="C38" s="131"/>
       <c r="D38" s="30"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="97">
+      <c r="E38" s="34"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H38" s="30"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-    </row>
-    <row r="39" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H38" s="128"/>
+      <c r="I38" s="89"/>
+      <c r="J38" s="89"/>
+    </row>
+    <row r="39" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="32">
         <v>9</v>
       </c>
-      <c r="B39" s="34"/>
-      <c r="C39" s="30"/>
+      <c r="B39" s="134"/>
+      <c r="C39" s="131"/>
       <c r="D39" s="30"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="97">
+      <c r="E39" s="34"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H39" s="30"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-    </row>
-    <row r="40" spans="1:10" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H39" s="128"/>
+      <c r="I39" s="89"/>
+      <c r="J39" s="89"/>
+    </row>
+    <row r="40" spans="1:11" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="33">
         <v>10</v>
       </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="31"/>
+      <c r="B40" s="135"/>
+      <c r="C40" s="132"/>
       <c r="D40" s="31"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="98">
+      <c r="E40" s="36"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="83">
         <f>SUM(D40:E40)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="31"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-    </row>
-    <row r="41" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H40" s="129"/>
+      <c r="I40" s="90"/>
+      <c r="J40" s="90"/>
+    </row>
+    <row r="41" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="99"/>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G41" s="84"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="99"/>
-    </row>
-    <row r="43" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G42" s="84"/>
+    </row>
+    <row r="43" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>15</v>
       </c>
@@ -3075,28 +3131,28 @@
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="99"/>
-    </row>
-    <row r="44" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G43" s="84"/>
+    </row>
+    <row r="44" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="103">
+      <c r="D44" s="88">
         <f>SUM(D31:D40)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="103">
+      <c r="E44" s="88">
         <f>SUM(E31:E40)</f>
         <v>0</v>
       </c>
-      <c r="G44" s="100">
+      <c r="G44" s="85">
         <f>SUM(D44:E44)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>42</v>
       </c>
@@ -3105,11 +3161,13 @@
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="G45" s="101" t="s">
+      <c r="G45" s="86" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+    </row>
+    <row r="46" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>6</v>
       </c>
@@ -3117,12 +3175,12 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
-      <c r="G46" s="102">
+      <c r="G46" s="87">
         <f>SUM(G44:G45)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>7</v>
       </c>
@@ -3130,11 +3188,11 @@
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
-      <c r="G47" s="102">
+      <c r="G47" s="87">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>8</v>
       </c>
@@ -3142,7 +3200,7 @@
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="G48" s="100">
+      <c r="G48" s="85">
         <f>G47-G46</f>
         <v>0</v>
       </c>
@@ -3153,20 +3211,20 @@
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="45"/>
+      <c r="F49" s="38"/>
     </row>
     <row r="50" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="105" t="s">
+      <c r="A50" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B50" s="105"/>
-      <c r="C50" s="105"/>
-      <c r="D50" s="105"/>
-      <c r="E50" s="105"/>
-      <c r="F50" s="105"/>
-      <c r="G50" s="105"/>
-      <c r="H50" s="105"/>
-      <c r="I50" s="105"/>
+      <c r="B50" s="109"/>
+      <c r="C50" s="109"/>
+      <c r="D50" s="109"/>
+      <c r="E50" s="109"/>
+      <c r="F50" s="109"/>
+      <c r="G50" s="109"/>
+      <c r="H50" s="109"/>
+      <c r="I50" s="109"/>
     </row>
     <row r="51" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
@@ -3177,11 +3235,11 @@
       <c r="F51" s="8"/>
     </row>
     <row r="52" spans="1:11" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="121" t="s">
+      <c r="A52" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="121"/>
-      <c r="C52" s="121"/>
+      <c r="B52" s="110"/>
+      <c r="C52" s="110"/>
       <c r="D52" s="6" t="s">
         <v>27</v>
       </c>
@@ -3189,6 +3247,8 @@
       <c r="F52" s="21"/>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
     </row>
     <row r="53" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
@@ -3202,6 +3262,8 @@
       <c r="I53" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
     </row>
     <row r="54" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
@@ -3212,59 +3274,59 @@
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:11" s="22" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="108" t="s">
+      <c r="A55" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="B55" s="108"/>
-      <c r="C55" s="108"/>
-      <c r="D55" s="108"/>
-      <c r="E55" s="108"/>
-      <c r="F55" s="108"/>
-      <c r="G55" s="108"/>
-      <c r="H55" s="108"/>
-      <c r="I55" s="108"/>
-      <c r="J55" s="108"/>
-      <c r="K55" s="108"/>
+      <c r="B55" s="113"/>
+      <c r="C55" s="113"/>
+      <c r="D55" s="113"/>
+      <c r="E55" s="113"/>
+      <c r="F55" s="113"/>
+      <c r="G55" s="113"/>
+      <c r="H55" s="113"/>
+      <c r="I55" s="113"/>
+      <c r="J55" s="113"/>
+      <c r="K55" s="113"/>
     </row>
     <row r="56" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="105" t="s">
+      <c r="A56" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="105"/>
-      <c r="C56" s="105"/>
-      <c r="D56" s="105"/>
-      <c r="E56" s="105"/>
-      <c r="F56" s="105"/>
+      <c r="B56" s="109"/>
+      <c r="C56" s="109"/>
+      <c r="D56" s="109"/>
+      <c r="E56" s="109"/>
+      <c r="F56" s="109"/>
     </row>
     <row r="57" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="104" t="s">
+      <c r="A57" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="104"/>
-      <c r="C57" s="104"/>
-      <c r="D57" s="104"/>
-      <c r="E57" s="104"/>
-      <c r="F57" s="104"/>
-      <c r="G57" s="104"/>
-      <c r="H57" s="104"/>
-      <c r="I57" s="104"/>
-      <c r="J57" s="104"/>
-      <c r="K57" s="104"/>
+      <c r="B57" s="106"/>
+      <c r="C57" s="106"/>
+      <c r="D57" s="106"/>
+      <c r="E57" s="106"/>
+      <c r="F57" s="106"/>
+      <c r="G57" s="106"/>
+      <c r="H57" s="106"/>
+      <c r="I57" s="106"/>
+      <c r="J57" s="106"/>
+      <c r="K57" s="106"/>
     </row>
     <row r="58" spans="1:11" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="109" t="s">
+      <c r="A58" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="B58" s="109"/>
-      <c r="C58" s="109"/>
-      <c r="D58" s="109"/>
-      <c r="E58" s="109"/>
-      <c r="F58" s="109"/>
-      <c r="G58" s="109"/>
-      <c r="H58" s="109"/>
-      <c r="I58" s="109"/>
-      <c r="J58" s="109"/>
-      <c r="K58" s="109"/>
+      <c r="B58" s="114"/>
+      <c r="C58" s="114"/>
+      <c r="D58" s="114"/>
+      <c r="E58" s="114"/>
+      <c r="F58" s="114"/>
+      <c r="G58" s="114"/>
+      <c r="H58" s="114"/>
+      <c r="I58" s="114"/>
+      <c r="J58" s="114"/>
+      <c r="K58" s="114"/>
     </row>
     <row r="59" spans="1:11" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
@@ -3275,6 +3337,8 @@
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
     </row>
     <row r="60" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
@@ -3289,28 +3353,30 @@
       <c r="H60" s="11"/>
     </row>
     <row r="61" spans="1:11" s="25" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="106" t="s">
+      <c r="A61" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="B61" s="106"/>
-      <c r="C61" s="106"/>
-      <c r="D61" s="106"/>
-      <c r="E61" s="106"/>
-      <c r="F61" s="106"/>
-      <c r="G61" s="106"/>
-      <c r="H61" s="106"/>
+      <c r="B61" s="111"/>
+      <c r="C61" s="111"/>
+      <c r="D61" s="111"/>
+      <c r="E61" s="111"/>
+      <c r="F61" s="111"/>
+      <c r="G61" s="111"/>
+      <c r="H61" s="111"/>
+      <c r="J61" s="92"/>
+      <c r="K61" s="92"/>
     </row>
     <row r="62" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="107" t="s">
+      <c r="A62" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="B62" s="107"/>
-      <c r="C62" s="107"/>
-      <c r="D62" s="107"/>
-      <c r="E62" s="107"/>
-      <c r="F62" s="107"/>
-      <c r="G62" s="107"/>
-      <c r="H62" s="107"/>
+      <c r="B62" s="112"/>
+      <c r="C62" s="112"/>
+      <c r="D62" s="112"/>
+      <c r="E62" s="112"/>
+      <c r="F62" s="112"/>
+      <c r="G62" s="112"/>
+      <c r="H62" s="112"/>
     </row>
     <row r="63" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
@@ -3323,16 +3389,18 @@
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:11" s="7" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="105" t="s">
+      <c r="A64" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="B64" s="105"/>
-      <c r="C64" s="105"/>
-      <c r="D64" s="105"/>
-      <c r="E64" s="105"/>
-      <c r="F64" s="105"/>
-      <c r="G64" s="105"/>
-      <c r="H64" s="105"/>
+      <c r="B64" s="109"/>
+      <c r="C64" s="109"/>
+      <c r="D64" s="109"/>
+      <c r="E64" s="109"/>
+      <c r="F64" s="109"/>
+      <c r="G64" s="109"/>
+      <c r="H64" s="109"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
     </row>
     <row r="65" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
@@ -3353,10 +3421,10 @@
       <c r="F66" s="3"/>
     </row>
     <row r="67" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="118" t="s">
+      <c r="A67" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="B67" s="118"/>
+      <c r="B67" s="105"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
@@ -3371,122 +3439,124 @@
       <c r="F68" s="10"/>
     </row>
     <row r="69" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="104" t="s">
+      <c r="A69" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="B69" s="104"/>
-      <c r="C69" s="104"/>
-      <c r="D69" s="104"/>
-      <c r="E69" s="104"/>
-      <c r="F69" s="104"/>
-      <c r="G69" s="104"/>
+      <c r="B69" s="106"/>
+      <c r="C69" s="106"/>
+      <c r="D69" s="106"/>
+      <c r="E69" s="106"/>
+      <c r="F69" s="106"/>
+      <c r="G69" s="106"/>
     </row>
     <row r="70" spans="1:11" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="104" t="s">
+      <c r="A70" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="B70" s="104"/>
-      <c r="C70" s="104"/>
-      <c r="D70" s="104"/>
-      <c r="E70" s="104"/>
-      <c r="F70" s="104"/>
-      <c r="G70" s="104"/>
-      <c r="H70" s="104"/>
-      <c r="I70" s="104"/>
+      <c r="B70" s="106"/>
+      <c r="C70" s="106"/>
+      <c r="D70" s="106"/>
+      <c r="E70" s="106"/>
+      <c r="F70" s="106"/>
+      <c r="G70" s="106"/>
+      <c r="H70" s="106"/>
+      <c r="I70" s="106"/>
+      <c r="J70" s="93"/>
+      <c r="K70" s="93"/>
     </row>
     <row r="71" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="120" t="s">
+      <c r="A71" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="120"/>
-      <c r="C71" s="120"/>
-      <c r="D71" s="120"/>
-      <c r="E71" s="120"/>
-      <c r="F71" s="120"/>
-      <c r="G71" s="120"/>
-      <c r="H71" s="120"/>
-      <c r="I71" s="120"/>
-      <c r="J71" s="120"/>
-      <c r="K71" s="120"/>
+      <c r="B71" s="108"/>
+      <c r="C71" s="108"/>
+      <c r="D71" s="108"/>
+      <c r="E71" s="108"/>
+      <c r="F71" s="108"/>
+      <c r="G71" s="108"/>
+      <c r="H71" s="108"/>
+      <c r="I71" s="108"/>
+      <c r="J71" s="108"/>
+      <c r="K71" s="108"/>
     </row>
     <row r="72" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="120" t="s">
+      <c r="A72" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="120"/>
-      <c r="C72" s="120"/>
-      <c r="D72" s="120"/>
-      <c r="E72" s="120"/>
-      <c r="F72" s="120"/>
-      <c r="G72" s="120"/>
-      <c r="H72" s="120"/>
-      <c r="I72" s="120"/>
-      <c r="J72" s="81"/>
-      <c r="K72" s="81"/>
+      <c r="B72" s="108"/>
+      <c r="C72" s="108"/>
+      <c r="D72" s="108"/>
+      <c r="E72" s="108"/>
+      <c r="F72" s="108"/>
+      <c r="G72" s="108"/>
+      <c r="H72" s="108"/>
+      <c r="I72" s="108"/>
+      <c r="J72" s="94"/>
+      <c r="K72" s="94"/>
     </row>
     <row r="73" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="83" t="s">
+      <c r="A73" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="84"/>
-      <c r="C73" s="84"/>
-      <c r="D73" s="85"/>
-      <c r="E73" s="85"/>
-      <c r="F73" s="85"/>
-      <c r="G73" s="86"/>
-      <c r="H73" s="86"/>
-      <c r="I73" s="86"/>
-      <c r="J73" s="86"/>
-      <c r="K73" s="86"/>
+      <c r="B73" s="73"/>
+      <c r="C73" s="73"/>
+      <c r="D73" s="74"/>
+      <c r="E73" s="74"/>
+      <c r="F73" s="74"/>
+      <c r="G73" s="75"/>
+      <c r="H73" s="75"/>
+      <c r="I73" s="75"/>
+      <c r="J73" s="95"/>
+      <c r="K73" s="95"/>
     </row>
     <row r="74" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="83" t="s">
+      <c r="A74" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="B74" s="84"/>
-      <c r="C74" s="84"/>
-      <c r="D74" s="85"/>
-      <c r="E74" s="85"/>
-      <c r="F74" s="85"/>
-      <c r="G74" s="86"/>
-      <c r="H74" s="86"/>
-      <c r="I74" s="86"/>
-      <c r="J74" s="86"/>
-      <c r="K74" s="86"/>
+      <c r="B74" s="73"/>
+      <c r="C74" s="73"/>
+      <c r="D74" s="74"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="74"/>
+      <c r="G74" s="75"/>
+      <c r="H74" s="75"/>
+      <c r="I74" s="75"/>
+      <c r="J74" s="95"/>
+      <c r="K74" s="95"/>
     </row>
     <row r="75" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="119" t="s">
+      <c r="A75" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="B75" s="119"/>
-      <c r="C75" s="119"/>
-      <c r="D75" s="119"/>
-      <c r="E75" s="119"/>
-      <c r="F75" s="119"/>
-      <c r="G75" s="119"/>
-      <c r="H75" s="119"/>
-      <c r="I75" s="119"/>
-      <c r="J75" s="119"/>
-      <c r="K75" s="119"/>
+      <c r="B75" s="107"/>
+      <c r="C75" s="107"/>
+      <c r="D75" s="107"/>
+      <c r="E75" s="107"/>
+      <c r="F75" s="107"/>
+      <c r="G75" s="107"/>
+      <c r="H75" s="107"/>
+      <c r="I75" s="107"/>
+      <c r="J75" s="107"/>
+      <c r="K75" s="107"/>
     </row>
     <row r="76" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="105" t="s">
+      <c r="A76" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="B76" s="105"/>
-      <c r="C76" s="105"/>
-      <c r="D76" s="105"/>
-      <c r="E76" s="105"/>
-      <c r="F76" s="105"/>
-      <c r="G76" s="105"/>
-      <c r="H76" s="105"/>
-      <c r="I76" s="105"/>
+      <c r="B76" s="109"/>
+      <c r="C76" s="109"/>
+      <c r="D76" s="109"/>
+      <c r="E76" s="109"/>
+      <c r="F76" s="109"/>
+      <c r="G76" s="109"/>
+      <c r="H76" s="109"/>
+      <c r="I76" s="109"/>
     </row>
     <row r="77" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="61" t="s">
+      <c r="A77" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="B77" s="60" t="s">
+      <c r="B77" s="51" t="s">
         <v>2</v>
       </c>
       <c r="C77" s="29" t="s">
@@ -3495,14 +3565,14 @@
       <c r="D77" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E77" s="115" t="s">
+      <c r="E77" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="F77" s="116"/>
-      <c r="G77" s="57" t="s">
+      <c r="F77" s="103"/>
+      <c r="G77" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="H77" s="74" t="s">
+      <c r="H77" s="65" t="s">
         <v>37</v>
       </c>
       <c r="I77" s="29" t="s">
@@ -3516,117 +3586,121 @@
       <c r="A78" s="32">
         <v>1</v>
       </c>
-      <c r="B78" s="62" t="s">
+      <c r="B78" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="C78" s="64" t="s">
+      <c r="C78" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="D78" s="66">
+      <c r="D78" s="57">
         <v>70</v>
       </c>
-      <c r="E78" s="69">
+      <c r="E78" s="60">
         <v>150</v>
       </c>
-      <c r="F78" s="70" t="s">
+      <c r="F78" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="G78" s="66">
+      <c r="G78" s="57">
         <f>SUM(D78:E78)</f>
         <v>220</v>
       </c>
-      <c r="H78" s="75" t="s">
+      <c r="H78" s="66" t="s">
         <v>34</v>
       </c>
       <c r="I78" s="32"/>
-      <c r="J78" s="80"/>
+      <c r="J78" s="32"/>
+      <c r="K78" s="18"/>
     </row>
     <row r="79" spans="1:11" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="32">
         <v>2</v>
       </c>
-      <c r="B79" s="62" t="s">
+      <c r="B79" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C79" s="64">
+      <c r="C79" s="55">
         <v>75</v>
       </c>
-      <c r="D79" s="66">
+      <c r="D79" s="57">
         <v>70</v>
       </c>
-      <c r="E79" s="69">
+      <c r="E79" s="60">
         <v>150</v>
       </c>
-      <c r="F79" s="70" t="s">
+      <c r="F79" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="G79" s="66">
+      <c r="G79" s="57">
         <f>SUM(D79:E79)</f>
         <v>220</v>
       </c>
-      <c r="H79" s="76"/>
+      <c r="H79" s="67"/>
       <c r="I79" s="32" t="s">
         <v>34</v>
       </c>
       <c r="J79" s="32" t="s">
         <v>34</v>
       </c>
+      <c r="K79" s="18"/>
     </row>
     <row r="80" spans="1:11" s="7" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="32">
         <v>3</v>
       </c>
-      <c r="B80" s="62" t="s">
+      <c r="B80" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C80" s="64" t="s">
+      <c r="C80" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="D80" s="67"/>
-      <c r="E80" s="69">
+      <c r="D80" s="58"/>
+      <c r="E80" s="60">
         <v>150</v>
       </c>
-      <c r="F80" s="70" t="s">
+      <c r="F80" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="G80" s="66">
+      <c r="G80" s="57">
         <f t="shared" ref="G80:G81" si="1">SUM(D80:E80)</f>
         <v>150</v>
       </c>
-      <c r="H80" s="77"/>
+      <c r="H80" s="68"/>
       <c r="I80" s="32" t="s">
         <v>34</v>
       </c>
       <c r="J80" s="32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" s="7" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K80" s="18"/>
+    </row>
+    <row r="81" spans="1:11" s="7" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="33">
         <v>4</v>
       </c>
-      <c r="B81" s="63" t="s">
+      <c r="B81" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C81" s="65" t="s">
+      <c r="C81" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="D81" s="68"/>
-      <c r="E81" s="71">
+      <c r="D81" s="59"/>
+      <c r="E81" s="62">
         <v>150</v>
       </c>
-      <c r="F81" s="72" t="s">
+      <c r="F81" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="G81" s="73">
+      <c r="G81" s="64">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="H81" s="78"/>
-      <c r="I81" s="79"/>
-      <c r="J81" s="79"/>
-    </row>
-    <row r="82" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H81" s="69"/>
+      <c r="I81" s="70"/>
+      <c r="J81" s="33"/>
+      <c r="K81" s="18"/>
+    </row>
+    <row r="82" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
@@ -3634,7 +3708,7 @@
       <c r="E82" s="13"/>
       <c r="F82" s="13"/>
     </row>
-    <row r="83" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
         <v>17</v>
       </c>
@@ -3648,7 +3722,7 @@
       </c>
       <c r="F83" s="16"/>
     </row>
-    <row r="84" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>5</v>
       </c>
@@ -3666,13 +3740,13 @@
         <f>SUM(D84:E84)</f>
         <v>740</v>
       </c>
-      <c r="I84" s="47"/>
-    </row>
-    <row r="85" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="104" t="s">
+      <c r="I84" s="40"/>
+    </row>
+    <row r="85" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="B85" s="104"/>
+      <c r="B85" s="106"/>
       <c r="C85" s="14" t="s">
         <v>18</v>
       </c>
@@ -3682,7 +3756,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
         <v>16</v>
       </c>
@@ -3695,11 +3769,11 @@
         <v>840</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="104" t="s">
+    <row r="87" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="104"/>
+      <c r="B87" s="106"/>
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
       <c r="E87" s="13"/>
@@ -3708,7 +3782,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>8</v>
       </c>
@@ -3717,27 +3791,27 @@
       <c r="D88" s="13"/>
       <c r="E88" s="13"/>
       <c r="G88" s="12">
-        <f>G87-G86</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="48" t="s">
+        <f>G87</f>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B89" s="49"/>
+      <c r="B89" s="42"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
         <v>58</v>
       </c>
       <c r="B90" s="1"/>
-      <c r="D90" s="117"/>
-      <c r="E90" s="117"/>
+      <c r="D90" s="104"/>
+      <c r="E90" s="104"/>
       <c r="F90" s="14" t="s">
         <v>59</v>
       </c>
@@ -3747,11 +3821,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A64:H64"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="A55:K55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A57:K57"/>
+    <mergeCell ref="A58:K58"/>
     <mergeCell ref="C25:H25"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="C29:C30"/>
@@ -3768,14 +3845,11 @@
     <mergeCell ref="A52:C52"/>
     <mergeCell ref="A76:I76"/>
     <mergeCell ref="A71:K71"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A64:H64"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A62:H62"/>
-    <mergeCell ref="A55:K55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="A57:K57"/>
-    <mergeCell ref="A58:K58"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/GhiDanh/PhieuGhiDanh-VISA.xlsx
+++ b/GhiDanh/PhieuGhiDanh-VISA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NGOCNHAN\test2021\GhiDanh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gia Long\Site Web\Textes\2024\2023-08-18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4375BD-133C-4783-8EB5-A0FF1D88DF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643654C2-0F62-4921-9FE1-944ACA6C24C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="442" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="442" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phiếu ghi danh" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="94">
   <si>
     <t>PHIẾU GHI DANH</t>
   </si>
@@ -254,57 +254,6 @@
   </si>
   <si>
     <t>Số thứ tự</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Qua bưu điện : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  Association Gia Long - 22 Rue Ampère - 92160 Antony - France
-      </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Qua e-mail     :</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   ghidanhlienlacdhparis@gmail.com 
-        </t>
-    </r>
   </si>
   <si>
     <t>Môn dạy, chức vụ hay Lớp/Năm ra trường (1)</t>
@@ -563,16 +512,156 @@
     <t xml:space="preserve">     Xin cho biết có tham dự di chuyển từ Paris đến chỗ du thuyền do hội tổ chức hay không (xem hướng dẫn dưới đây)</t>
   </si>
   <si>
-    <t>* Vé mua rồi xin miễn trả lại</t>
-  </si>
-  <si>
-    <t>* Quý vị sẽ nhận được email hay thư hồi báo xác nhận đã ghi danh sau khi  ban tổ chức nhận được tiền.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Danh sách ghi danh chính thức sẽ được xếp theo năm ra trường và được đăng trên site web của DH </t>
-  </si>
-  <si>
     <t>Dành cho Quý Giáo Sư, Nhân viên hành chánh trường, cựu nữ sinh Gia Long VN xin Visa (Chiếu khán)</t>
+  </si>
+  <si>
+    <t>* BTC yêu cầu quý vị trả 20% tiền cọc cùng lúc với ghi danh để biết chắc chắn số người tham dự. Số tiền cọc sẽ được hoàn lại nếu bị từ chối visa.</t>
+  </si>
+  <si>
+    <t>Sau khi được chấp nhận visa, yêu cầu các bạn trả nốt 80% còn lại</t>
+  </si>
+  <si>
+    <r>
+      <t>* Quý vị sẽ nhận được email hay thư hồi báo xác nhận đã ghi danh</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tạm</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sau khi  ban tổ chức nhận được tiền cọc và </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chính thức</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ghi danh khi nhận được số tiền đầy đủ</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">* Danh sách ghi danh  sẽ được xếp theo năm ra trường và được đăng trên site web của DH </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Qua bưu điện : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Association Gia Long - 22 Rue Ampère - 92160 Antony - France
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Qua e-mail     :</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   ghidanhlienlacdhparis@gmail.com  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>và</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dulichdhparis@gmail.com </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(nếu tham dự du lịch)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -585,7 +674,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="166" formatCode="#,##0\ _€;\-#,##0\ _€;#"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -665,6 +754,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -710,7 +826,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -911,6 +1027,32 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -1149,23 +1291,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1253,8 +1384,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="6" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -1276,6 +1411,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1292,7 +1430,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1332,32 +1469,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="6" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1369,24 +1515,38 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1402,31 +1562,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1438,117 +1595,117 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1624,13 +1781,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1677,13 +1834,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1730,13 +1887,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1783,13 +1940,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1836,13 +1993,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1889,13 +2046,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1942,13 +2099,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1995,13 +2152,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2048,13 +2205,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2097,67 +2254,17 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>390526</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1238250</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Image 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD98C1D0-99FA-4517-8C2A-39E2DC891FA0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="390526" y="76201"/>
-          <a:ext cx="1238249" cy="1057274"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2204,13 +2311,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2257,13 +2364,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2310,13 +2417,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2357,6 +2464,56 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1233525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>69375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ECCAEB8-FB25-4606-989B-4DB71838EADA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="8943975"/>
+          <a:ext cx="1224000" cy="1260000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2625,16 +2782,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:L89"/>
+  <dimension ref="A2:L98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
@@ -2643,48 +2800,48 @@
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
     <col min="10" max="10" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="21" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1"/>
     <col min="12" max="12" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="18"/>
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
     </row>
     <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B3" s="22"/>
-      <c r="C3" s="123" t="s">
+      <c r="C3" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
       <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B4" s="18"/>
-      <c r="C4" s="123" t="s">
+      <c r="C4" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
     </row>
     <row r="5" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="19"/>
       <c r="C5" s="43" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D5" s="43"/>
       <c r="E5" s="43"/>
@@ -2704,67 +2861,67 @@
     </row>
     <row r="7" spans="1:11" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:11" s="63" customFormat="1" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="E8" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="68" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" s="67" t="s">
+      <c r="K8" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" s="67" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="9" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64">
+      <c r="A9" s="67">
         <v>1</v>
       </c>
-      <c r="B9" s="50"/>
+      <c r="B9" s="142"/>
       <c r="C9" s="41"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="103"/>
+      <c r="D9" s="145"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="64"/>
       <c r="G9" s="35"/>
       <c r="H9" s="41"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
+      <c r="I9" s="139"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
     </row>
     <row r="10" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>2</v>
       </c>
-      <c r="B10" s="33"/>
+      <c r="B10" s="143"/>
       <c r="C10" s="29"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="105"/>
+      <c r="D10" s="146"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="65"/>
       <c r="G10" s="36"/>
       <c r="H10" s="29"/>
-      <c r="I10" s="38"/>
+      <c r="I10" s="140"/>
       <c r="J10" s="38"/>
       <c r="K10" s="38"/>
     </row>
@@ -2772,14 +2929,14 @@
       <c r="A11" s="31">
         <v>3</v>
       </c>
-      <c r="B11" s="33"/>
+      <c r="B11" s="143"/>
       <c r="C11" s="29"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="105"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="65"/>
       <c r="G11" s="36"/>
       <c r="H11" s="29"/>
-      <c r="I11" s="38"/>
+      <c r="I11" s="140"/>
       <c r="J11" s="38"/>
       <c r="K11" s="38"/>
     </row>
@@ -2787,14 +2944,14 @@
       <c r="A12" s="31">
         <v>4</v>
       </c>
-      <c r="B12" s="33"/>
+      <c r="B12" s="143"/>
       <c r="C12" s="29"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="105"/>
+      <c r="D12" s="146"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="65"/>
       <c r="G12" s="36"/>
       <c r="H12" s="29"/>
-      <c r="I12" s="38"/>
+      <c r="I12" s="140"/>
       <c r="J12" s="38"/>
       <c r="K12" s="38"/>
     </row>
@@ -2802,14 +2959,14 @@
       <c r="A13" s="31">
         <v>5</v>
       </c>
-      <c r="B13" s="33"/>
+      <c r="B13" s="143"/>
       <c r="C13" s="29"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="105"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="65"/>
       <c r="G13" s="36"/>
       <c r="H13" s="29"/>
-      <c r="I13" s="38"/>
+      <c r="I13" s="140"/>
       <c r="J13" s="38"/>
       <c r="K13" s="38"/>
     </row>
@@ -2817,14 +2974,14 @@
       <c r="A14" s="31">
         <v>6</v>
       </c>
-      <c r="B14" s="33"/>
+      <c r="B14" s="143"/>
       <c r="C14" s="29"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="105"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="65"/>
       <c r="G14" s="36"/>
       <c r="H14" s="29"/>
-      <c r="I14" s="38"/>
+      <c r="I14" s="140"/>
       <c r="J14" s="38"/>
       <c r="K14" s="38"/>
     </row>
@@ -2832,14 +2989,14 @@
       <c r="A15" s="31">
         <v>7</v>
       </c>
-      <c r="B15" s="33"/>
+      <c r="B15" s="143"/>
       <c r="C15" s="29"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="105"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="65"/>
       <c r="G15" s="36"/>
       <c r="H15" s="29"/>
-      <c r="I15" s="38"/>
+      <c r="I15" s="140"/>
       <c r="J15" s="38"/>
       <c r="K15" s="38"/>
     </row>
@@ -2847,578 +3004,596 @@
       <c r="A16" s="31">
         <v>8</v>
       </c>
-      <c r="B16" s="33"/>
+      <c r="B16" s="143"/>
       <c r="C16" s="29"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="105"/>
+      <c r="D16" s="146"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="65"/>
       <c r="G16" s="36"/>
       <c r="H16" s="29"/>
-      <c r="I16" s="38"/>
+      <c r="I16" s="140"/>
       <c r="J16" s="38"/>
       <c r="K16" s="38"/>
     </row>
-    <row r="17" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>9</v>
       </c>
-      <c r="B17" s="33"/>
+      <c r="B17" s="143"/>
       <c r="C17" s="29"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="105"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="65"/>
       <c r="G17" s="36"/>
       <c r="H17" s="29"/>
-      <c r="I17" s="38"/>
+      <c r="I17" s="140"/>
       <c r="J17" s="38"/>
       <c r="K17" s="38"/>
     </row>
-    <row r="18" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
         <v>10</v>
       </c>
-      <c r="B18" s="33"/>
+      <c r="B18" s="143"/>
       <c r="C18" s="29"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="105"/>
+      <c r="D18" s="146"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="65"/>
       <c r="G18" s="36"/>
       <c r="H18" s="29"/>
-      <c r="I18" s="38"/>
+      <c r="I18" s="140"/>
       <c r="J18" s="38"/>
       <c r="K18" s="38"/>
     </row>
-    <row r="19" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>11</v>
       </c>
-      <c r="B19" s="33"/>
+      <c r="B19" s="143"/>
       <c r="C19" s="29"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="105"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="65"/>
       <c r="G19" s="36"/>
       <c r="H19" s="29"/>
-      <c r="I19" s="38"/>
+      <c r="I19" s="140"/>
       <c r="J19" s="38"/>
       <c r="K19" s="38"/>
     </row>
-    <row r="20" spans="1:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="32">
+    <row r="20" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="31">
         <v>12</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-    </row>
-    <row r="21" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="23" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="B23" s="18"/>
-      <c r="C23" s="123" t="s">
+      <c r="B20" s="143"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="140"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+    </row>
+    <row r="21" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="31">
+        <v>13</v>
+      </c>
+      <c r="B21" s="143"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+    </row>
+    <row r="22" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="31">
+        <v>14</v>
+      </c>
+      <c r="B22" s="143"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="146"/>
+      <c r="E22" s="146"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="140"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+    </row>
+    <row r="23" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="31">
+        <v>15</v>
+      </c>
+      <c r="B23" s="143"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="146"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="140"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+    </row>
+    <row r="24" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="31">
+        <v>16</v>
+      </c>
+      <c r="B24" s="143"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="140"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+    </row>
+    <row r="25" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="31">
+        <v>17</v>
+      </c>
+      <c r="B25" s="143"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="140"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+    </row>
+    <row r="26" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="31">
+        <v>18</v>
+      </c>
+      <c r="B26" s="143"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="140"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+    </row>
+    <row r="27" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="31">
+        <v>19</v>
+      </c>
+      <c r="B27" s="143"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="140"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+    </row>
+    <row r="28" spans="1:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="32">
+        <v>20</v>
+      </c>
+      <c r="B28" s="144"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="141"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+    </row>
+    <row r="29" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="31" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="B31" s="18"/>
+      <c r="C31" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="123"/>
-    </row>
-    <row r="24" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="B24" s="22"/>
-      <c r="C24" s="123" t="s">
+      <c r="D31" s="125"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="125"/>
+      <c r="H31" s="125"/>
+      <c r="I31" s="125"/>
+    </row>
+    <row r="32" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="B32" s="22"/>
+      <c r="C32" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="123"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="123"/>
-      <c r="H24" s="123"/>
-      <c r="I24" s="123"/>
-      <c r="J24" s="23"/>
-    </row>
-    <row r="25" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="B25" s="18"/>
-      <c r="C25" s="123" t="s">
+      <c r="D32" s="125"/>
+      <c r="E32" s="125"/>
+      <c r="F32" s="125"/>
+      <c r="G32" s="125"/>
+      <c r="H32" s="125"/>
+      <c r="I32" s="125"/>
+      <c r="J32" s="23"/>
+    </row>
+    <row r="33" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="B33" s="18"/>
+      <c r="C33" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="123"/>
-      <c r="E25" s="123"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="123"/>
-    </row>
-    <row r="26" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="19"/>
-      <c r="C26" s="43" t="s">
+      <c r="D33" s="125"/>
+      <c r="E33" s="125"/>
+      <c r="F33" s="125"/>
+      <c r="G33" s="125"/>
+      <c r="H33" s="125"/>
+      <c r="I33" s="125"/>
+    </row>
+    <row r="34" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="19"/>
+      <c r="C34" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+    </row>
+    <row r="35" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="19"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+    </row>
+    <row r="36" spans="1:12" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:12" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="137" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="126" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="128" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-    </row>
-    <row r="27" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="19"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-    </row>
-    <row r="28" spans="1:12" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:12" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="124" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="126" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="128" t="s">
+      <c r="E37" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="130" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="131"/>
+      <c r="H37" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="I37" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="J37" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="K37" s="114" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="130" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" s="131"/>
-      <c r="H29" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="J29" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="K29" s="115" t="s">
+      <c r="L37" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="L29" s="28" t="s">
+    </row>
+    <row r="38" spans="1:12" s="17" customFormat="1" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="138"/>
+      <c r="B38" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="127"/>
+      <c r="D38" s="129"/>
+      <c r="E38" s="47">
+        <v>70</v>
+      </c>
+      <c r="F38" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" s="50" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" s="17" customFormat="1" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="125"/>
-      <c r="B30" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="127"/>
-      <c r="D30" s="129"/>
-      <c r="E30" s="46">
-        <v>70</v>
-      </c>
-      <c r="F30" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="H30" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="I30" s="49" t="s">
+      <c r="J38" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="J30" s="49" t="s">
+      <c r="K38" s="115"/>
+      <c r="L38" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="K30" s="116"/>
-      <c r="L30" s="49" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="31">
-        <v>1</v>
-      </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="108"/>
-      <c r="L31" s="111"/>
-    </row>
-    <row r="32" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="31">
-        <v>2</v>
-      </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="109"/>
-      <c r="L32" s="38"/>
-    </row>
-    <row r="33" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="31">
-        <v>3</v>
-      </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="109"/>
-      <c r="L33" s="38"/>
-    </row>
-    <row r="34" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31">
-        <v>4</v>
-      </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="109"/>
-      <c r="L34" s="38"/>
-    </row>
-    <row r="35" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31">
-        <v>5</v>
-      </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="113"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="109"/>
-      <c r="L35" s="38"/>
-    </row>
-    <row r="36" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="31">
-        <v>6</v>
-      </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="113"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="109"/>
-      <c r="L36" s="38"/>
-    </row>
-    <row r="37" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="31">
-        <v>7</v>
-      </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="113"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="109"/>
-      <c r="L37" s="38"/>
-    </row>
-    <row r="38" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="31">
-        <v>8</v>
-      </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="113"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="109"/>
-      <c r="L38" s="38"/>
     </row>
     <row r="39" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="31">
+        <v>1</v>
+      </c>
+      <c r="B39" s="142"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="139"/>
+      <c r="L39" s="86"/>
+    </row>
+    <row r="40" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="31">
+        <v>2</v>
+      </c>
+      <c r="B40" s="143"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="140"/>
+      <c r="L40" s="86"/>
+    </row>
+    <row r="41" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="31">
+        <v>3</v>
+      </c>
+      <c r="B41" s="143"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="140"/>
+      <c r="L41" s="86"/>
+    </row>
+    <row r="42" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="31">
+        <v>4</v>
+      </c>
+      <c r="B42" s="143"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="87"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="140"/>
+      <c r="L42" s="86"/>
+    </row>
+    <row r="43" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="31">
+        <v>5</v>
+      </c>
+      <c r="B43" s="143"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="140"/>
+      <c r="L43" s="86"/>
+    </row>
+    <row r="44" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="31">
+        <v>6</v>
+      </c>
+      <c r="B44" s="143"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="88"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="140"/>
+      <c r="L44" s="86"/>
+    </row>
+    <row r="45" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="31">
+        <v>7</v>
+      </c>
+      <c r="B45" s="143"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="87"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="140"/>
+      <c r="L45" s="86"/>
+    </row>
+    <row r="46" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="31">
+        <v>8</v>
+      </c>
+      <c r="B46" s="143"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="87"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="140"/>
+      <c r="L46" s="86"/>
+    </row>
+    <row r="47" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="31">
         <v>9</v>
       </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="113"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="109"/>
-      <c r="L39" s="38"/>
-    </row>
-    <row r="40" spans="1:12" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="32">
+      <c r="B47" s="143"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="140"/>
+      <c r="L47" s="86"/>
+    </row>
+    <row r="48" spans="1:12" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="32">
         <v>10</v>
       </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="82"/>
-      <c r="F40" s="114"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="110"/>
-      <c r="L40" s="39"/>
-    </row>
-    <row r="41" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="E43" s="84"/>
-      <c r="F43" s="85"/>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="H44" s="86" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="H45" s="87" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="H46" s="88" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="H47" s="88" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="H48" s="89" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
+      <c r="B48" s="144"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="90"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="141"/>
+      <c r="L48" s="91"/>
+    </row>
+    <row r="49" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+      <c r="E49" s="92"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="40"/>
+      <c r="G49" s="2"/>
     </row>
     <row r="50" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="120" t="s">
-        <v>35</v>
-      </c>
-      <c r="B50" s="120"/>
-      <c r="C50" s="120"/>
-      <c r="D50" s="120"/>
-      <c r="E50" s="120"/>
-      <c r="F50" s="120"/>
-      <c r="G50" s="120"/>
-      <c r="H50" s="120"/>
-      <c r="I50" s="120"/>
-      <c r="J50" s="120"/>
-    </row>
-    <row r="51" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-    </row>
-    <row r="52" spans="1:11" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="121" t="s">
-        <v>26</v>
-      </c>
-      <c r="B52" s="121"/>
-      <c r="C52" s="121"/>
-      <c r="D52" s="121"/>
-      <c r="E52" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F52" s="5"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-    </row>
-    <row r="53" spans="1:11" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="92"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="E51" s="93"/>
+      <c r="F51" s="94"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="H52" s="95" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="D53" s="5"/>
-      <c r="F53" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="H53" s="96" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="1:11" s="21" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="118" t="s">
-        <v>43</v>
-      </c>
-      <c r="B55" s="118"/>
-      <c r="C55" s="118"/>
-      <c r="D55" s="118"/>
-      <c r="E55" s="118"/>
-      <c r="F55" s="118"/>
-      <c r="G55" s="118"/>
-      <c r="H55" s="118"/>
-      <c r="I55" s="118"/>
-      <c r="J55" s="118"/>
-      <c r="K55" s="118"/>
-    </row>
-    <row r="56" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="120" t="s">
-        <v>52</v>
-      </c>
-      <c r="B56" s="120"/>
-      <c r="C56" s="120"/>
-      <c r="D56" s="120"/>
-      <c r="E56" s="120"/>
-      <c r="F56" s="120"/>
-      <c r="G56" s="120"/>
-    </row>
-    <row r="57" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="117" t="s">
-        <v>50</v>
-      </c>
-      <c r="B57" s="117"/>
-      <c r="C57" s="117"/>
-      <c r="D57" s="117"/>
-      <c r="E57" s="117"/>
-      <c r="F57" s="117"/>
-      <c r="G57" s="117"/>
-      <c r="H57" s="117"/>
-      <c r="I57" s="117"/>
-      <c r="J57" s="117"/>
-      <c r="K57" s="117"/>
-    </row>
-    <row r="58" spans="1:11" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H54" s="97" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="H55" s="97" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="H56" s="98" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="40"/>
+    </row>
+    <row r="58" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="119" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B58" s="119"/>
       <c r="C58" s="119"/>
@@ -3429,585 +3604,709 @@
       <c r="H58" s="119"/>
       <c r="I58" s="119"/>
       <c r="J58" s="119"/>
-      <c r="K58" s="119"/>
-    </row>
-    <row r="59" spans="1:11" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+    </row>
+    <row r="59" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+    </row>
+    <row r="60" spans="1:11" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="120" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="120"/>
+      <c r="C60" s="120"/>
+      <c r="D60" s="120"/>
+      <c r="E60" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" s="5"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+    </row>
+    <row r="61" spans="1:11" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="F61" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="1:11" s="21" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="117" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" s="117"/>
+      <c r="C63" s="117"/>
+      <c r="D63" s="117"/>
+      <c r="E63" s="117"/>
+      <c r="F63" s="117"/>
+      <c r="G63" s="117"/>
+      <c r="H63" s="117"/>
+      <c r="I63" s="117"/>
+      <c r="J63" s="117"/>
+      <c r="K63" s="117"/>
+    </row>
+    <row r="64" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="119" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" s="119"/>
+      <c r="C64" s="119"/>
+      <c r="D64" s="119"/>
+      <c r="E64" s="119"/>
+      <c r="F64" s="119"/>
+      <c r="G64" s="119"/>
+    </row>
+    <row r="65" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="116" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65" s="116"/>
+      <c r="C65" s="116"/>
+      <c r="D65" s="116"/>
+      <c r="E65" s="116"/>
+      <c r="F65" s="116"/>
+      <c r="G65" s="116"/>
+      <c r="H65" s="116"/>
+      <c r="I65" s="116"/>
+      <c r="J65" s="116"/>
+      <c r="K65" s="116"/>
+    </row>
+    <row r="66" spans="1:12" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="118" t="s">
+        <v>42</v>
+      </c>
+      <c r="B66" s="118"/>
+      <c r="C66" s="118"/>
+      <c r="D66" s="118"/>
+      <c r="E66" s="118"/>
+      <c r="F66" s="118"/>
+      <c r="G66" s="118"/>
+      <c r="H66" s="118"/>
+      <c r="I66" s="118"/>
+      <c r="J66" s="118"/>
+      <c r="K66" s="118"/>
+    </row>
+    <row r="67" spans="1:12" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-    </row>
-    <row r="60" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+    </row>
+    <row r="69" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-    </row>
-    <row r="61" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-    </row>
-    <row r="62" spans="1:11" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="122" t="s">
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+    </row>
+    <row r="70" spans="1:12" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="B62" s="122"/>
-      <c r="C62" s="122"/>
-      <c r="D62" s="122"/>
-      <c r="E62" s="122"/>
-      <c r="F62" s="122"/>
-      <c r="G62" s="122"/>
-      <c r="H62" s="122"/>
-      <c r="I62" s="122"/>
-    </row>
-    <row r="63" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="132" t="s">
+      <c r="B70" s="121"/>
+      <c r="C70" s="121"/>
+      <c r="D70" s="121"/>
+      <c r="E70" s="121"/>
+      <c r="F70" s="121"/>
+      <c r="G70" s="121"/>
+      <c r="H70" s="121"/>
+      <c r="I70" s="121"/>
+    </row>
+    <row r="71" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="B63" s="132"/>
-      <c r="C63" s="132"/>
-      <c r="D63" s="132"/>
-      <c r="E63" s="132"/>
-      <c r="F63" s="132"/>
-      <c r="G63" s="132"/>
-      <c r="H63" s="132"/>
-      <c r="I63" s="132"/>
-    </row>
-    <row r="64" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="B71" s="123"/>
+      <c r="C71" s="123"/>
+      <c r="D71" s="123"/>
+      <c r="E71" s="123"/>
+      <c r="F71" s="123"/>
+      <c r="G71" s="123"/>
+      <c r="H71" s="123"/>
+      <c r="I71" s="123"/>
+    </row>
+    <row r="72" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-    </row>
-    <row r="65" spans="1:12" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="120" t="s">
-        <v>45</v>
-      </c>
-      <c r="B65" s="120"/>
-      <c r="C65" s="120"/>
-      <c r="D65" s="120"/>
-      <c r="E65" s="120"/>
-      <c r="F65" s="120"/>
-      <c r="G65" s="120"/>
-      <c r="H65" s="120"/>
-      <c r="I65" s="120"/>
-    </row>
-    <row r="66" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-    </row>
-    <row r="67" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-    </row>
-    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="134" t="s">
-        <v>49</v>
-      </c>
-      <c r="B68" s="134"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-    </row>
-    <row r="69" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-    </row>
-    <row r="70" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="117" t="s">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="1:12" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="119" t="s">
+        <v>93</v>
+      </c>
+      <c r="B73" s="119"/>
+      <c r="C73" s="119"/>
+      <c r="D73" s="119"/>
+      <c r="E73" s="119"/>
+      <c r="F73" s="119"/>
+      <c r="G73" s="119"/>
+      <c r="H73" s="119"/>
+      <c r="I73" s="119"/>
+    </row>
+    <row r="74" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+    </row>
+    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="132" t="s">
+        <v>48</v>
+      </c>
+      <c r="B76" s="132"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+    </row>
+    <row r="77" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="8"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+    </row>
+    <row r="78" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="116" t="s">
+        <v>52</v>
+      </c>
+      <c r="B78" s="116"/>
+      <c r="C78" s="116"/>
+      <c r="D78" s="116"/>
+      <c r="E78" s="116"/>
+      <c r="F78" s="116"/>
+      <c r="G78" s="116"/>
+      <c r="H78" s="116"/>
+    </row>
+    <row r="79" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="116" t="s">
+        <v>36</v>
+      </c>
+      <c r="B79" s="116"/>
+      <c r="C79" s="116"/>
+      <c r="D79" s="116"/>
+      <c r="E79" s="116"/>
+      <c r="F79" s="116"/>
+      <c r="G79" s="116"/>
+      <c r="H79" s="116"/>
+      <c r="I79" s="116"/>
+      <c r="J79" s="116"/>
+    </row>
+    <row r="80" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="122" t="s">
+        <v>89</v>
+      </c>
+      <c r="B80" s="122"/>
+      <c r="C80" s="122"/>
+      <c r="D80" s="122"/>
+      <c r="E80" s="122"/>
+      <c r="F80" s="122"/>
+      <c r="G80" s="122"/>
+      <c r="H80" s="122"/>
+      <c r="I80" s="122"/>
+      <c r="J80" s="122"/>
+      <c r="K80" s="122"/>
+      <c r="L80" s="122"/>
+    </row>
+    <row r="81" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="122" t="s">
+        <v>90</v>
+      </c>
+      <c r="B81" s="122"/>
+      <c r="C81" s="122"/>
+      <c r="D81" s="122"/>
+      <c r="E81" s="122"/>
+      <c r="F81" s="122"/>
+      <c r="G81" s="122"/>
+      <c r="H81" s="122"/>
+      <c r="I81" s="122"/>
+      <c r="J81" s="82"/>
+    </row>
+    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="110" t="s">
+        <v>91</v>
+      </c>
+      <c r="B82" s="111"/>
+      <c r="C82" s="111"/>
+      <c r="D82" s="112"/>
+      <c r="E82" s="112"/>
+      <c r="F82" s="112"/>
+      <c r="G82" s="113"/>
+      <c r="H82" s="113"/>
+      <c r="I82" s="113"/>
+      <c r="J82" s="113"/>
+    </row>
+    <row r="83" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="110" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83" s="111"/>
+      <c r="C83" s="111"/>
+      <c r="D83" s="112"/>
+      <c r="E83" s="112"/>
+      <c r="F83" s="112"/>
+      <c r="G83" s="113"/>
+      <c r="H83" s="113"/>
+      <c r="I83" s="113"/>
+      <c r="J83" s="113"/>
+    </row>
+    <row r="84" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="124" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" s="124"/>
+      <c r="C84" s="124"/>
+      <c r="D84" s="124"/>
+      <c r="E84" s="124"/>
+      <c r="F84" s="124"/>
+      <c r="G84" s="124"/>
+      <c r="H84" s="124"/>
+      <c r="I84" s="124"/>
+      <c r="J84" s="124"/>
+      <c r="K84" s="124"/>
+    </row>
+    <row r="85" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="119" t="s">
+        <v>33</v>
+      </c>
+      <c r="B85" s="119"/>
+      <c r="C85" s="119"/>
+      <c r="D85" s="119"/>
+      <c r="E85" s="119"/>
+      <c r="F85" s="119"/>
+      <c r="G85" s="119"/>
+      <c r="H85" s="119"/>
+      <c r="I85" s="119"/>
+      <c r="J85" s="119"/>
+    </row>
+    <row r="86" spans="1:12" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="B86" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B70" s="117"/>
-      <c r="C70" s="117"/>
-      <c r="D70" s="117"/>
-      <c r="E70" s="117"/>
-      <c r="F70" s="117"/>
-      <c r="G70" s="117"/>
-      <c r="H70" s="117"/>
-    </row>
-    <row r="71" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="117" t="s">
-        <v>36</v>
-      </c>
-      <c r="B71" s="117"/>
-      <c r="C71" s="117"/>
-      <c r="D71" s="117"/>
-      <c r="E71" s="117"/>
-      <c r="F71" s="117"/>
-      <c r="G71" s="117"/>
-      <c r="H71" s="117"/>
-      <c r="I71" s="117"/>
-      <c r="J71" s="117"/>
-    </row>
-    <row r="72" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="135" t="s">
-        <v>89</v>
-      </c>
-      <c r="B72" s="135"/>
-      <c r="C72" s="135"/>
-      <c r="D72" s="135"/>
-      <c r="E72" s="135"/>
-      <c r="F72" s="135"/>
-      <c r="G72" s="135"/>
-      <c r="H72" s="135"/>
-      <c r="I72" s="135"/>
-      <c r="J72" s="135"/>
-      <c r="K72" s="135"/>
-    </row>
-    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="90" t="s">
-        <v>90</v>
-      </c>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-    </row>
-    <row r="74" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="90" t="s">
-        <v>91</v>
-      </c>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-    </row>
-    <row r="75" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="133" t="s">
-        <v>10</v>
-      </c>
-      <c r="B75" s="133"/>
-      <c r="C75" s="133"/>
-      <c r="D75" s="133"/>
-      <c r="E75" s="133"/>
-      <c r="F75" s="133"/>
-      <c r="G75" s="133"/>
-      <c r="H75" s="133"/>
-      <c r="I75" s="133"/>
-      <c r="J75" s="133"/>
-      <c r="K75" s="133"/>
-    </row>
-    <row r="76" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="120" t="s">
-        <v>33</v>
-      </c>
-      <c r="B76" s="120"/>
-      <c r="C76" s="120"/>
-      <c r="D76" s="120"/>
-      <c r="E76" s="120"/>
-      <c r="F76" s="120"/>
-      <c r="G76" s="120"/>
-      <c r="H76" s="120"/>
-      <c r="I76" s="120"/>
-      <c r="J76" s="120"/>
-    </row>
-    <row r="77" spans="1:12" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="B77" s="51" t="s">
+      <c r="D86" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E86" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F86" s="130" t="s">
+        <v>23</v>
+      </c>
+      <c r="G86" s="131"/>
+      <c r="H86" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="I86" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="J86" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="K86" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="L86" s="28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="31">
+        <v>1</v>
+      </c>
+      <c r="B87" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C87" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="D87" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="E87" s="56">
+        <v>70</v>
+      </c>
+      <c r="F87" s="59">
+        <v>150</v>
+      </c>
+      <c r="G87" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="H87" s="77">
+        <f>SUM(E87:F87)</f>
+        <v>220</v>
+      </c>
+      <c r="I87" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="K87" s="79"/>
+      <c r="L87" s="79"/>
+    </row>
+    <row r="88" spans="1:12" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="31">
         <v>2</v>
       </c>
-      <c r="C77" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D77" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E77" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="F77" s="130" t="s">
-        <v>23</v>
-      </c>
-      <c r="G77" s="131"/>
-      <c r="H77" s="71" t="s">
+      <c r="B88" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C88" s="54">
+        <v>78</v>
+      </c>
+      <c r="D88" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="E88" s="56">
+        <v>70</v>
+      </c>
+      <c r="F88" s="59">
+        <v>150</v>
+      </c>
+      <c r="G88" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="H88" s="77">
+        <f>SUM(E88:F88)</f>
+        <v>220</v>
+      </c>
+      <c r="I88" s="78"/>
+      <c r="J88" s="133" t="s">
+        <v>70</v>
+      </c>
+      <c r="K88" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="L88" s="99" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="31">
         <v>3</v>
       </c>
-      <c r="I77" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="J77" s="73" t="s">
-        <v>65</v>
-      </c>
-      <c r="K77" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="L77" s="28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="31">
-        <v>1</v>
-      </c>
-      <c r="B78" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="C78" s="54" t="s">
+      <c r="B89" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89" s="54">
+        <v>75</v>
+      </c>
+      <c r="D89" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="E89" s="56">
+        <v>70</v>
+      </c>
+      <c r="F89" s="59">
+        <v>150</v>
+      </c>
+      <c r="G89" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89" s="77">
+        <f>SUM(E89:F89)</f>
+        <v>220</v>
+      </c>
+      <c r="I89" s="100"/>
+      <c r="J89" s="134"/>
+      <c r="K89" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="L89" s="99" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="31">
+        <v>4</v>
+      </c>
+      <c r="B90" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C90" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="D78" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="E78" s="56">
-        <v>70</v>
-      </c>
-      <c r="F78" s="59">
+      <c r="D90" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="E90" s="57"/>
+      <c r="F90" s="59">
         <v>150</v>
       </c>
-      <c r="G78" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="H78" s="74">
-        <f>SUM(E78:F78)</f>
-        <v>220</v>
-      </c>
-      <c r="I78" s="75" t="s">
+      <c r="G90" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90" s="77">
+        <f t="shared" ref="H90:H91" si="0">SUM(E90:F90)</f>
+        <v>150</v>
+      </c>
+      <c r="I90" s="101"/>
+      <c r="J90" s="135" t="s">
+        <v>75</v>
+      </c>
+      <c r="K90" s="79" t="s">
+        <v>76</v>
+      </c>
+      <c r="L90" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="K78" s="76"/>
-      <c r="L78" s="76"/>
-    </row>
-    <row r="79" spans="1:12" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="31">
-        <v>2</v>
-      </c>
-      <c r="B79" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="C79" s="54">
-        <v>78</v>
-      </c>
-      <c r="D79" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="E79" s="56">
-        <v>70</v>
-      </c>
-      <c r="F79" s="59">
+    </row>
+    <row r="91" spans="1:12" s="6" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="32">
+        <v>5</v>
+      </c>
+      <c r="B91" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="E91" s="58"/>
+      <c r="F91" s="61">
         <v>150</v>
       </c>
-      <c r="G79" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="H79" s="74">
-        <f>SUM(E79:F79)</f>
-        <v>220</v>
-      </c>
-      <c r="I79" s="75"/>
-      <c r="J79" s="136" t="s">
-        <v>71</v>
-      </c>
-      <c r="K79" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="L79" s="91" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="31">
-        <v>3</v>
-      </c>
-      <c r="B80" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="C80" s="54">
-        <v>75</v>
-      </c>
-      <c r="D80" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="E80" s="56">
-        <v>70</v>
-      </c>
-      <c r="F80" s="59">
-        <v>150</v>
-      </c>
-      <c r="G80" s="60" t="s">
+      <c r="G91" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="H80" s="74">
-        <f>SUM(E80:F80)</f>
-        <v>220</v>
-      </c>
-      <c r="I80" s="92"/>
-      <c r="J80" s="137"/>
-      <c r="K80" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="L80" s="91" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="31">
-        <v>4</v>
-      </c>
-      <c r="B81" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="C81" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="D81" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="E81" s="57"/>
-      <c r="F81" s="59">
-        <v>150</v>
-      </c>
-      <c r="G81" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="H81" s="74">
-        <f t="shared" ref="H81:H82" si="0">SUM(E81:F81)</f>
-        <v>150</v>
-      </c>
-      <c r="I81" s="93"/>
-      <c r="J81" s="138" t="s">
-        <v>76</v>
-      </c>
-      <c r="K81" s="76" t="s">
-        <v>77</v>
-      </c>
-      <c r="L81" s="91" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" s="6" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="32">
-        <v>5</v>
-      </c>
-      <c r="B82" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C82" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="D82" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="E82" s="58"/>
-      <c r="F82" s="61">
-        <v>150</v>
-      </c>
-      <c r="G82" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="H82" s="77">
+      <c r="H91" s="80">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="I82" s="94"/>
-      <c r="J82" s="139"/>
-      <c r="K82" s="78" t="s">
-        <v>78</v>
-      </c>
-      <c r="L82" s="95" t="s">
+      <c r="I91" s="102"/>
+      <c r="J91" s="136"/>
+      <c r="K91" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="L91" s="103" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:12" s="6" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="17"/>
-      <c r="B83" s="72"/>
-      <c r="C83" s="96"/>
-      <c r="D83" s="96"/>
-      <c r="E83" s="97"/>
-      <c r="F83" s="98"/>
-      <c r="G83" s="96"/>
-      <c r="H83" s="99"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="100"/>
-      <c r="K83" s="101"/>
-      <c r="L83"/>
-    </row>
-    <row r="84" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="s">
+    <row r="92" spans="1:12" s="6" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="17"/>
+      <c r="B92" s="75"/>
+      <c r="C92" s="104"/>
+      <c r="D92" s="104"/>
+      <c r="E92" s="105"/>
+      <c r="F92" s="106"/>
+      <c r="G92" s="104"/>
+      <c r="H92" s="107"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="108"/>
+      <c r="K92" s="109"/>
+      <c r="L92"/>
+    </row>
+    <row r="93" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="12"/>
-      <c r="E84" s="27">
+      <c r="B93" s="14"/>
+      <c r="C93" s="12"/>
+      <c r="E93" s="27">
         <v>3</v>
       </c>
-      <c r="F84" s="26">
+      <c r="F93" s="26">
         <v>5</v>
       </c>
-      <c r="G84" s="15"/>
-    </row>
-    <row r="85" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="9" t="s">
+      <c r="G93" s="15"/>
+    </row>
+    <row r="94" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B85" s="12"/>
-      <c r="C85" s="12"/>
-      <c r="E85" s="11">
-        <f>SUM(E78:E82)</f>
+      <c r="B94" s="12"/>
+      <c r="C94" s="12"/>
+      <c r="E94" s="11">
+        <f>SUM(E87:E91)</f>
         <v>210</v>
       </c>
-      <c r="F85" s="11">
-        <f>SUM(F78:F82)</f>
+      <c r="F94" s="11">
+        <f>SUM(F87:F91)</f>
         <v>750</v>
       </c>
-      <c r="H85" s="11">
-        <f>SUM(E85:F85)</f>
+      <c r="H94" s="11">
+        <f>SUM(E94:F94)</f>
         <v>960</v>
       </c>
-      <c r="J85" s="42"/>
-    </row>
-    <row r="86" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="117" t="s">
+      <c r="J94" s="42"/>
+    </row>
+    <row r="95" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="B86" s="117"/>
-      <c r="C86" s="13" t="s">
+      <c r="B95" s="116"/>
+      <c r="C95" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D86" s="16"/>
-      <c r="E86" s="16"/>
-      <c r="F86" s="12"/>
-      <c r="H86" s="11">
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="12"/>
+      <c r="H95" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="13" t="s">
+    <row r="96" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="H87" s="11">
-        <f>SUM(H85:H86)</f>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="H96" s="11">
+        <f>SUM(H94:H95)</f>
         <v>1060</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="117" t="s">
+    <row r="97" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="117"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="H88" s="11">
-        <f>H87</f>
+      <c r="B97" s="116"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="H97" s="11">
+        <f>H96</f>
         <v>1060</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="117" t="s">
+    <row r="98" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="B89" s="117"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="H89" s="11">
-        <f>H88</f>
+      <c r="B98" s="116"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="H98" s="11">
+        <f>H97</f>
         <v>1060</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A76:J76"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="J81:J82"/>
-    <mergeCell ref="A86:B86"/>
+  <mergeCells count="33">
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A85:J85"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="J88:J89"/>
+    <mergeCell ref="J90:J91"/>
+    <mergeCell ref="A95:B95"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C4:H4"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C25:I25"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A55:K55"/>
-    <mergeCell ref="A57:K57"/>
-    <mergeCell ref="A58:K58"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="A62:I62"/>
-    <mergeCell ref="A63:I63"/>
-    <mergeCell ref="A65:I65"/>
-    <mergeCell ref="A70:H70"/>
-    <mergeCell ref="A71:J71"/>
-    <mergeCell ref="A75:K75"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A72:K72"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="C33:I33"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A63:K63"/>
+    <mergeCell ref="A65:K65"/>
+    <mergeCell ref="A66:K66"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A64:G64"/>
+    <mergeCell ref="A70:I70"/>
+    <mergeCell ref="A81:I81"/>
+    <mergeCell ref="A80:L80"/>
+    <mergeCell ref="A71:I71"/>
+    <mergeCell ref="A73:I73"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A79:J79"/>
+    <mergeCell ref="A84:K84"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K80" r:id="rId1" xr:uid="{920953C2-2DC7-49D6-BF4D-8B24A6E7C0A8}"/>
-    <hyperlink ref="K81" r:id="rId2" xr:uid="{360983FF-9975-4113-AE57-E924F6D813D7}"/>
-    <hyperlink ref="K82" r:id="rId3" xr:uid="{A03DF8C4-197F-437C-983A-DF782E936954}"/>
-    <hyperlink ref="K79" r:id="rId4" xr:uid="{34C8E9B1-52AA-4C26-8B07-D08A012D5835}"/>
+    <hyperlink ref="K89" r:id="rId1" xr:uid="{920953C2-2DC7-49D6-BF4D-8B24A6E7C0A8}"/>
+    <hyperlink ref="K90" r:id="rId2" xr:uid="{360983FF-9975-4113-AE57-E924F6D813D7}"/>
+    <hyperlink ref="K91" r:id="rId3" xr:uid="{A03DF8C4-197F-437C-983A-DF782E936954}"/>
+    <hyperlink ref="K88" r:id="rId4" xr:uid="{34C8E9B1-52AA-4C26-8B07-D08A012D5835}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.39370078740157483" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="landscape" r:id="rId5"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="21" max="16383" man="1"/>
+    <brk id="29" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId6"/>
 </worksheet>

--- a/GhiDanh/PhieuGhiDanh-VISA.xlsx
+++ b/GhiDanh/PhieuGhiDanh-VISA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gia Long\Site Web\Textes\2024\2023-08-18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643654C2-0F62-4921-9FE1-944ACA6C24C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1091D9D-EBA5-47A8-899B-3603CCA6FF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="442" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="95">
   <si>
     <t>PHIẾU GHI DANH</t>
   </si>
@@ -663,16 +663,21 @@
         </t>
     </r>
   </si>
+  <si>
+    <t>Số
+thứ tự</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="166" formatCode="#,##0\ _€;\-#,##0\ _€;#"/>
+    <numFmt numFmtId="167" formatCode="#,##0\ &quot;€&quot;;\-#,##0\ &quot;€&quot;;#"/>
+    <numFmt numFmtId="168" formatCode="#,##0\ &quot;€&quot;;\-#,##0\ &quot;€&quot;;#\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -1296,13 +1301,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1469,15 +1473,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1527,41 +1522,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1605,24 +1570,93 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1638,74 +1672,48 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2784,9 +2792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2805,395 +2811,395 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="18"/>
-      <c r="C2" s="125" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
     </row>
     <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="22"/>
-      <c r="C3" s="125" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="23"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="22"/>
     </row>
     <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="18"/>
-      <c r="C4" s="125" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
     </row>
     <row r="5" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="19"/>
-      <c r="C5" s="43" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
     </row>
     <row r="6" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="19"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:11" s="63" customFormat="1" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="72" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="68" t="s">
+    <row r="8" spans="1:11" s="62" customFormat="1" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="70" t="s">
+      <c r="E8" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="69" t="s">
+      <c r="F8" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="71" t="s">
+      <c r="G8" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="70" t="s">
+      <c r="H8" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="I8" s="70" t="s">
+      <c r="I8" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="70" t="s">
+      <c r="J8" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="K8" s="70" t="s">
+      <c r="K8" s="66" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="67">
+      <c r="A9" s="63">
         <v>1</v>
       </c>
-      <c r="B9" s="142"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="145"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="139"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
     </row>
     <row r="10" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
+      <c r="A10" s="30">
         <v>2</v>
       </c>
-      <c r="B10" s="143"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="146"/>
-      <c r="E10" s="146"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="135"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
     </row>
     <row r="11" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
+      <c r="A11" s="30">
         <v>3</v>
       </c>
-      <c r="B11" s="143"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="146"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
     </row>
     <row r="12" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31">
+      <c r="A12" s="30">
         <v>4</v>
       </c>
-      <c r="B12" s="143"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="146"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
     </row>
     <row r="13" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31">
+      <c r="A13" s="30">
         <v>5</v>
       </c>
-      <c r="B13" s="143"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="146"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
     </row>
     <row r="14" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31">
+      <c r="A14" s="30">
         <v>6</v>
       </c>
-      <c r="B14" s="143"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="146"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
     </row>
     <row r="15" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31">
+      <c r="A15" s="30">
         <v>7</v>
       </c>
-      <c r="B15" s="143"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
     </row>
     <row r="16" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31">
+      <c r="A16" s="30">
         <v>8</v>
       </c>
-      <c r="B16" s="143"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
     </row>
     <row r="17" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31">
+      <c r="A17" s="30">
         <v>9</v>
       </c>
-      <c r="B17" s="143"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="140"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
     </row>
     <row r="18" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31">
+      <c r="A18" s="30">
         <v>10</v>
       </c>
-      <c r="B18" s="143"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="146"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
     </row>
     <row r="19" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31">
+      <c r="A19" s="30">
         <v>11</v>
       </c>
-      <c r="B19" s="143"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="146"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
     </row>
     <row r="20" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31">
+      <c r="A20" s="30">
         <v>12</v>
       </c>
-      <c r="B20" s="143"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="135"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
     </row>
     <row r="21" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="31">
+      <c r="A21" s="30">
         <v>13</v>
       </c>
-      <c r="B21" s="143"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="135"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
     </row>
     <row r="22" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31">
+      <c r="A22" s="30">
         <v>14</v>
       </c>
-      <c r="B22" s="143"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="146"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="140"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
     </row>
     <row r="23" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="31">
+      <c r="A23" s="30">
         <v>15</v>
       </c>
-      <c r="B23" s="143"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="146"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="140"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="135"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
     </row>
     <row r="24" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="31">
+      <c r="A24" s="30">
         <v>16</v>
       </c>
-      <c r="B24" s="143"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="146"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="140"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="135"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
     </row>
     <row r="25" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="31">
+      <c r="A25" s="30">
         <v>17</v>
       </c>
-      <c r="B25" s="143"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="146"/>
-      <c r="E25" s="146"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="140"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
     </row>
     <row r="26" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="31">
+      <c r="A26" s="30">
         <v>18</v>
       </c>
-      <c r="B26" s="143"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="146"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="140"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="101"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
     </row>
     <row r="27" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="31">
+      <c r="A27" s="30">
         <v>19</v>
       </c>
-      <c r="B27" s="143"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="146"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="140"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="135"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="101"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
     </row>
     <row r="28" spans="1:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="32">
+      <c r="A28" s="31">
         <v>20</v>
       </c>
-      <c r="B28" s="144"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="141"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
+      <c r="B28" s="105"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="136"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
     </row>
     <row r="29" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
@@ -3204,297 +3210,321 @@
       <c r="F29" s="2"/>
     </row>
     <row r="31" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B31" s="18"/>
-      <c r="C31" s="125" t="s">
+      <c r="B31" s="17"/>
+      <c r="C31" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="D31" s="125"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="125"/>
-      <c r="G31" s="125"/>
-      <c r="H31" s="125"/>
-      <c r="I31" s="125"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="118"/>
+      <c r="G31" s="118"/>
+      <c r="H31" s="118"/>
+      <c r="I31" s="118"/>
     </row>
     <row r="32" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B32" s="22"/>
-      <c r="C32" s="125" t="s">
+      <c r="B32" s="21"/>
+      <c r="C32" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="125"/>
-      <c r="E32" s="125"/>
-      <c r="F32" s="125"/>
-      <c r="G32" s="125"/>
-      <c r="H32" s="125"/>
-      <c r="I32" s="125"/>
-      <c r="J32" s="23"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="118"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="118"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="22"/>
     </row>
     <row r="33" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="B33" s="18"/>
-      <c r="C33" s="125" t="s">
+      <c r="B33" s="17"/>
+      <c r="C33" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="125"/>
-      <c r="E33" s="125"/>
-      <c r="F33" s="125"/>
-      <c r="G33" s="125"/>
-      <c r="H33" s="125"/>
-      <c r="I33" s="125"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="118"/>
+      <c r="F33" s="118"/>
+      <c r="G33" s="118"/>
+      <c r="H33" s="118"/>
+      <c r="I33" s="118"/>
     </row>
     <row r="34" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="19"/>
-      <c r="C34" s="43" t="s">
+      <c r="B34" s="18"/>
+      <c r="C34" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
     </row>
     <row r="35" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="19"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
     </row>
     <row r="36" spans="1:12" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:12" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="137" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="51" t="s">
+      <c r="A37" s="119" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="126" t="s">
+      <c r="C37" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="128" t="s">
+      <c r="D37" s="123" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="28" t="s">
+      <c r="E37" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F37" s="130" t="s">
+      <c r="F37" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="G37" s="131"/>
-      <c r="H37" s="49" t="s">
+      <c r="G37" s="113"/>
+      <c r="H37" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="I37" s="28" t="s">
+      <c r="I37" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="J37" s="28" t="s">
+      <c r="J37" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="K37" s="114" t="s">
+      <c r="K37" s="125" t="s">
         <v>80</v>
       </c>
-      <c r="L37" s="28" t="s">
+      <c r="L37" s="27" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="17" customFormat="1" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="138"/>
-      <c r="B38" s="50" t="s">
+    <row r="38" spans="1:12" s="16" customFormat="1" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="120"/>
+      <c r="B38" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="127"/>
-      <c r="D38" s="129"/>
-      <c r="E38" s="47">
+      <c r="C38" s="122"/>
+      <c r="D38" s="124"/>
+      <c r="E38" s="46">
         <v>70</v>
       </c>
-      <c r="F38" s="48" t="s">
+      <c r="F38" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="G38" s="46" t="s">
+      <c r="G38" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="H38" s="50" t="s">
+      <c r="H38" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="I38" s="50" t="s">
+      <c r="I38" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="J38" s="50" t="s">
+      <c r="J38" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="K38" s="115"/>
-      <c r="L38" s="50" t="s">
+      <c r="K38" s="126"/>
+      <c r="L38" s="49" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="31">
+      <c r="A39" s="30">
         <v>1</v>
       </c>
-      <c r="B39" s="142"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="139"/>
-      <c r="L39" s="86"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="137"/>
+      <c r="F39" s="138"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="143">
+        <f>SUM(E39:F39)</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="40"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="100"/>
+      <c r="L39" s="80"/>
     </row>
     <row r="40" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="31">
+      <c r="A40" s="30">
         <v>2</v>
       </c>
-      <c r="B40" s="143"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="140"/>
-      <c r="L40" s="86"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="139"/>
+      <c r="F40" s="140"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="143"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="101"/>
+      <c r="L40" s="80"/>
     </row>
     <row r="41" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="31">
+      <c r="A41" s="30">
         <v>3</v>
       </c>
-      <c r="B41" s="143"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="88"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="140"/>
-      <c r="L41" s="86"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="139"/>
+      <c r="F41" s="140"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="143"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="101"/>
+      <c r="L41" s="80"/>
     </row>
     <row r="42" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="31">
+      <c r="A42" s="30">
         <v>4</v>
       </c>
-      <c r="B42" s="143"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="88"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="140"/>
-      <c r="L42" s="86"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="139"/>
+      <c r="F42" s="140"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="143">
+        <f t="shared" ref="H40:H48" si="0">SUM(E42:F42)</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="28"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="101"/>
+      <c r="L42" s="80"/>
     </row>
     <row r="43" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="31">
+      <c r="A43" s="30">
         <v>5</v>
       </c>
-      <c r="B43" s="143"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="88"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="140"/>
-      <c r="L43" s="86"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="139"/>
+      <c r="F43" s="140"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="143">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="28"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="101"/>
+      <c r="L43" s="80"/>
     </row>
     <row r="44" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="31">
+      <c r="A44" s="30">
         <v>6</v>
       </c>
-      <c r="B44" s="143"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="87"/>
-      <c r="F44" s="88"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="140"/>
-      <c r="L44" s="86"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="139"/>
+      <c r="F44" s="140"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="143">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="28"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="101"/>
+      <c r="L44" s="80"/>
     </row>
     <row r="45" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="31">
+      <c r="A45" s="30">
         <v>7</v>
       </c>
-      <c r="B45" s="143"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="87"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="140"/>
-      <c r="L45" s="86"/>
+      <c r="B45" s="104"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="139"/>
+      <c r="F45" s="140"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="143">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="28"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="101"/>
+      <c r="L45" s="80"/>
     </row>
     <row r="46" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="31">
+      <c r="A46" s="30">
         <v>8</v>
       </c>
-      <c r="B46" s="143"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="87"/>
-      <c r="F46" s="88"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="140"/>
-      <c r="L46" s="86"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="139"/>
+      <c r="F46" s="140"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="143">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="28"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="101"/>
+      <c r="L46" s="80"/>
     </row>
     <row r="47" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31">
+      <c r="A47" s="30">
         <v>9</v>
       </c>
-      <c r="B47" s="143"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="88"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="140"/>
-      <c r="L47" s="86"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="139"/>
+      <c r="F47" s="140"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="143">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="28"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="101"/>
+      <c r="L47" s="80"/>
     </row>
     <row r="48" spans="1:12" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="32">
+      <c r="A48" s="31">
         <v>10</v>
       </c>
-      <c r="B48" s="144"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="89"/>
-      <c r="F48" s="90"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="141"/>
-      <c r="L48" s="91"/>
+      <c r="B48" s="105"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="141"/>
+      <c r="F48" s="142"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="144">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="29"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="102"/>
+      <c r="L48" s="81"/>
     </row>
     <row r="49" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="92"/>
+      <c r="E49" s="82"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
@@ -3503,48 +3533,55 @@
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="92"/>
+      <c r="E50" s="82"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
     <row r="51" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="E51" s="93"/>
-      <c r="F51" s="94"/>
+      <c r="E51" s="83"/>
+      <c r="F51" s="84"/>
       <c r="G51" s="2"/>
     </row>
     <row r="52" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="H52" s="95" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="E52" s="145">
+        <f>SUM(E39:E48)</f>
+        <v>0</v>
+      </c>
+      <c r="F52" s="145">
+        <f>SUM(F39:F48)</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="146">
+        <f>SUM(H39:H48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="H53" s="96" t="s">
-        <v>4</v>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="H53" s="147">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B54" s="2"/>
@@ -3552,12 +3589,13 @@
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
-      <c r="H54" s="97" t="s">
-        <v>4</v>
+      <c r="H54" s="148">
+        <f>SUM(H52:H53)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B55" s="2"/>
@@ -3565,12 +3603,12 @@
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
-      <c r="H55" s="97" t="s">
+      <c r="H55" s="148" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B56" s="2"/>
@@ -3578,197 +3616,197 @@
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
-      <c r="H56" s="98" t="s">
+      <c r="H56" s="146" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
+      <c r="A57" s="4"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
-      <c r="G57" s="40"/>
+      <c r="G57" s="39"/>
     </row>
     <row r="58" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="119" t="s">
+      <c r="A58" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="B58" s="119"/>
-      <c r="C58" s="119"/>
-      <c r="D58" s="119"/>
-      <c r="E58" s="119"/>
-      <c r="F58" s="119"/>
-      <c r="G58" s="119"/>
-      <c r="H58" s="119"/>
-      <c r="I58" s="119"/>
-      <c r="J58" s="119"/>
+      <c r="B58" s="111"/>
+      <c r="C58" s="111"/>
+      <c r="D58" s="111"/>
+      <c r="E58" s="111"/>
+      <c r="F58" s="111"/>
+      <c r="G58" s="111"/>
+      <c r="H58" s="111"/>
+      <c r="I58" s="111"/>
+      <c r="J58" s="111"/>
     </row>
     <row r="59" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-    </row>
-    <row r="60" spans="1:11" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="120" t="s">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+    </row>
+    <row r="60" spans="1:11" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="B60" s="120"/>
-      <c r="C60" s="120"/>
-      <c r="D60" s="120"/>
-      <c r="E60" s="5" t="s">
+      <c r="B60" s="129"/>
+      <c r="C60" s="129"/>
+      <c r="D60" s="129"/>
+      <c r="E60" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F60" s="5"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-    </row>
-    <row r="61" spans="1:11" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+      <c r="F60" s="4"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+    </row>
+    <row r="61" spans="1:11" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="F61" s="5" t="s">
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="F61" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J61" s="5" t="s">
+      <c r="J61" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:11" s="21" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="117" t="s">
+    <row r="63" spans="1:11" s="20" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="127" t="s">
         <v>43</v>
       </c>
-      <c r="B63" s="117"/>
-      <c r="C63" s="117"/>
-      <c r="D63" s="117"/>
-      <c r="E63" s="117"/>
-      <c r="F63" s="117"/>
-      <c r="G63" s="117"/>
-      <c r="H63" s="117"/>
-      <c r="I63" s="117"/>
-      <c r="J63" s="117"/>
-      <c r="K63" s="117"/>
+      <c r="B63" s="127"/>
+      <c r="C63" s="127"/>
+      <c r="D63" s="127"/>
+      <c r="E63" s="127"/>
+      <c r="F63" s="127"/>
+      <c r="G63" s="127"/>
+      <c r="H63" s="127"/>
+      <c r="I63" s="127"/>
+      <c r="J63" s="127"/>
+      <c r="K63" s="127"/>
     </row>
     <row r="64" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="119" t="s">
+      <c r="A64" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="B64" s="119"/>
-      <c r="C64" s="119"/>
-      <c r="D64" s="119"/>
-      <c r="E64" s="119"/>
-      <c r="F64" s="119"/>
-      <c r="G64" s="119"/>
+      <c r="B64" s="111"/>
+      <c r="C64" s="111"/>
+      <c r="D64" s="111"/>
+      <c r="E64" s="111"/>
+      <c r="F64" s="111"/>
+      <c r="G64" s="111"/>
     </row>
     <row r="65" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="116" t="s">
+      <c r="A65" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="B65" s="116"/>
-      <c r="C65" s="116"/>
-      <c r="D65" s="116"/>
-      <c r="E65" s="116"/>
-      <c r="F65" s="116"/>
-      <c r="G65" s="116"/>
-      <c r="H65" s="116"/>
-      <c r="I65" s="116"/>
-      <c r="J65" s="116"/>
-      <c r="K65" s="116"/>
-    </row>
-    <row r="66" spans="1:12" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="118" t="s">
+      <c r="B65" s="110"/>
+      <c r="C65" s="110"/>
+      <c r="D65" s="110"/>
+      <c r="E65" s="110"/>
+      <c r="F65" s="110"/>
+      <c r="G65" s="110"/>
+      <c r="H65" s="110"/>
+      <c r="I65" s="110"/>
+      <c r="J65" s="110"/>
+      <c r="K65" s="110"/>
+    </row>
+    <row r="66" spans="1:12" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="B66" s="118"/>
-      <c r="C66" s="118"/>
-      <c r="D66" s="118"/>
-      <c r="E66" s="118"/>
-      <c r="F66" s="118"/>
-      <c r="G66" s="118"/>
-      <c r="H66" s="118"/>
-      <c r="I66" s="118"/>
-      <c r="J66" s="118"/>
-      <c r="K66" s="118"/>
-    </row>
-    <row r="67" spans="1:12" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+      <c r="B66" s="128"/>
+      <c r="C66" s="128"/>
+      <c r="D66" s="128"/>
+      <c r="E66" s="128"/>
+      <c r="F66" s="128"/>
+      <c r="G66" s="128"/>
+      <c r="H66" s="128"/>
+      <c r="I66" s="128"/>
+      <c r="J66" s="128"/>
+      <c r="K66" s="128"/>
+    </row>
+    <row r="67" spans="1:12" s="5" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
     </row>
     <row r="68" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
     </row>
     <row r="69" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-    </row>
-    <row r="70" spans="1:12" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="121" t="s">
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+    </row>
+    <row r="70" spans="1:12" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="B70" s="121"/>
-      <c r="C70" s="121"/>
-      <c r="D70" s="121"/>
-      <c r="E70" s="121"/>
-      <c r="F70" s="121"/>
-      <c r="G70" s="121"/>
-      <c r="H70" s="121"/>
-      <c r="I70" s="121"/>
+      <c r="B70" s="130"/>
+      <c r="C70" s="130"/>
+      <c r="D70" s="130"/>
+      <c r="E70" s="130"/>
+      <c r="F70" s="130"/>
+      <c r="G70" s="130"/>
+      <c r="H70" s="130"/>
+      <c r="I70" s="130"/>
     </row>
     <row r="71" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="123" t="s">
+      <c r="A71" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="B71" s="123"/>
-      <c r="C71" s="123"/>
-      <c r="D71" s="123"/>
-      <c r="E71" s="123"/>
-      <c r="F71" s="123"/>
-      <c r="G71" s="123"/>
-      <c r="H71" s="123"/>
-      <c r="I71" s="123"/>
+      <c r="B71" s="132"/>
+      <c r="C71" s="132"/>
+      <c r="D71" s="132"/>
+      <c r="E71" s="132"/>
+      <c r="F71" s="132"/>
+      <c r="G71" s="132"/>
+      <c r="H71" s="132"/>
+      <c r="I71" s="132"/>
     </row>
     <row r="72" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
@@ -3781,504 +3819,487 @@
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:12" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="119" t="s">
+    <row r="73" spans="1:12" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="111" t="s">
         <v>93</v>
       </c>
-      <c r="B73" s="119"/>
-      <c r="C73" s="119"/>
-      <c r="D73" s="119"/>
-      <c r="E73" s="119"/>
-      <c r="F73" s="119"/>
-      <c r="G73" s="119"/>
-      <c r="H73" s="119"/>
-      <c r="I73" s="119"/>
+      <c r="B73" s="111"/>
+      <c r="C73" s="111"/>
+      <c r="D73" s="111"/>
+      <c r="E73" s="111"/>
+      <c r="F73" s="111"/>
+      <c r="G73" s="111"/>
+      <c r="H73" s="111"/>
+      <c r="I73" s="111"/>
     </row>
     <row r="74" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="132" t="s">
+      <c r="A76" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="B76" s="132"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
+      <c r="B76" s="109"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
     </row>
     <row r="77" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="8"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
+      <c r="A77" s="7"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
     </row>
     <row r="78" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="116" t="s">
+      <c r="A78" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="B78" s="116"/>
-      <c r="C78" s="116"/>
-      <c r="D78" s="116"/>
-      <c r="E78" s="116"/>
-      <c r="F78" s="116"/>
-      <c r="G78" s="116"/>
-      <c r="H78" s="116"/>
+      <c r="B78" s="110"/>
+      <c r="C78" s="110"/>
+      <c r="D78" s="110"/>
+      <c r="E78" s="110"/>
+      <c r="F78" s="110"/>
+      <c r="G78" s="110"/>
+      <c r="H78" s="110"/>
     </row>
     <row r="79" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="116" t="s">
+      <c r="A79" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="B79" s="116"/>
-      <c r="C79" s="116"/>
-      <c r="D79" s="116"/>
-      <c r="E79" s="116"/>
-      <c r="F79" s="116"/>
-      <c r="G79" s="116"/>
-      <c r="H79" s="116"/>
-      <c r="I79" s="116"/>
-      <c r="J79" s="116"/>
+      <c r="B79" s="110"/>
+      <c r="C79" s="110"/>
+      <c r="D79" s="110"/>
+      <c r="E79" s="110"/>
+      <c r="F79" s="110"/>
+      <c r="G79" s="110"/>
+      <c r="H79" s="110"/>
+      <c r="I79" s="110"/>
+      <c r="J79" s="110"/>
     </row>
     <row r="80" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="122" t="s">
+      <c r="A80" s="131" t="s">
         <v>89</v>
       </c>
-      <c r="B80" s="122"/>
-      <c r="C80" s="122"/>
-      <c r="D80" s="122"/>
-      <c r="E80" s="122"/>
-      <c r="F80" s="122"/>
-      <c r="G80" s="122"/>
-      <c r="H80" s="122"/>
-      <c r="I80" s="122"/>
-      <c r="J80" s="122"/>
-      <c r="K80" s="122"/>
-      <c r="L80" s="122"/>
+      <c r="B80" s="131"/>
+      <c r="C80" s="131"/>
+      <c r="D80" s="131"/>
+      <c r="E80" s="131"/>
+      <c r="F80" s="131"/>
+      <c r="G80" s="131"/>
+      <c r="H80" s="131"/>
+      <c r="I80" s="131"/>
+      <c r="J80" s="131"/>
+      <c r="K80" s="131"/>
+      <c r="L80" s="131"/>
     </row>
     <row r="81" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="122" t="s">
+      <c r="A81" s="131" t="s">
         <v>90</v>
       </c>
-      <c r="B81" s="122"/>
-      <c r="C81" s="122"/>
-      <c r="D81" s="122"/>
-      <c r="E81" s="122"/>
-      <c r="F81" s="122"/>
-      <c r="G81" s="122"/>
-      <c r="H81" s="122"/>
-      <c r="I81" s="122"/>
-      <c r="J81" s="82"/>
+      <c r="B81" s="131"/>
+      <c r="C81" s="131"/>
+      <c r="D81" s="131"/>
+      <c r="E81" s="131"/>
+      <c r="F81" s="131"/>
+      <c r="G81" s="131"/>
+      <c r="H81" s="131"/>
+      <c r="I81" s="131"/>
+      <c r="J81" s="78"/>
     </row>
     <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="110" t="s">
+      <c r="A82" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="B82" s="111"/>
-      <c r="C82" s="111"/>
-      <c r="D82" s="112"/>
-      <c r="E82" s="112"/>
-      <c r="F82" s="112"/>
-      <c r="G82" s="113"/>
-      <c r="H82" s="113"/>
-      <c r="I82" s="113"/>
-      <c r="J82" s="113"/>
+      <c r="B82" s="97"/>
+      <c r="C82" s="97"/>
+      <c r="D82" s="98"/>
+      <c r="E82" s="98"/>
+      <c r="F82" s="98"/>
+      <c r="G82" s="99"/>
+      <c r="H82" s="99"/>
+      <c r="I82" s="99"/>
+      <c r="J82" s="99"/>
     </row>
     <row r="83" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="110" t="s">
+      <c r="A83" s="96" t="s">
         <v>92</v>
       </c>
-      <c r="B83" s="111"/>
-      <c r="C83" s="111"/>
-      <c r="D83" s="112"/>
-      <c r="E83" s="112"/>
-      <c r="F83" s="112"/>
-      <c r="G83" s="113"/>
-      <c r="H83" s="113"/>
-      <c r="I83" s="113"/>
-      <c r="J83" s="113"/>
+      <c r="B83" s="97"/>
+      <c r="C83" s="97"/>
+      <c r="D83" s="98"/>
+      <c r="E83" s="98"/>
+      <c r="F83" s="98"/>
+      <c r="G83" s="99"/>
+      <c r="H83" s="99"/>
+      <c r="I83" s="99"/>
+      <c r="J83" s="99"/>
     </row>
     <row r="84" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="124" t="s">
+      <c r="A84" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="B84" s="124"/>
-      <c r="C84" s="124"/>
-      <c r="D84" s="124"/>
-      <c r="E84" s="124"/>
-      <c r="F84" s="124"/>
-      <c r="G84" s="124"/>
-      <c r="H84" s="124"/>
-      <c r="I84" s="124"/>
-      <c r="J84" s="124"/>
-      <c r="K84" s="124"/>
+      <c r="B84" s="133"/>
+      <c r="C84" s="133"/>
+      <c r="D84" s="133"/>
+      <c r="E84" s="133"/>
+      <c r="F84" s="133"/>
+      <c r="G84" s="133"/>
+      <c r="H84" s="133"/>
+      <c r="I84" s="133"/>
+      <c r="J84" s="133"/>
+      <c r="K84" s="133"/>
     </row>
     <row r="85" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="119" t="s">
+      <c r="A85" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="B85" s="119"/>
-      <c r="C85" s="119"/>
-      <c r="D85" s="119"/>
-      <c r="E85" s="119"/>
-      <c r="F85" s="119"/>
-      <c r="G85" s="119"/>
-      <c r="H85" s="119"/>
-      <c r="I85" s="119"/>
-      <c r="J85" s="119"/>
+      <c r="B85" s="111"/>
+      <c r="C85" s="111"/>
+      <c r="D85" s="111"/>
+      <c r="E85" s="111"/>
+      <c r="F85" s="111"/>
+      <c r="G85" s="111"/>
+      <c r="H85" s="111"/>
+      <c r="I85" s="111"/>
+      <c r="J85" s="111"/>
     </row>
     <row r="86" spans="1:12" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="49" t="s">
+      <c r="A86" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B86" s="51" t="s">
+      <c r="B86" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C86" s="28" t="s">
+      <c r="C86" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D86" s="28" t="s">
+      <c r="D86" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="E86" s="28" t="s">
+      <c r="E86" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F86" s="130" t="s">
+      <c r="F86" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="G86" s="131"/>
-      <c r="H86" s="74" t="s">
+      <c r="G86" s="113"/>
+      <c r="H86" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="I86" s="28" t="s">
+      <c r="I86" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="J86" s="76" t="s">
+      <c r="J86" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="K86" s="28" t="s">
+      <c r="K86" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="L86" s="28" t="s">
+      <c r="L86" s="27" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="1:12" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="31">
+    <row r="87" spans="1:12" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="30">
         <v>1</v>
       </c>
-      <c r="B87" s="52" t="s">
+      <c r="B87" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="C87" s="54" t="s">
+      <c r="C87" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="D87" s="54" t="s">
+      <c r="D87" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="E87" s="56">
+      <c r="E87" s="55">
         <v>70</v>
       </c>
-      <c r="F87" s="59">
+      <c r="F87" s="58">
         <v>150</v>
       </c>
-      <c r="G87" s="60" t="s">
+      <c r="G87" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="H87" s="77">
+      <c r="H87" s="73">
         <f>SUM(E87:F87)</f>
         <v>220</v>
       </c>
-      <c r="I87" s="78" t="s">
+      <c r="I87" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="K87" s="79"/>
-      <c r="L87" s="79"/>
-    </row>
-    <row r="88" spans="1:12" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="31">
+      <c r="K87" s="75"/>
+      <c r="L87" s="75"/>
+    </row>
+    <row r="88" spans="1:12" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="30">
         <v>2</v>
       </c>
-      <c r="B88" s="52" t="s">
+      <c r="B88" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="C88" s="54">
+      <c r="C88" s="53">
         <v>78</v>
       </c>
-      <c r="D88" s="54" t="s">
+      <c r="D88" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="E88" s="56">
+      <c r="E88" s="55">
         <v>70</v>
       </c>
-      <c r="F88" s="59">
+      <c r="F88" s="58">
         <v>150</v>
       </c>
-      <c r="G88" s="60" t="s">
+      <c r="G88" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="H88" s="77">
+      <c r="H88" s="73">
         <f>SUM(E88:F88)</f>
         <v>220</v>
       </c>
-      <c r="I88" s="78"/>
-      <c r="J88" s="133" t="s">
+      <c r="I88" s="74"/>
+      <c r="J88" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="K88" s="79" t="s">
+      <c r="K88" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="L88" s="99" t="s">
+      <c r="L88" s="85" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:12" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="31">
+    <row r="89" spans="1:12" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="30">
         <v>3</v>
       </c>
-      <c r="B89" s="52" t="s">
+      <c r="B89" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C89" s="54">
+      <c r="C89" s="53">
         <v>75</v>
       </c>
-      <c r="D89" s="54" t="s">
+      <c r="D89" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="E89" s="56">
+      <c r="E89" s="55">
         <v>70</v>
       </c>
-      <c r="F89" s="59">
+      <c r="F89" s="58">
         <v>150</v>
       </c>
-      <c r="G89" s="60" t="s">
+      <c r="G89" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="H89" s="77">
+      <c r="H89" s="73">
         <f>SUM(E89:F89)</f>
         <v>220</v>
       </c>
-      <c r="I89" s="100"/>
-      <c r="J89" s="134"/>
-      <c r="K89" s="79" t="s">
+      <c r="I89" s="86"/>
+      <c r="J89" s="115"/>
+      <c r="K89" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="L89" s="99" t="s">
+      <c r="L89" s="85" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="1:12" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="31">
+    <row r="90" spans="1:12" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="30">
         <v>4</v>
       </c>
-      <c r="B90" s="52" t="s">
+      <c r="B90" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C90" s="54" t="s">
+      <c r="C90" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="D90" s="54" t="s">
+      <c r="D90" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="E90" s="57"/>
-      <c r="F90" s="59">
+      <c r="E90" s="56"/>
+      <c r="F90" s="58">
         <v>150</v>
       </c>
-      <c r="G90" s="60" t="s">
+      <c r="G90" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="H90" s="77">
-        <f t="shared" ref="H90:H91" si="0">SUM(E90:F90)</f>
+      <c r="H90" s="73">
+        <f t="shared" ref="H90:H91" si="1">SUM(E90:F90)</f>
         <v>150</v>
       </c>
-      <c r="I90" s="101"/>
-      <c r="J90" s="135" t="s">
+      <c r="I90" s="87"/>
+      <c r="J90" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="K90" s="79" t="s">
+      <c r="K90" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="L90" s="99" t="s">
+      <c r="L90" s="85" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:12" s="6" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="32">
+    <row r="91" spans="1:12" s="5" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="31">
         <v>5</v>
       </c>
-      <c r="B91" s="53" t="s">
+      <c r="B91" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C91" s="55" t="s">
+      <c r="C91" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D91" s="55" t="s">
+      <c r="D91" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="E91" s="58"/>
-      <c r="F91" s="61">
+      <c r="E91" s="57"/>
+      <c r="F91" s="60">
         <v>150</v>
       </c>
-      <c r="G91" s="62" t="s">
+      <c r="G91" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="H91" s="80">
-        <f t="shared" si="0"/>
+      <c r="H91" s="76">
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="I91" s="102"/>
-      <c r="J91" s="136"/>
-      <c r="K91" s="81" t="s">
+      <c r="I91" s="88"/>
+      <c r="J91" s="117"/>
+      <c r="K91" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="L91" s="103" t="s">
+      <c r="L91" s="89" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:12" s="6" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="17"/>
-      <c r="B92" s="75"/>
-      <c r="C92" s="104"/>
-      <c r="D92" s="104"/>
-      <c r="E92" s="105"/>
-      <c r="F92" s="106"/>
-      <c r="G92" s="104"/>
-      <c r="H92" s="107"/>
-      <c r="I92" s="5"/>
-      <c r="J92" s="108"/>
-      <c r="K92" s="109"/>
+    <row r="92" spans="1:12" s="5" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="16"/>
+      <c r="B92" s="71"/>
+      <c r="C92" s="90"/>
+      <c r="D92" s="90"/>
+      <c r="E92" s="91"/>
+      <c r="F92" s="92"/>
+      <c r="G92" s="90"/>
+      <c r="H92" s="93"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="94"/>
+      <c r="K92" s="95"/>
       <c r="L92"/>
     </row>
     <row r="93" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="13" t="s">
+      <c r="A93" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="12"/>
-      <c r="E93" s="27">
+      <c r="B93" s="13"/>
+      <c r="C93" s="11"/>
+      <c r="E93" s="26">
         <v>3</v>
       </c>
-      <c r="F93" s="26">
+      <c r="F93" s="25">
         <v>5</v>
       </c>
-      <c r="G93" s="15"/>
+      <c r="G93" s="14"/>
     </row>
     <row r="94" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="9" t="s">
+      <c r="A94" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B94" s="12"/>
-      <c r="C94" s="12"/>
-      <c r="E94" s="11">
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="E94" s="10">
         <f>SUM(E87:E91)</f>
         <v>210</v>
       </c>
-      <c r="F94" s="11">
+      <c r="F94" s="10">
         <f>SUM(F87:F91)</f>
         <v>750</v>
       </c>
-      <c r="H94" s="11">
+      <c r="H94" s="10">
         <f>SUM(E94:F94)</f>
         <v>960</v>
       </c>
-      <c r="J94" s="42"/>
+      <c r="J94" s="41"/>
     </row>
     <row r="95" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="116" t="s">
+      <c r="A95" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="B95" s="116"/>
-      <c r="C95" s="13" t="s">
+      <c r="B95" s="110"/>
+      <c r="C95" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D95" s="16"/>
-      <c r="E95" s="16"/>
-      <c r="F95" s="12"/>
-      <c r="H95" s="11">
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="11"/>
+      <c r="H95" s="10">
         <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="13" t="s">
+      <c r="A96" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B96" s="12"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
-      <c r="H96" s="11">
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="H96" s="10">
         <f>SUM(H94:H95)</f>
         <v>1060</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="116" t="s">
+      <c r="A97" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="B97" s="116"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
-      <c r="H97" s="11">
+      <c r="B97" s="110"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="H97" s="10">
         <f>H96</f>
         <v>1060</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="116" t="s">
+      <c r="A98" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="B98" s="116"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
-      <c r="H98" s="11">
+      <c r="B98" s="110"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="H98" s="10">
         <f>H97</f>
         <v>1060</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A85:J85"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="J88:J89"/>
-    <mergeCell ref="J90:J91"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="C33:I33"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="F37:G37"/>
     <mergeCell ref="K37:K38"/>
     <mergeCell ref="A98:B98"/>
     <mergeCell ref="A63:K63"/>
@@ -4295,6 +4316,23 @@
     <mergeCell ref="A78:H78"/>
     <mergeCell ref="A79:J79"/>
     <mergeCell ref="A84:K84"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="C33:I33"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A85:J85"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="J88:J89"/>
+    <mergeCell ref="J90:J91"/>
+    <mergeCell ref="A95:B95"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K89" r:id="rId1" xr:uid="{920953C2-2DC7-49D6-BF4D-8B24A6E7C0A8}"/>

--- a/GhiDanh/PhieuGhiDanh-VISA.xlsx
+++ b/GhiDanh/PhieuGhiDanh-VISA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gia Long\Site Web\Textes\2024\2023-08-18\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DHGLPX 2024\THONG TIN GHI DANH 2024\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1091D9D-EBA5-47A8-899B-3603CCA6FF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872A3448-EF84-433B-A118-DA30DC7F8791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="442" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="442" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phiếu ghi danh" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
   <si>
     <t>PHIẾU GHI DANH</t>
   </si>
@@ -148,13 +148,7 @@
     <t xml:space="preserve">       Association Gia Long - CREDIT AGRICOLE ILE DE France - IBAN : FR76 1820 6002 4165 0616 9839 027 - BIC  : AGRIFRPP882</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t xml:space="preserve">Xin xem mẫu dưới đây để điền phiếu ghi danh : </t>
-  </si>
-  <si>
-    <t>Du lịch đường bộ 19/9 au 22/9</t>
   </si>
   <si>
     <r>
@@ -179,26 +173,6 @@
   </si>
   <si>
     <t>Bảo trợ quỹ tổ chức (tùy tâm) (*)</t>
-  </si>
-  <si>
-    <t>5/ Địa chỉ gởi phiếu ghi danh :</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Euros €
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(4)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -334,14 +308,6 @@
 Hộ chiếu </t>
   </si>
   <si>
-    <t>Du thuyền
-19/9 au 27/9</t>
-  </si>
-  <si>
-    <t>E-mail liên lạc nếu chọn du thuyền
-(3)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Quốc gia
  cư ngụ </t>
   </si>
@@ -355,28 +321,10 @@
     <t>Nguyễn thị A</t>
   </si>
   <si>
-    <t>1 Balcony</t>
-  </si>
-  <si>
-    <t>a.bb@gmail.com</t>
-  </si>
-  <si>
     <t>Canada</t>
   </si>
   <si>
-    <t>b.aa@gmail.com</t>
-  </si>
-  <si>
     <t>Australie</t>
-  </si>
-  <si>
-    <t>1 Inside</t>
-  </si>
-  <si>
-    <t>c.cc@yahoo.com</t>
-  </si>
-  <si>
-    <t>g.gg@yahoo.com</t>
   </si>
   <si>
     <t>(Dành cho Quý Giáo Sư, Nhân viên hành chánh trường, cựu nữ sinh Gia Long hải ngoại và thân hữu)</t>
@@ -384,132 +332,6 @@
   <si>
     <t>Quốc gia
  cư ngụ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E-mail liên lạc nếu chọn du thuyền (3)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Di chuyển từ Paris đến chỗ du thuyền do hội tổ chức
-đi 19/9, về 27/9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xem trang du lịch và đánh dấu nếu tham dự (3)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xem trang du lịch và cho biết loại phòng chọn nếu tham dự (3)
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Xin xem chi tiết trên trang du lịch và đánh dấu nếu tham dự </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(3)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Du lich : Chỉ được chọn  1 trong 2 du lịch vì cả 2 khởi hành cùng 1 ngày. </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Du lich đường bộ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> khởi hành ngay tại Paris. Ngược lại, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>du thuyền</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> phải di chuyển từ Paris xuống cảng du thuyền</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">     Nếu chọn </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>du thuyền</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> thì xin cho biết loại phòng chọn và e-mail để hãng du lịch liên lạc thẳng để ghi danh và trả tiền. Tên người ở chung phòng nên để sát nhau để hãng du lịch dễ dàng sắp xếp</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">     Xin cho biết có tham dự di chuyển từ Paris đến chỗ du thuyền do hội tổ chức hay không (xem hướng dẫn dưới đây)</t>
   </si>
   <si>
     <t>Dành cho Quý Giáo Sư, Nhân viên hành chánh trường, cựu nữ sinh Gia Long VN xin Visa (Chiếu khán)</t>
@@ -569,6 +391,29 @@
   </si>
   <si>
     <t xml:space="preserve">* Danh sách ghi danh  sẽ được xếp theo năm ra trường và được đăng trên site web của DH </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Địa chỉ gởi phiếu ghi danh :</t>
+    </r>
   </si>
   <si>
     <r>
@@ -617,7 +462,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">   ghidanhlienlacdhparis@gmail.com  </t>
+      <t xml:space="preserve">   ghidanhlienlacdhparis@gmail.com </t>
     </r>
     <r>
       <rPr>
@@ -664,22 +509,58 @@
     </r>
   </si>
   <si>
-    <t>Số
-thứ tự</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Để tránh nhiều phí tổn chuyển ngânn xin ghi tên theo nhóm và trả tiền qua REMILTY, WISE hay PAYPAL. GL VN có thể nhờ các bạn ở Âu Châu ứng trước để tránh phí tổn
+Nếu trả thẳng bằng cách chuyển ngân thẳng vào ngân hàng cùa hội (IBAN dưới đây) mà không qua các cách nêu trên, xin trả thêm cho hội 18,50€ thuế chuyển ngân </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Euros €
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(3-6)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0\ &quot;€&quot;;\-#,##0\ &quot;€&quot;;#"/>
-    <numFmt numFmtId="168" formatCode="#,##0\ &quot;€&quot;;\-#,##0\ &quot;€&quot;;#\ &quot;€&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0\ _€;\-#,##0\ _€;#"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -747,14 +628,6 @@
       <u/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -831,7 +704,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1093,19 +966,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1184,9 +1044,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1197,9 +1055,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -1208,22 +1064,7 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1231,43 +1072,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -1279,34 +1085,23 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1388,6 +1183,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1434,9 +1231,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1473,129 +1274,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1603,121 +1375,74 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1744,7 +1469,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1224000</xdr:colOff>
+      <xdr:colOff>1004925</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>107475</xdr:rowOff>
     </xdr:to>
@@ -1948,13 +1673,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2001,13 +1726,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2054,13 +1779,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2107,13 +1832,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2160,13 +1885,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2213,13 +1938,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2261,6 +1986,56 @@
       </xdr:style>
     </xdr:cxnSp>
     <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Image 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD98C1D0-99FA-4517-8C2A-39E2DC891FA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="390526" y="76201"/>
+          <a:ext cx="1238249" cy="1057274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2425,13 +2200,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2472,56 +2247,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1233525</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>69375</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ECCAEB8-FB25-4606-989B-4DB71838EADA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0">
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="447675" y="8943975"/>
-          <a:ext cx="1224000" cy="1260000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2790,15 +2515,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:L98"/>
+  <dimension ref="A2:L96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
@@ -2806,400 +2533,400 @@
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
     <col min="10" max="10" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
     <col min="12" max="12" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="17"/>
-      <c r="C2" s="118" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
     </row>
     <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B3" s="21"/>
-      <c r="C3" s="118" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="22"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="17"/>
-      <c r="C4" s="118" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
     </row>
     <row r="5" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="18"/>
-      <c r="C5" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
     </row>
     <row r="6" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="18"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:11" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:11" s="62" customFormat="1" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="68" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="64" t="s">
+    <row r="8" spans="1:11" s="67" customFormat="1" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="66" t="s">
+      <c r="I8" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="J8" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="67" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" s="66" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" s="66" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="9" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63">
+      <c r="A9" s="71">
         <v>1</v>
       </c>
-      <c r="B9" s="103"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
     </row>
     <row r="10" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30">
+      <c r="A10" s="31">
         <v>2</v>
       </c>
-      <c r="B10" s="104"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
     </row>
     <row r="11" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30">
+      <c r="A11" s="31">
         <v>3</v>
       </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
     </row>
     <row r="12" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30">
+      <c r="A12" s="31">
         <v>4</v>
       </c>
-      <c r="B12" s="104"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
     </row>
     <row r="13" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
+      <c r="A13" s="31">
         <v>5</v>
       </c>
-      <c r="B13" s="104"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
     </row>
     <row r="14" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
+      <c r="A14" s="31">
         <v>6</v>
       </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
     </row>
     <row r="15" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30">
+      <c r="A15" s="31">
         <v>7</v>
       </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
     </row>
     <row r="16" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30">
+      <c r="A16" s="31">
         <v>8</v>
       </c>
-      <c r="B16" s="104"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="135"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
     </row>
     <row r="17" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30">
+      <c r="A17" s="31">
         <v>9</v>
       </c>
-      <c r="B17" s="104"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
     </row>
     <row r="18" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30">
+      <c r="A18" s="31">
         <v>10</v>
       </c>
-      <c r="B18" s="104"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="101"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
     </row>
     <row r="19" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30">
+      <c r="A19" s="31">
         <v>11</v>
       </c>
-      <c r="B19" s="104"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
     </row>
     <row r="20" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30">
+      <c r="A20" s="31">
         <v>12</v>
       </c>
-      <c r="B20" s="104"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="135"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="101"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
     </row>
     <row r="21" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30">
+      <c r="A21" s="31">
         <v>13</v>
       </c>
-      <c r="B21" s="104"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="135"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
     </row>
     <row r="22" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30">
+      <c r="A22" s="31">
         <v>14</v>
       </c>
-      <c r="B22" s="104"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
     </row>
     <row r="23" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30">
+      <c r="A23" s="31">
         <v>15</v>
       </c>
-      <c r="B23" s="104"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="135"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
     </row>
     <row r="24" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="30">
+      <c r="A24" s="31">
         <v>16</v>
       </c>
-      <c r="B24" s="104"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="135"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
     </row>
     <row r="25" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="30">
+      <c r="A25" s="31">
         <v>17</v>
       </c>
-      <c r="B25" s="104"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="135"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="101"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
     </row>
     <row r="26" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30">
+      <c r="A26" s="31">
         <v>18</v>
       </c>
-      <c r="B26" s="104"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="135"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="101"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
     </row>
     <row r="27" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30">
+      <c r="A27" s="31">
         <v>19</v>
       </c>
-      <c r="B27" s="104"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="101"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
     </row>
     <row r="28" spans="1:11" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="31">
+      <c r="A28" s="32">
         <v>20</v>
       </c>
-      <c r="B28" s="105"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="136"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
     </row>
     <row r="29" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
@@ -3210,378 +2937,310 @@
       <c r="F29" s="2"/>
     </row>
     <row r="31" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B31" s="17"/>
-      <c r="C31" s="118" t="s">
+      <c r="B31" s="18"/>
+      <c r="C31" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="D31" s="118"/>
-      <c r="E31" s="118"/>
-      <c r="F31" s="118"/>
-      <c r="G31" s="118"/>
-      <c r="H31" s="118"/>
-      <c r="I31" s="118"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="107"/>
     </row>
     <row r="32" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B32" s="21"/>
-      <c r="C32" s="118" t="s">
+      <c r="B32" s="22"/>
+      <c r="C32" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="118"/>
-      <c r="E32" s="118"/>
-      <c r="F32" s="118"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="118"/>
-      <c r="I32" s="118"/>
-      <c r="J32" s="22"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="107"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="107"/>
+      <c r="I32" s="107"/>
+      <c r="J32" s="23"/>
     </row>
     <row r="33" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="B33" s="17"/>
-      <c r="C33" s="118" t="s">
+      <c r="B33" s="18"/>
+      <c r="C33" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="118"/>
-      <c r="E33" s="118"/>
-      <c r="F33" s="118"/>
-      <c r="G33" s="118"/>
-      <c r="H33" s="118"/>
-      <c r="I33" s="118"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="107"/>
+      <c r="H33" s="107"/>
+      <c r="I33" s="107"/>
     </row>
     <row r="34" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="18"/>
-      <c r="C34" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
     </row>
     <row r="35" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="18"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:12" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:12" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="119" t="s">
-        <v>94</v>
-      </c>
-      <c r="B37" s="50" t="s">
+      <c r="A37" s="108" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="121" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" s="123" t="s">
-        <v>79</v>
-      </c>
-      <c r="E37" s="27" t="s">
+      <c r="C37" s="110" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="112" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F37" s="112" t="s">
+      <c r="F37" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="G37" s="113"/>
-      <c r="H37" s="48" t="s">
+      <c r="G37" s="106"/>
+      <c r="H37" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="I37" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="J37" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="K37" s="125" t="s">
-        <v>80</v>
-      </c>
-      <c r="L37" s="27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" s="16" customFormat="1" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="120"/>
-      <c r="B38" s="49" t="s">
+    </row>
+    <row r="38" spans="1:12" s="17" customFormat="1" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="109"/>
+      <c r="B38" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="122"/>
-      <c r="D38" s="124"/>
-      <c r="E38" s="46">
+      <c r="C38" s="111"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="49">
         <v>70</v>
       </c>
-      <c r="F38" s="47" t="s">
+      <c r="F38" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="G38" s="45" t="s">
+      <c r="G38" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="H38" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="I38" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="J38" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="K38" s="126"/>
-      <c r="L38" s="49" t="s">
-        <v>84</v>
-      </c>
+      <c r="H38" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
     </row>
     <row r="39" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="30">
+      <c r="A39" s="31">
         <v>1</v>
       </c>
-      <c r="B39" s="103"/>
-      <c r="C39" s="40"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="43"/>
       <c r="D39" s="79"/>
-      <c r="E39" s="137"/>
-      <c r="F39" s="138"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="143">
-        <f>SUM(E39:F39)</f>
-        <v>0</v>
-      </c>
-      <c r="I39" s="40"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="100"/>
-      <c r="L39" s="80"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="37"/>
     </row>
     <row r="40" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="30">
+      <c r="A40" s="31">
         <v>2</v>
       </c>
-      <c r="B40" s="104"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="139"/>
-      <c r="F40" s="140"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="143"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="101"/>
-      <c r="L40" s="80"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="38"/>
     </row>
     <row r="41" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="30">
+      <c r="A41" s="31">
         <v>3</v>
       </c>
-      <c r="B41" s="104"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="139"/>
-      <c r="F41" s="140"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="143"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="101"/>
-      <c r="L41" s="80"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="82"/>
+      <c r="F41" s="83"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
     </row>
     <row r="42" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="30">
+      <c r="A42" s="31">
         <v>4</v>
       </c>
-      <c r="B42" s="104"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="139"/>
-      <c r="F42" s="140"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="143">
-        <f t="shared" ref="H40:H48" si="0">SUM(E42:F42)</f>
-        <v>0</v>
-      </c>
-      <c r="I42" s="28"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="101"/>
-      <c r="L42" s="80"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="83"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="38"/>
     </row>
     <row r="43" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="30">
+      <c r="A43" s="31">
         <v>5</v>
       </c>
-      <c r="B43" s="104"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="139"/>
-      <c r="F43" s="140"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="143">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="28"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="101"/>
-      <c r="L43" s="80"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="38"/>
     </row>
     <row r="44" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="30">
+      <c r="A44" s="31">
         <v>6</v>
       </c>
-      <c r="B44" s="104"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="139"/>
-      <c r="F44" s="140"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="143">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="28"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="101"/>
-      <c r="L44" s="80"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="38"/>
     </row>
     <row r="45" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="30">
+      <c r="A45" s="31">
         <v>7</v>
       </c>
-      <c r="B45" s="104"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="139"/>
-      <c r="F45" s="140"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="143">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="28"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="101"/>
-      <c r="L45" s="80"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="83"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="38"/>
     </row>
     <row r="46" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="30">
+      <c r="A46" s="31">
         <v>8</v>
       </c>
-      <c r="B46" s="104"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="139"/>
-      <c r="F46" s="140"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="143">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="28"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="101"/>
-      <c r="L46" s="80"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="83"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="101"/>
+      <c r="J46" s="101"/>
     </row>
     <row r="47" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="30">
+      <c r="A47" s="31">
         <v>9</v>
       </c>
-      <c r="B47" s="104"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="139"/>
-      <c r="F47" s="140"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="143">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="28"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="101"/>
-      <c r="L47" s="80"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="83"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="38"/>
     </row>
     <row r="48" spans="1:12" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="31">
+      <c r="A48" s="32">
         <v>10</v>
       </c>
-      <c r="B48" s="105"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="141"/>
-      <c r="F48" s="142"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="144">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="29"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="102"/>
-      <c r="L48" s="81"/>
-    </row>
-    <row r="49" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="34"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="84"/>
+      <c r="F48" s="85"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+    </row>
+    <row r="49" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="82"/>
+      <c r="E49" s="86"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+    </row>
+    <row r="50" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="82"/>
+      <c r="E50" s="86"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+    <row r="51" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="E51" s="83"/>
-      <c r="F51" s="84"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="88"/>
       <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+      <c r="I51" s="116"/>
+      <c r="J51" s="116"/>
+      <c r="K51" s="116"/>
+      <c r="L51" s="117"/>
+    </row>
+    <row r="52" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="E52" s="145">
-        <f>SUM(E39:E48)</f>
-        <v>0</v>
-      </c>
-      <c r="F52" s="145">
-        <f>SUM(F39:F48)</f>
-        <v>0</v>
-      </c>
-      <c r="H52" s="146">
-        <f>SUM(H39:H48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="H53" s="147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="H52" s="89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" s="6" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="H53" s="90" t="s">
+        <v>4</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53"/>
+    </row>
+    <row r="54" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B54" s="2"/>
@@ -3589,13 +3248,16 @@
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
-      <c r="H54" s="148">
-        <f>SUM(H52:H53)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+      <c r="H54" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="I54" s="78"/>
+      <c r="J54" s="78"/>
+      <c r="K54" s="78"/>
+      <c r="L54" s="6"/>
+    </row>
+    <row r="55" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B55" s="2"/>
@@ -3603,12 +3265,16 @@
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
-      <c r="H55" s="148" t="s">
+      <c r="H55" s="91" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+    </row>
+    <row r="56" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B56" s="2"/>
@@ -3616,706 +3282,652 @@
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
-      <c r="H56" s="146" t="s">
+      <c r="H56" s="92" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
+      <c r="I56" s="10"/>
+    </row>
+    <row r="57" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
-      <c r="G57" s="39"/>
-    </row>
-    <row r="58" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="111" t="s">
-        <v>35</v>
-      </c>
-      <c r="B58" s="111"/>
-      <c r="C58" s="111"/>
-      <c r="D58" s="111"/>
-      <c r="E58" s="111"/>
-      <c r="F58" s="111"/>
-      <c r="G58" s="111"/>
-      <c r="H58" s="111"/>
-      <c r="I58" s="111"/>
-      <c r="J58" s="111"/>
-    </row>
-    <row r="59" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-    </row>
-    <row r="60" spans="1:11" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="129" t="s">
+      <c r="G57" s="42"/>
+      <c r="I57" s="10"/>
+    </row>
+    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="101" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" s="101"/>
+      <c r="C58" s="101"/>
+      <c r="D58" s="101"/>
+      <c r="E58" s="101"/>
+      <c r="F58" s="101"/>
+      <c r="G58" s="101"/>
+      <c r="H58" s="101"/>
+      <c r="I58" s="102"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+    </row>
+    <row r="59" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="I59" s="7"/>
+    </row>
+    <row r="60" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="B60" s="129"/>
-      <c r="C60" s="129"/>
-      <c r="D60" s="129"/>
-      <c r="E60" s="4" t="s">
+      <c r="B60" s="114"/>
+      <c r="C60" s="114"/>
+      <c r="D60" s="114"/>
+      <c r="E60" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F60" s="4"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-    </row>
-    <row r="61" spans="1:11" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+      <c r="F60" s="5"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+    </row>
+    <row r="61" spans="1:12" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="F61" s="4" t="s">
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J61" s="4" t="s">
+      <c r="G61" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
+      <c r="I61" s="101"/>
+    </row>
+    <row r="62" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:11" s="20" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="127" t="s">
-        <v>43</v>
-      </c>
-      <c r="B63" s="127"/>
-      <c r="C63" s="127"/>
-      <c r="D63" s="127"/>
-      <c r="E63" s="127"/>
-      <c r="F63" s="127"/>
-      <c r="G63" s="127"/>
-      <c r="H63" s="127"/>
-      <c r="I63" s="127"/>
-      <c r="J63" s="127"/>
-      <c r="K63" s="127"/>
-    </row>
-    <row r="64" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="111" t="s">
-        <v>51</v>
-      </c>
-      <c r="B64" s="111"/>
-      <c r="C64" s="111"/>
-      <c r="D64" s="111"/>
-      <c r="E64" s="111"/>
-      <c r="F64" s="111"/>
-      <c r="G64" s="111"/>
+    <row r="63" spans="1:12" s="21" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="126" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" s="126"/>
+      <c r="C63" s="126"/>
+      <c r="D63" s="126"/>
+      <c r="E63" s="126"/>
+      <c r="F63" s="126"/>
+      <c r="G63" s="126"/>
+      <c r="H63" s="126"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+    </row>
+    <row r="64" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="B64" s="115"/>
+      <c r="C64" s="115"/>
+      <c r="D64" s="115"/>
+      <c r="E64" s="115"/>
+      <c r="F64" s="115"/>
+      <c r="G64" s="115"/>
     </row>
     <row r="65" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="B65" s="110"/>
-      <c r="C65" s="110"/>
-      <c r="D65" s="110"/>
-      <c r="E65" s="110"/>
-      <c r="F65" s="110"/>
-      <c r="G65" s="110"/>
-      <c r="H65" s="110"/>
-      <c r="I65" s="110"/>
-      <c r="J65" s="110"/>
-      <c r="K65" s="110"/>
-    </row>
-    <row r="66" spans="1:12" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="128" t="s">
-        <v>42</v>
-      </c>
-      <c r="B66" s="128"/>
-      <c r="C66" s="128"/>
-      <c r="D66" s="128"/>
-      <c r="E66" s="128"/>
-      <c r="F66" s="128"/>
-      <c r="G66" s="128"/>
-      <c r="H66" s="128"/>
-      <c r="I66" s="128"/>
-      <c r="J66" s="128"/>
-      <c r="K66" s="128"/>
-    </row>
-    <row r="67" spans="1:12" s="5" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-    </row>
-    <row r="68" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-    </row>
-    <row r="69" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-    </row>
-    <row r="70" spans="1:12" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="130" t="s">
-        <v>40</v>
-      </c>
-      <c r="B70" s="130"/>
-      <c r="C70" s="130"/>
-      <c r="D70" s="130"/>
-      <c r="E70" s="130"/>
-      <c r="F70" s="130"/>
-      <c r="G70" s="130"/>
-      <c r="H70" s="130"/>
-      <c r="I70" s="130"/>
-    </row>
-    <row r="71" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="132" t="s">
+      <c r="A65" s="104" t="s">
+        <v>45</v>
+      </c>
+      <c r="B65" s="104"/>
+      <c r="C65" s="104"/>
+      <c r="D65" s="104"/>
+      <c r="E65" s="104"/>
+      <c r="F65" s="104"/>
+      <c r="G65" s="104"/>
+      <c r="H65" s="104"/>
+      <c r="I65" s="104"/>
+      <c r="J65" s="104"/>
+      <c r="K65" s="104"/>
+    </row>
+    <row r="66" spans="1:12" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="104" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" s="104"/>
+      <c r="C66" s="104"/>
+      <c r="D66" s="104"/>
+      <c r="E66" s="104"/>
+      <c r="F66" s="104"/>
+      <c r="G66" s="104"/>
+      <c r="H66" s="104"/>
+      <c r="I66" s="104"/>
+      <c r="J66" s="104"/>
+      <c r="K66"/>
+      <c r="L66"/>
+    </row>
+    <row r="67" spans="1:12" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="104" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" s="104"/>
+      <c r="C67" s="104"/>
+      <c r="D67" s="104"/>
+      <c r="E67" s="104"/>
+      <c r="F67" s="104"/>
+      <c r="G67" s="104"/>
+      <c r="H67" s="104"/>
+      <c r="I67" s="104"/>
+      <c r="J67" s="104"/>
+      <c r="K67" s="104"/>
+    </row>
+    <row r="68" spans="1:12" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="122" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68" s="122"/>
+      <c r="C68" s="122"/>
+      <c r="D68" s="122"/>
+      <c r="E68" s="122"/>
+      <c r="F68" s="122"/>
+      <c r="G68" s="122"/>
+      <c r="H68" s="122"/>
+    </row>
+    <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="B71" s="132"/>
-      <c r="C71" s="132"/>
-      <c r="D71" s="132"/>
-      <c r="E71" s="132"/>
-      <c r="F71" s="132"/>
-      <c r="G71" s="132"/>
-      <c r="H71" s="132"/>
-      <c r="I71" s="132"/>
+      <c r="B69" s="123"/>
+      <c r="C69" s="123"/>
+      <c r="D69" s="123"/>
+      <c r="E69" s="123"/>
+      <c r="F69" s="123"/>
+      <c r="G69" s="123"/>
+      <c r="H69" s="123"/>
+    </row>
+    <row r="70" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="1:12" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="115" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="115"/>
+      <c r="C71" s="115"/>
+      <c r="D71" s="115"/>
+      <c r="E71" s="115"/>
+      <c r="F71" s="115"/>
+      <c r="G71" s="115"/>
+      <c r="H71" s="115"/>
     </row>
     <row r="72" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
+      <c r="A72" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:12" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="111" t="s">
-        <v>93</v>
-      </c>
-      <c r="B73" s="111"/>
-      <c r="C73" s="111"/>
-      <c r="D73" s="111"/>
-      <c r="E73" s="111"/>
-      <c r="F73" s="111"/>
-      <c r="G73" s="111"/>
-      <c r="H73" s="111"/>
-      <c r="I73" s="111"/>
-    </row>
-    <row r="74" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-    </row>
-    <row r="75" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-    </row>
-    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="109" t="s">
+    <row r="73" spans="1:12" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="B74" s="103"/>
+      <c r="C74" s="124"/>
+      <c r="D74" s="124"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+    </row>
+    <row r="75" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="8"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+    </row>
+    <row r="76" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="B76" s="109"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-    </row>
-    <row r="77" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="7"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-    </row>
-    <row r="78" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="110" t="s">
-        <v>52</v>
-      </c>
-      <c r="B78" s="110"/>
-      <c r="C78" s="110"/>
-      <c r="D78" s="110"/>
-      <c r="E78" s="110"/>
-      <c r="F78" s="110"/>
-      <c r="G78" s="110"/>
-      <c r="H78" s="110"/>
-    </row>
-    <row r="79" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="110" t="s">
-        <v>36</v>
-      </c>
-      <c r="B79" s="110"/>
-      <c r="C79" s="110"/>
-      <c r="D79" s="110"/>
-      <c r="E79" s="110"/>
-      <c r="F79" s="110"/>
-      <c r="G79" s="110"/>
-      <c r="H79" s="110"/>
-      <c r="I79" s="110"/>
-      <c r="J79" s="110"/>
-    </row>
-    <row r="80" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="131" t="s">
-        <v>89</v>
-      </c>
-      <c r="B80" s="131"/>
-      <c r="C80" s="131"/>
-      <c r="D80" s="131"/>
-      <c r="E80" s="131"/>
-      <c r="F80" s="131"/>
-      <c r="G80" s="131"/>
-      <c r="H80" s="131"/>
-      <c r="I80" s="131"/>
-      <c r="J80" s="131"/>
-      <c r="K80" s="131"/>
-      <c r="L80" s="131"/>
-    </row>
-    <row r="81" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="131" t="s">
-        <v>90</v>
-      </c>
-      <c r="B81" s="131"/>
-      <c r="C81" s="131"/>
-      <c r="D81" s="131"/>
-      <c r="E81" s="131"/>
-      <c r="F81" s="131"/>
-      <c r="G81" s="131"/>
-      <c r="H81" s="131"/>
-      <c r="I81" s="131"/>
-      <c r="J81" s="78"/>
-    </row>
-    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="96" t="s">
-        <v>91</v>
-      </c>
-      <c r="B82" s="97"/>
-      <c r="C82" s="97"/>
-      <c r="D82" s="98"/>
-      <c r="E82" s="98"/>
-      <c r="F82" s="98"/>
-      <c r="G82" s="99"/>
-      <c r="H82" s="99"/>
-      <c r="I82" s="99"/>
-      <c r="J82" s="99"/>
-    </row>
-    <row r="83" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="96" t="s">
-        <v>92</v>
-      </c>
-      <c r="B83" s="97"/>
-      <c r="C83" s="97"/>
-      <c r="D83" s="98"/>
-      <c r="E83" s="98"/>
-      <c r="F83" s="98"/>
-      <c r="G83" s="99"/>
-      <c r="H83" s="99"/>
-      <c r="I83" s="99"/>
-      <c r="J83" s="99"/>
-    </row>
-    <row r="84" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="133" t="s">
+      <c r="B76" s="104"/>
+      <c r="C76" s="104"/>
+      <c r="D76" s="104"/>
+      <c r="E76" s="104"/>
+      <c r="F76" s="104"/>
+      <c r="G76" s="104"/>
+      <c r="H76" s="104"/>
+    </row>
+    <row r="77" spans="1:12" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="104" t="s">
+        <v>34</v>
+      </c>
+      <c r="B77" s="104"/>
+      <c r="C77" s="104"/>
+      <c r="D77" s="104"/>
+      <c r="E77" s="104"/>
+      <c r="F77" s="104"/>
+      <c r="G77" s="104"/>
+      <c r="H77" s="104"/>
+      <c r="I77" s="104"/>
+      <c r="J77" s="104"/>
+    </row>
+    <row r="78" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="118" t="s">
+        <v>69</v>
+      </c>
+      <c r="B78" s="118"/>
+      <c r="C78" s="118"/>
+      <c r="D78" s="118"/>
+      <c r="E78" s="118"/>
+      <c r="F78" s="118"/>
+      <c r="G78" s="118"/>
+      <c r="H78" s="118"/>
+      <c r="I78" s="118"/>
+      <c r="J78" s="118"/>
+      <c r="K78" s="118"/>
+    </row>
+    <row r="79" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="118" t="s">
+        <v>70</v>
+      </c>
+      <c r="B79" s="118"/>
+      <c r="C79" s="118"/>
+      <c r="D79" s="118"/>
+      <c r="E79" s="118"/>
+      <c r="F79" s="118"/>
+      <c r="G79" s="118"/>
+      <c r="H79" s="118"/>
+      <c r="I79" s="118"/>
+      <c r="J79" s="118"/>
+      <c r="K79" s="118"/>
+    </row>
+    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="97" t="s">
+        <v>71</v>
+      </c>
+      <c r="B80" s="98"/>
+      <c r="C80" s="98"/>
+      <c r="D80" s="99"/>
+      <c r="E80" s="99"/>
+      <c r="F80" s="99"/>
+      <c r="G80" s="100"/>
+      <c r="H80" s="100"/>
+      <c r="J80" s="44"/>
+    </row>
+    <row r="81" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="97" t="s">
+        <v>72</v>
+      </c>
+      <c r="B81" s="98"/>
+      <c r="C81" s="98"/>
+      <c r="D81" s="99"/>
+      <c r="E81" s="99"/>
+      <c r="F81" s="99"/>
+      <c r="G81" s="100"/>
+      <c r="H81" s="100"/>
+    </row>
+    <row r="82" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="B84" s="133"/>
-      <c r="C84" s="133"/>
-      <c r="D84" s="133"/>
-      <c r="E84" s="133"/>
-      <c r="F84" s="133"/>
-      <c r="G84" s="133"/>
-      <c r="H84" s="133"/>
-      <c r="I84" s="133"/>
-      <c r="J84" s="133"/>
-      <c r="K84" s="133"/>
-    </row>
-    <row r="85" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="111" t="s">
-        <v>33</v>
-      </c>
-      <c r="B85" s="111"/>
-      <c r="C85" s="111"/>
-      <c r="D85" s="111"/>
-      <c r="E85" s="111"/>
-      <c r="F85" s="111"/>
-      <c r="G85" s="111"/>
-      <c r="H85" s="111"/>
-      <c r="I85" s="111"/>
-      <c r="J85" s="111"/>
-    </row>
-    <row r="86" spans="1:12" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="B86" s="50" t="s">
+      <c r="B82" s="119"/>
+      <c r="C82" s="119"/>
+      <c r="D82" s="119"/>
+      <c r="E82" s="119"/>
+      <c r="F82" s="119"/>
+      <c r="G82" s="119"/>
+      <c r="H82" s="119"/>
+    </row>
+    <row r="83" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="121" t="s">
+        <v>32</v>
+      </c>
+      <c r="B83" s="121"/>
+      <c r="C83" s="121"/>
+      <c r="D83" s="121"/>
+      <c r="E83" s="121"/>
+      <c r="F83" s="121"/>
+      <c r="G83" s="121"/>
+      <c r="H83" s="121"/>
+      <c r="I83" s="120"/>
+    </row>
+    <row r="84" spans="1:12" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="B84" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C86" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D86" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="E86" s="27" t="s">
+      <c r="C84" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D84" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E84" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F86" s="112" t="s">
+      <c r="F84" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="G86" s="113"/>
-      <c r="H86" s="70" t="s">
+      <c r="G84" s="106"/>
+      <c r="H84" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="I86" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="J86" s="72" t="s">
+    </row>
+    <row r="85" spans="1:12" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="31">
+        <v>1</v>
+      </c>
+      <c r="B85" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C85" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="D85" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="E85" s="60">
+        <v>70</v>
+      </c>
+      <c r="F85" s="63">
+        <v>150</v>
+      </c>
+      <c r="G85" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="H85" s="60">
+        <f>SUM(E85:F85)</f>
+        <v>220</v>
+      </c>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+    </row>
+    <row r="86" spans="1:12" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="31">
+        <v>2</v>
+      </c>
+      <c r="B86" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C86" s="58">
+        <v>78</v>
+      </c>
+      <c r="D86" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="E86" s="60">
+        <v>70</v>
+      </c>
+      <c r="F86" s="63">
+        <v>150</v>
+      </c>
+      <c r="G86" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="H86" s="60">
+        <f>SUM(E86:F86)</f>
+        <v>220</v>
+      </c>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+    </row>
+    <row r="87" spans="1:12" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="31">
+        <v>3</v>
+      </c>
+      <c r="B87" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" s="58">
+        <v>75</v>
+      </c>
+      <c r="D87" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="K86" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="L86" s="27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="30">
-        <v>1</v>
-      </c>
-      <c r="B87" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="C87" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="D87" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="E87" s="55">
+      <c r="E87" s="60">
         <v>70</v>
       </c>
-      <c r="F87" s="58">
+      <c r="F87" s="63">
         <v>150</v>
       </c>
-      <c r="G87" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="H87" s="73">
+      <c r="G87" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H87" s="60">
         <f>SUM(E87:F87)</f>
         <v>220</v>
       </c>
-      <c r="I87" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="K87" s="75"/>
-      <c r="L87" s="75"/>
-    </row>
-    <row r="88" spans="1:12" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="30">
-        <v>2</v>
-      </c>
-      <c r="B88" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="C88" s="53">
-        <v>78</v>
-      </c>
-      <c r="D88" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="E88" s="55">
-        <v>70</v>
-      </c>
-      <c r="F88" s="58">
+      <c r="I87"/>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="L87"/>
+    </row>
+    <row r="88" spans="1:12" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="31">
+        <v>4</v>
+      </c>
+      <c r="B88" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C88" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="D88" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="E88" s="61"/>
+      <c r="F88" s="63">
         <v>150</v>
       </c>
-      <c r="G88" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="H88" s="73">
-        <f>SUM(E88:F88)</f>
-        <v>220</v>
-      </c>
-      <c r="I88" s="74"/>
-      <c r="J88" s="114" t="s">
-        <v>70</v>
-      </c>
-      <c r="K88" s="75" t="s">
-        <v>71</v>
-      </c>
-      <c r="L88" s="85" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="30">
+      <c r="G88" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="H88" s="60">
+        <f t="shared" ref="H88:H89" si="0">SUM(E88:F88)</f>
+        <v>150</v>
+      </c>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="L88"/>
+    </row>
+    <row r="89" spans="1:12" s="6" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="32">
+        <v>5</v>
+      </c>
+      <c r="B89" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E89" s="62"/>
+      <c r="F89" s="65">
+        <v>150</v>
+      </c>
+      <c r="G89" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89" s="125">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="I89"/>
+      <c r="J89"/>
+      <c r="K89"/>
+      <c r="L89"/>
+    </row>
+    <row r="90" spans="1:12" s="6" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="17"/>
+      <c r="B90" s="78"/>
+      <c r="C90" s="93"/>
+      <c r="D90" s="93"/>
+      <c r="E90" s="94"/>
+      <c r="F90" s="95"/>
+      <c r="G90" s="93"/>
+      <c r="H90" s="96"/>
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="L90"/>
+    </row>
+    <row r="91" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="12"/>
+      <c r="E91" s="27">
         <v>3</v>
       </c>
-      <c r="B89" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="C89" s="53">
-        <v>75</v>
-      </c>
-      <c r="D89" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="E89" s="55">
-        <v>70</v>
-      </c>
-      <c r="F89" s="58">
-        <v>150</v>
-      </c>
-      <c r="G89" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="H89" s="73">
-        <f>SUM(E89:F89)</f>
-        <v>220</v>
-      </c>
-      <c r="I89" s="86"/>
-      <c r="J89" s="115"/>
-      <c r="K89" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="L89" s="85" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="30">
-        <v>4</v>
-      </c>
-      <c r="B90" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C90" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="D90" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="E90" s="56"/>
-      <c r="F90" s="58">
-        <v>150</v>
-      </c>
-      <c r="G90" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="H90" s="73">
-        <f t="shared" ref="H90:H91" si="1">SUM(E90:F90)</f>
-        <v>150</v>
-      </c>
-      <c r="I90" s="87"/>
-      <c r="J90" s="116" t="s">
-        <v>75</v>
-      </c>
-      <c r="K90" s="75" t="s">
-        <v>76</v>
-      </c>
-      <c r="L90" s="85" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" s="5" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="31">
+      <c r="F91" s="26">
         <v>5</v>
       </c>
-      <c r="B91" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="C91" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="D91" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="E91" s="57"/>
-      <c r="F91" s="60">
-        <v>150</v>
-      </c>
-      <c r="G91" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="H91" s="76">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="I91" s="88"/>
-      <c r="J91" s="117"/>
-      <c r="K91" s="77" t="s">
-        <v>77</v>
-      </c>
-      <c r="L91" s="89" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" s="5" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="16"/>
-      <c r="B92" s="71"/>
-      <c r="C92" s="90"/>
-      <c r="D92" s="90"/>
-      <c r="E92" s="91"/>
-      <c r="F92" s="92"/>
-      <c r="G92" s="90"/>
-      <c r="H92" s="93"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="94"/>
-      <c r="K92" s="95"/>
-      <c r="L92"/>
+      <c r="G91" s="15"/>
+    </row>
+    <row r="92" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="12"/>
+      <c r="C92" s="12"/>
+      <c r="E92" s="11">
+        <f>SUM(E85:E89)</f>
+        <v>210</v>
+      </c>
+      <c r="F92" s="11">
+        <f>SUM(F85:F89)</f>
+        <v>750</v>
+      </c>
+      <c r="H92" s="11">
+        <f>SUM(E92:F92)</f>
+        <v>960</v>
+      </c>
     </row>
     <row r="93" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B93" s="13"/>
-      <c r="C93" s="11"/>
-      <c r="E93" s="26">
-        <v>3</v>
-      </c>
-      <c r="F93" s="25">
-        <v>5</v>
-      </c>
-      <c r="G93" s="14"/>
+      <c r="A93" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="B93" s="104"/>
+      <c r="C93" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="12"/>
+      <c r="H93" s="11">
+        <v>100</v>
+      </c>
     </row>
     <row r="94" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-      <c r="E94" s="10">
-        <f>SUM(E87:E91)</f>
-        <v>210</v>
-      </c>
-      <c r="F94" s="10">
-        <f>SUM(F87:F91)</f>
-        <v>750</v>
-      </c>
-      <c r="H94" s="10">
-        <f>SUM(E94:F94)</f>
-        <v>960</v>
-      </c>
-      <c r="J94" s="41"/>
+      <c r="A94" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94" s="12"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="H94" s="11">
+        <f>SUM(H92:H93)</f>
+        <v>1060</v>
+      </c>
     </row>
     <row r="95" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="110" t="s">
-        <v>37</v>
-      </c>
-      <c r="B95" s="110"/>
-      <c r="C95" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D95" s="15"/>
-      <c r="E95" s="15"/>
-      <c r="F95" s="11"/>
-      <c r="H95" s="10">
-        <v>100</v>
+      <c r="A95" s="104" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" s="104"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="H95" s="11">
+        <f>H94</f>
+        <v>1060</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
-      <c r="H96" s="10">
-        <f>SUM(H94:H95)</f>
+      <c r="A96" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="104"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="H96" s="11">
+        <f>H95</f>
         <v>1060</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="110" t="s">
-        <v>7</v>
-      </c>
-      <c r="B97" s="110"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
-      <c r="H97" s="10">
-        <f>H96</f>
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="110" t="s">
-        <v>8</v>
-      </c>
-      <c r="B98" s="110"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
-      <c r="H98" s="10">
-        <f>H97</f>
-        <v>1060</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A63:K63"/>
-    <mergeCell ref="A65:K65"/>
-    <mergeCell ref="A66:K66"/>
-    <mergeCell ref="A58:J58"/>
+  <mergeCells count="30">
+    <mergeCell ref="A63:H63"/>
+    <mergeCell ref="A67:K67"/>
+    <mergeCell ref="A69:H69"/>
+    <mergeCell ref="A71:H71"/>
+    <mergeCell ref="A77:J77"/>
+    <mergeCell ref="A96:B96"/>
     <mergeCell ref="A60:D60"/>
     <mergeCell ref="A64:G64"/>
-    <mergeCell ref="A70:I70"/>
-    <mergeCell ref="A81:I81"/>
-    <mergeCell ref="A80:L80"/>
-    <mergeCell ref="A71:I71"/>
-    <mergeCell ref="A73:I73"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A79:J79"/>
-    <mergeCell ref="A84:K84"/>
+    <mergeCell ref="A76:H76"/>
+    <mergeCell ref="A79:K79"/>
+    <mergeCell ref="A78:K78"/>
+    <mergeCell ref="A82:H82"/>
+    <mergeCell ref="A83:H83"/>
+    <mergeCell ref="A68:H68"/>
+    <mergeCell ref="A65:K65"/>
+    <mergeCell ref="A66:J66"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C4:H4"/>
@@ -4326,26 +3938,17 @@
     <mergeCell ref="C33:I33"/>
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="F37:G37"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A85:J85"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="J88:J89"/>
-    <mergeCell ref="J90:J91"/>
+    <mergeCell ref="A74:B74"/>
     <mergeCell ref="A95:B95"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="A93:B93"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="K89" r:id="rId1" xr:uid="{920953C2-2DC7-49D6-BF4D-8B24A6E7C0A8}"/>
-    <hyperlink ref="K90" r:id="rId2" xr:uid="{360983FF-9975-4113-AE57-E924F6D813D7}"/>
-    <hyperlink ref="K91" r:id="rId3" xr:uid="{A03DF8C4-197F-437C-983A-DF782E936954}"/>
-    <hyperlink ref="K88" r:id="rId4" xr:uid="{34C8E9B1-52AA-4C26-8B07-D08A012D5835}"/>
-  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.39370078740157483" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="landscape" r:id="rId5"/>
+  <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="29" max="16383" man="1"/>
   </rowBreaks>
-  <drawing r:id="rId6"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>